--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="857" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="857" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="946">
   <si>
     <r>
       <rPr>
@@ -12866,131 +12866,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>words = [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>„look“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>„into“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>„my“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>„eyes“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> …. ]
-word_counts = Counter(words)
-top_three = word_counts.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF01579B"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>most_common</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(3)
-#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF757575"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [(„eyes“, 8), („the“, 5), („look“, 4)]</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">
 Считает три наиболее часто встречающихся слова</t>
   </si>
@@ -19928,8 +19803,204 @@
     <t>PostgreSQL   - psycopg2</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Модуль для простого исполнения запросов в базу PostgresQL. 
+В проектах же надо использовать простой pip install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>psycopg2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.psycopg.org/docs/install.html#quick-install</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pip install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>psycopg2-binary</t>
+    </r>
+  </si>
+  <si>
+    <t>Подключиться к базе PostgreSQL</t>
+  </si>
+  <si>
+    <t>dbh = psycopg2.connect(database="firmware", user="firmadyne",
+                           password="firmadyne", host="127.0.0.1")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT column_name FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>INFORMATION_SCHEMA.COLUMNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> WHERE TABLE_NAME = 'some_table';</t>
+    </r>
+  </si>
+  <si>
+    <t>Запрос имён колонок из информационной схемы таблицы</t>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(i, x)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(x[, start[, end]])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>old_list.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(add_list)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>psycopg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+cur = conn.cursor()
+cur.execute("SELECT * FROM my_data")
+records = cur.fetchall()</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">
-# Connect to your postgres DB
 # Open a cursor to perform database operations
 # Execute a query
 # Retrieve query results</t>
@@ -19946,7 +20017,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"Select * FROM people LIMIT 0"</t>
+      <t>"Select * FROM schema_name.table_name LIMIT 0"</t>
     </r>
     <r>
       <rPr>
@@ -20001,206 +20072,132 @@
     </r>
   </si>
   <si>
-    <t>Быстро получить имена колонок в таблице people.
+    <t>Быстро получить имена колонок из тыблицы внутри схемы.
 Работает как для таблиц, так и для views</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Модуль для простого исполнения запросов в базу PostgresQL. 
-В проектах же надо использовать простой pip install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>psycopg2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-https://www.psycopg.org/docs/install.html#quick-install</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">pip install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>psycopg2-binary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>psycopg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-conn = psycopg.connect("dbname=test user=postgres")
-cur = conn.cursor()
-cur.execute("SELECT * FROM my_data")
-records = cur.fetchall()</t>
-    </r>
-  </si>
-  <si>
-    <t>Подключиться к базе PostgreSQL</t>
-  </si>
-  <si>
-    <t>dbh = psycopg2.connect(database="firmware", user="firmadyne",
-                           password="firmadyne", host="127.0.0.1")</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT column_name FROM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>INFORMATION_SCHEMA.COLUMNS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> WHERE TABLE_NAME = 'some_table';</t>
-    </r>
-  </si>
-  <si>
-    <t>Запрос имён колонок из информационной схемы таблицы</t>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>insert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(i, x)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(x[, start[, end]])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>old_list.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>extend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(add_list)</t>
-    </r>
+      <t>words = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>„look“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>„into“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>„my“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>„eyes“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> …. ]
+word_counts = Counter(words)
+top_three = word_counts.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF01579B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>most_common</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(3)
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF757575"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [(„eyes“, 8), („the“, 5), („look“, 4)]</t>
+    </r>
+  </si>
+  <si>
+    <t>Counter(words).items()</t>
+  </si>
+  <si>
+    <t>Получить лист туплов (элемент, его количество в листе)</t>
   </si>
 </sst>
 </file>
@@ -21061,7 +21058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -21357,17 +21354,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -21383,6 +21371,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21766,7 +21766,7 @@
     </row>
     <row r="3" spans="1:2" ht="27">
       <c r="A3" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>2</v>
@@ -21774,10 +21774,10 @@
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -21789,25 +21789,25 @@
       <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="109" t="s">
-        <v>919</v>
-      </c>
-      <c r="B7" s="108"/>
+      <c r="A7" s="106" t="s">
+        <v>918</v>
+      </c>
+      <c r="B7" s="105"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>921</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21820,10 +21820,10 @@
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="24" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21923,7 +21923,7 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -22957,10 +22957,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AMJ147"/>
+  <dimension ref="A1:AMJ148"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="15" spans="1:2" s="69" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>515</v>
@@ -23090,7 +23090,7 @@
     </row>
     <row r="16" spans="1:2" s="69" customFormat="1" ht="29">
       <c r="A16" s="9" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>516</v>
@@ -23114,7 +23114,7 @@
     </row>
     <row r="19" spans="1:2" s="69" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>521</v>
@@ -23616,7 +23616,7 @@
       <c r="A92" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="B92" s="104" t="s">
+      <c r="B92" s="110" t="s">
         <v>623</v>
       </c>
     </row>
@@ -23624,7 +23624,7 @@
       <c r="A93" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="B93" s="104"/>
+      <c r="B93" s="110"/>
     </row>
     <row r="94" spans="1:2" ht="43.5">
       <c r="A94" s="13" t="s">
@@ -23706,127 +23706,131 @@
       </c>
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="1:2" ht="58">
-      <c r="A108" s="13" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="52" t="s">
+        <v>944</v>
+      </c>
+      <c r="B108" s="103" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="58">
+      <c r="A109" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="B108" s="13" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="29">
+      <c r="A110" s="13" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="29">
-      <c r="A109" s="13" t="s">
+      <c r="B110" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="B109" s="13" t="s">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="13" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="13" t="s">
+      <c r="B111" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="B110" s="13" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="58">
+      <c r="A112" s="13" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="58">
-      <c r="A111" s="13" t="s">
+      <c r="B112" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="B111" s="13" t="s">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="65" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="65" t="s">
+      <c r="B114" s="65" t="s">
         <v>645</v>
       </c>
-      <c r="B113" s="65" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="188.5">
+      <c r="A115" s="66" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="188.5">
-      <c r="A114" s="66" t="s">
+      <c r="B115" s="13"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="13" t="s">
+      <c r="B116" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="B115" s="23" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="232">
+      <c r="A117" s="66" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="232">
-      <c r="A116" s="66" t="s">
+      <c r="B117" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="B116" s="23" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="65" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="65" t="s">
+      <c r="B119" s="65" t="s">
         <v>652</v>
       </c>
-      <c r="B118" s="65" t="s">
+    </row>
+    <row r="120" spans="1:2" ht="261">
+      <c r="A120" s="13" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="261">
-      <c r="A119" s="13" t="s">
+      <c r="B120" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="B119" s="13" t="s">
+    </row>
+    <row r="121" spans="1:2" ht="29">
+      <c r="A121" s="65" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="29">
-      <c r="A120" s="65" t="s">
+      <c r="B121" s="65" t="s">
         <v>656</v>
       </c>
-      <c r="B120" s="65" t="s">
+    </row>
+    <row r="122" spans="1:2" ht="304.5">
+      <c r="A122" s="66" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="304.5">
-      <c r="A121" s="66" t="s">
+      <c r="B122" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="B121" s="13" t="s">
+    </row>
+    <row r="123" spans="1:2" ht="87">
+      <c r="A123" s="13" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="87">
-      <c r="A122" s="13" t="s">
+      <c r="B123" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="B122" s="13" t="s">
+    </row>
+    <row r="124" spans="1:2" ht="116">
+      <c r="A124" s="13" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="116">
-      <c r="A123" s="13" t="s">
+      <c r="B124" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="13"/>
@@ -23919,6 +23923,10 @@
     <row r="147" spans="1:2">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23954,18 +23962,18 @@
     </row>
     <row r="2" spans="1:2" ht="348">
       <c r="A2" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>664</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="232">
       <c r="A3" s="78" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -24140,74 +24148,74 @@
     </row>
     <row r="2" spans="1:2" ht="130.5">
       <c r="A2" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>672</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="B7" t="s">
         <v>678</v>
-      </c>
-      <c r="B7" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>680</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>682</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>684</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -24314,34 +24322,34 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>686</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
       <c r="A3" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>692</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -24395,167 +24403,167 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>694</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>698</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>700</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>702</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>704</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5">
       <c r="A8" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>706</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="46" t="s">
+        <v>707</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>708</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>710</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>712</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>714</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>716</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
       <c r="A14" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>718</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5">
       <c r="A15" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>720</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="58">
       <c r="A16" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>722</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" customHeight="1">
       <c r="A17" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B17" s="110" t="s">
         <v>724</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="81" t="s">
-        <v>726</v>
-      </c>
-      <c r="B18" s="104"/>
+        <v>725</v>
+      </c>
+      <c r="B18" s="110"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="81" t="s">
-        <v>727</v>
-      </c>
-      <c r="B19" s="104"/>
+        <v>726</v>
+      </c>
+      <c r="B19" s="110"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="81" t="s">
-        <v>728</v>
-      </c>
-      <c r="B20" s="104"/>
+        <v>727</v>
+      </c>
+      <c r="B20" s="110"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="81" t="s">
-        <v>729</v>
-      </c>
-      <c r="B21" s="104"/>
+        <v>728</v>
+      </c>
+      <c r="B21" s="110"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="81" t="s">
-        <v>730</v>
-      </c>
-      <c r="B22" s="104"/>
+        <v>729</v>
+      </c>
+      <c r="B22" s="110"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="81" t="s">
-        <v>731</v>
-      </c>
-      <c r="B23" s="104"/>
+        <v>730</v>
+      </c>
+      <c r="B23" s="110"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="13"/>
@@ -24563,10 +24571,10 @@
     </row>
     <row r="25" spans="1:2" ht="29">
       <c r="A25" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>732</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24651,10 +24659,10 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="62" t="s">
+        <v>733</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -24663,42 +24671,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="52" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>738</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
       <c r="A6" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>742</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>744</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -24707,74 +24715,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>746</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>748</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>750</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>752</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>754</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>756</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>758</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>760</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>762</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24799,7 +24807,7 @@
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -24903,26 +24911,26 @@
     </row>
     <row r="15" spans="1:2" ht="256.5">
       <c r="A15" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>923</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135">
       <c r="A16" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="189">
-      <c r="A17" s="107" t="s">
-        <v>925</v>
+      <c r="A17" s="104" t="s">
+        <v>924</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
@@ -24938,49 +24946,49 @@
       <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="110" t="s">
-        <v>930</v>
-      </c>
-      <c r="B20" s="110"/>
+      <c r="A20" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="B20" s="107"/>
     </row>
     <row r="21" spans="1:2" ht="72.5">
       <c r="A21" s="17" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29">
       <c r="A22" s="17" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="87">
-      <c r="A23" s="111" t="s">
-        <v>936</v>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="72.5">
+      <c r="A23" s="108" t="s">
+        <v>939</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29">
       <c r="A24" s="17" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="17" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -25085,10 +25093,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>764</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -25105,7 +25113,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B7" s="33"/>
     </row>
@@ -25123,15 +25131,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>767</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B12" s="13"/>
     </row>
@@ -25206,13 +25214,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="83" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B2" s="84"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="49" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B3" s="49"/>
     </row>
@@ -25288,78 +25296,78 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="85" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>773</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>775</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="58">
       <c r="A6" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>778</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>780</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>782</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>784</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="87" t="s">
+        <v>787</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>788</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -25372,56 +25380,56 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="88" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B14" s="86"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>791</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>793</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>795</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>797</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>799</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>801</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -25430,24 +25438,24 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="33" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B22" s="33"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>804</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5">
       <c r="A24" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>806</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -25515,39 +25523,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="89" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>808</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>809</v>
       </c>
       <c r="C1" s="89" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1" s="90" t="s">
         <v>810</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="F1" s="90" t="s">
         <v>811</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="91" t="s">
         <v>816</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>817</v>
       </c>
       <c r="F2" s="92">
         <v>0</v>
@@ -25556,19 +25564,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="71" t="s">
+        <v>817</v>
+      </c>
+      <c r="B3" s="94" t="s">
         <v>818</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="C3" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="D3" s="71" t="s">
         <v>820</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="E3" s="91" t="s">
         <v>821</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>822</v>
       </c>
       <c r="F3" s="92">
         <v>1</v>
@@ -25577,19 +25585,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="91" t="s">
         <v>825</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>826</v>
       </c>
       <c r="F4" s="92">
         <v>2</v>
@@ -25598,19 +25606,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="71" t="s">
+        <v>826</v>
+      </c>
+      <c r="B5" s="94" t="s">
         <v>827</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="C5" s="94" t="s">
         <v>828</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="D5" s="71" t="s">
         <v>829</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="E5" s="91" t="s">
         <v>830</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>831</v>
       </c>
       <c r="F5" s="92">
         <v>3</v>
@@ -25623,7 +25631,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="91" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F6" s="92">
         <v>4</v>
@@ -25636,7 +25644,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="91" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F7" s="92">
         <v>5</v>
@@ -25649,7 +25657,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="91" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F8" s="92">
         <v>6</v>
@@ -25662,7 +25670,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="91" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F9" s="92">
         <v>7</v>
@@ -25671,19 +25679,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="91" t="s">
         <v>839</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>840</v>
       </c>
       <c r="F10" s="92">
         <v>8</v>
@@ -25692,19 +25700,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="91" t="s">
         <v>844</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>845</v>
       </c>
       <c r="F11" s="92">
         <v>9</v>
@@ -25713,19 +25721,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="91" t="s">
         <v>849</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>850</v>
       </c>
       <c r="F12" s="92">
         <v>10</v>
@@ -25734,19 +25742,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="91" t="s">
         <v>854</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>855</v>
       </c>
       <c r="F13" s="92">
         <v>11</v>
@@ -25759,7 +25767,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="91" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F14" s="92">
         <v>12</v>
@@ -25772,7 +25780,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="91" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F15" s="92">
         <v>13</v>
@@ -25781,19 +25789,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="91" t="s">
         <v>861</v>
-      </c>
-      <c r="E16" s="91" t="s">
-        <v>862</v>
       </c>
       <c r="F16" s="92">
         <v>14</v>
@@ -25802,17 +25810,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>863</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>864</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="E17" s="91" t="s">
         <v>865</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>866</v>
       </c>
       <c r="F17" s="92">
         <v>15</v>
@@ -25824,16 +25832,16 @@
         <v>367</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="91" t="s">
         <v>869</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>870</v>
       </c>
       <c r="F18" s="92">
         <v>16</v>
@@ -25846,7 +25854,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="91" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F19" s="92">
         <v>17</v>
@@ -25858,7 +25866,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="91" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F20" s="92">
         <v>18</v>
@@ -25871,7 +25879,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="91" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F21" s="92">
         <v>19</v>
@@ -25884,7 +25892,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="91" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F22" s="92">
         <v>20</v>
@@ -25919,59 +25927,59 @@
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="112" t="s">
+        <v>874</v>
+      </c>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A28" s="111" t="s">
         <v>875</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="105" t="s">
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A29" s="111" t="s">
         <v>876</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="105" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A30" s="111" t="s">
         <v>877</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="105" t="s">
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1">
+      <c r="A31" s="111" t="s">
         <v>878</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="105" t="s">
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A32" s="111" t="s">
         <v>879</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="111" t="s">
         <v>880</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="105" t="s">
-        <v>881</v>
-      </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="13"/>
     </row>
   </sheetData>
@@ -26010,26 +26018,26 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>882</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>884</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26112,23 +26120,23 @@
         <v>154</v>
       </c>
       <c r="B1" s="95" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="62" t="s">
+        <v>888</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>889</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="62" t="s">
+        <v>890</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>891</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -26159,26 +26167,26 @@
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>895</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>897</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26187,26 +26195,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="96" t="s">
+        <v>898</v>
+      </c>
+      <c r="B6" s="96" t="s">
         <v>899</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="97" t="s">
+        <v>900</v>
+      </c>
+      <c r="B7" s="83" t="s">
         <v>901</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="97" t="s">
+        <v>902</v>
+      </c>
+      <c r="B8" s="96" t="s">
         <v>903</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -26249,26 +26257,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B1" t="s">
         <v>905</v>
-      </c>
-      <c r="B1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B2" t="s">
         <v>907</v>
-      </c>
-      <c r="B2" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="98" t="s">
+        <v>908</v>
+      </c>
+      <c r="B3" t="s">
         <v>909</v>
-      </c>
-      <c r="B3" t="s">
-        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -26290,7 +26298,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="44" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B1" s="44"/>
     </row>
@@ -26454,16 +26462,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="101" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>912</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="100"/>
       <c r="B3" s="100" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -27096,10 +27104,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="103"/>
+      <c r="B20" s="109"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="9" t="s">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -28871,7 +28871,7 @@
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="840" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="840" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -16322,386 +16322,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC45911"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> collections </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC45911"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF01579B"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">namedtuple
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Stock = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF01579B"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>namedtuple</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'Stock'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'name', 'shares', 'price'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">])   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF757575"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"># имена полей хранятся в описании namedtuple, в экземплярах — только данные
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC45911"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>def</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> compute_cost(records):
-    total = 0.0
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC45911"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> rec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC45911"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> records:
-        s = Stock(*rec)       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF757575"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#  даём имена всем элементам тупла по описанной схеме
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">        total += s.shares * s.price   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF757575"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"># оперируем элементами тупла по именам
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC45911"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> total
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF757575"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"># Some Data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>records = [
-    (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'GOOG'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, 100, 490.1),
-    (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'ACME'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, 100, 123.45),
-    (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'IBM'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 50, 91.15)
-]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A1B9A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(compute_cost(records))
-&gt;&gt;&gt; 65912.5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -20617,6 +20237,379 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> a, b:   a * b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> collections </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC45911"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF01579B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">namedtuple
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Stock = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF01579B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>namedtuple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'Stock'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'name', 'shares', 'price'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">])   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF757575"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># имена полей хранятся в описании namedtuple, в экземплярах — только данные
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC45911"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> compute_cost(records):
+    total = 0.0
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC45911"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> rec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC45911"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> records:
+        s = Stock(*rec)       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF757575"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#  даём имена всем элементам тупла по описанной схеме
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">        total += s.shares * s.price   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF757575"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># оперируем элементами тупла по именам
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC45911"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF757575"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># Some Data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>records = [
+    (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'GOOG'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 100, 490.1),
+    (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'ACME'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 100, 123.45),
+    (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'IBM'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 50, 91.15)
+]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A1B9A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(compute_cost(records))
+&gt;&gt;&gt; 65912.5</t>
     </r>
   </si>
 </sst>
@@ -21516,18 +21509,6 @@
   </cellStyleXfs>
   <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -21845,6 +21826,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22205,164 +22198,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="77.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="101.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -22391,202 +22384,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2" ht="72.5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="59" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="62" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="63" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="60" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="60" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="60"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="63" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="101.5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="60"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" ht="58">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="41" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="28" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2" ht="29">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="41" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="28" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22607,78 +22600,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="65" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22697,341 +22690,341 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="32" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="66.08984375" style="70" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="5" customWidth="1"/>
-    <col min="6" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="8" style="28" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="66.08984375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="43" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" s="39" customFormat="1">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="43" customFormat="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:4" s="39" customFormat="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="43" customFormat="1" ht="130.5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="71" t="s">
+    <row r="3" spans="1:4" s="39" customFormat="1" ht="130.5">
+      <c r="A3" s="22"/>
+      <c r="B3" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5">
-      <c r="A8" s="32" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="43.5">
+      <c r="A8" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="68" t="s">
         <v>394</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="87">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="29">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="29">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="29">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="29">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="29">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="43.5">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="43.5">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="29">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="43.5">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="29">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="29">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="43.5">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="29">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="29">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="28" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="58">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="28" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="29">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="28" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="29">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="28" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="29">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="2:4" ht="43.5">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="28" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="29">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="28" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="32"/>
+      <c r="C33" s="28"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="32"/>
+      <c r="C34" s="28"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="32"/>
+      <c r="C35" s="28"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="32"/>
+      <c r="C36" s="28"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="32"/>
+      <c r="C37" s="28"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="32"/>
+      <c r="C38" s="28"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="32"/>
+      <c r="C39" s="28"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="32"/>
+      <c r="C40" s="28"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="32"/>
+      <c r="C41" s="28"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="32"/>
+      <c r="C42" s="28"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="32"/>
+      <c r="C43" s="28"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="32"/>
+      <c r="C44" s="28"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="32"/>
+      <c r="C45" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23057,348 +23050,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72.5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2" ht="29">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="57" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="71" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="71" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="71" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="72" t="s">
         <v>474</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="28" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="28" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="68" t="s">
         <v>482</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="28" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="28" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="49" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="28" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="28" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="28" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="28" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="28" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="28" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="28" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="28" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="87">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="28" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="101.5">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="28" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="58">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="28" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="188.5">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="75" t="s">
         <v>511</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="28" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="58">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="75" t="s">
         <v>513</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="28" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -23417,970 +23410,970 @@
   </sheetPr>
   <dimension ref="A1:AMJ148"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.08984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.26953125" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="77.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.26953125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="43" customFormat="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:2" s="39" customFormat="1">
+      <c r="A1" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="76" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="43" customFormat="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:2" s="39" customFormat="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="41" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="81" customFormat="1">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" s="77" customFormat="1">
+      <c r="A3" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="81" customFormat="1">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:2" s="77" customFormat="1">
+      <c r="A4" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="81" customFormat="1">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:2" s="77" customFormat="1">
+      <c r="A5" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="81" customFormat="1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:2" s="77" customFormat="1">
+      <c r="A6" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="81" customFormat="1">
-      <c r="A7" s="82" t="s">
+    <row r="7" spans="1:2" s="77" customFormat="1">
+      <c r="A7" s="78" t="s">
         <v>524</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="81" customFormat="1">
-      <c r="A8" s="82" t="s">
+    <row r="8" spans="1:2" s="77" customFormat="1">
+      <c r="A8" s="78" t="s">
         <v>526</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="81" customFormat="1" ht="72.5">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:2" s="77" customFormat="1" ht="72.5">
+      <c r="A9" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="81" customFormat="1">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:2" s="77" customFormat="1">
+      <c r="A10" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="81" customFormat="1">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:2" s="77" customFormat="1">
+      <c r="A11" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="81" customFormat="1">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:2" s="77" customFormat="1">
+      <c r="A12" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="81" customFormat="1">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:2" s="77" customFormat="1">
+      <c r="A13" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="81" customFormat="1">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:2" s="77" customFormat="1">
+      <c r="A14" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="25" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="81" customFormat="1">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:2" s="77" customFormat="1">
+      <c r="A15" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="81" customFormat="1" ht="29">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:2" s="77" customFormat="1" ht="29">
+      <c r="A16" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="81" customFormat="1">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:2" s="77" customFormat="1">
+      <c r="A17" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="81" customFormat="1">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:2" s="77" customFormat="1">
+      <c r="A18" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="25" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="81" customFormat="1">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:2" s="77" customFormat="1">
+      <c r="A19" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="25" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A20" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A21" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="81" customFormat="1">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:2" s="77" customFormat="1">
+      <c r="A22" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="81" customFormat="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-    </row>
-    <row r="24" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A24" s="29" t="s">
+    <row r="23" spans="1:2" s="77" customFormat="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A24" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="81" customFormat="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-    </row>
-    <row r="26" spans="1:2" s="81" customFormat="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-    </row>
-    <row r="27" spans="1:2" s="81" customFormat="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:2" s="81" customFormat="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-    </row>
-    <row r="29" spans="1:2" s="81" customFormat="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-    </row>
-    <row r="30" spans="1:2" s="81" customFormat="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-    </row>
-    <row r="31" spans="1:2" s="81" customFormat="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="45" t="s">
+    <row r="25" spans="1:2" s="77" customFormat="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" s="77" customFormat="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+    </row>
+    <row r="27" spans="1:2" s="77" customFormat="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="1:2" s="77" customFormat="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" spans="1:2" s="77" customFormat="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+    </row>
+    <row r="30" spans="1:2" s="77" customFormat="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" spans="1:2" s="77" customFormat="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="41" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A32" s="83" t="s">
+    <row r="32" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A32" s="79" t="s">
         <v>559</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="79" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="81" customFormat="1" ht="29">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:2" s="77" customFormat="1" ht="29">
+      <c r="A33" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="80" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="81" customFormat="1">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:2" s="77" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="80" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="81" customFormat="1">
-      <c r="A35" s="84" t="s">
+    <row r="35" spans="1:2" s="77" customFormat="1">
+      <c r="A35" s="80" t="s">
         <v>565</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="80" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="81" customFormat="1">
-      <c r="A36" s="84" t="s">
+    <row r="36" spans="1:2" s="77" customFormat="1">
+      <c r="A36" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="80" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="81" customFormat="1">
-      <c r="A37" s="84" t="s">
+    <row r="37" spans="1:2" s="77" customFormat="1">
+      <c r="A37" s="80" t="s">
         <v>569</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="80" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="81" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="28" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="28" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="28" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="28" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="28" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="44" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="26" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="43.5">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="22" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" spans="1:2" ht="29">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="28" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="28" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="87">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="28" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.5">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="28" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="29">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="28" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="28" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="28" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="73" t="s">
         <v>604</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="73" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="58">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="B60" s="32"/>
+      <c r="B60" s="28"/>
     </row>
     <row r="61" spans="1:2" ht="43.5">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="82" t="s">
         <v>607</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="28" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="87">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="82" t="s">
         <v>609</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="28" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="70">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="83" t="s">
         <v>611</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="28" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="159.5">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="28" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="203">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="82" t="s">
         <v>615</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="28" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="73" t="s">
         <v>617</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="73" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="87">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="28" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="87">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="28" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
     </row>
     <row r="72" spans="1:2" ht="29">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="73" t="s">
         <v>623</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="73" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="43.5">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="28"/>
     </row>
     <row r="74" spans="1:2" ht="29">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="28" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="72.5">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="28" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="72.5">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="28" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.5">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="84" t="s">
         <v>632</v>
       </c>
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="84" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="73" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="116">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="28" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="43.5">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="28" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="73" t="s">
         <v>640</v>
       </c>
-      <c r="B84" s="77" t="s">
+      <c r="B84" s="73" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="43.5">
-      <c r="A85" s="78" t="s">
+      <c r="A85" s="74" t="s">
         <v>642</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="28" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72.5">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="28" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.5">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="28" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="77" t="s">
+      <c r="A90" s="73" t="s">
         <v>648</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="73" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="87">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="28"/>
     </row>
     <row r="92" spans="1:2" ht="46.4" customHeight="1">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="112" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="49.75" customHeight="1">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="112"/>
     </row>
     <row r="94" spans="1:2" ht="43.5">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="B94" s="32"/>
+      <c r="B94" s="28"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="77" t="s">
+      <c r="A97" s="73" t="s">
         <v>655</v>
       </c>
-      <c r="B97" s="77" t="s">
+      <c r="B97" s="73" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="87">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="B98" s="32"/>
+      <c r="B98" s="28"/>
     </row>
     <row r="99" spans="1:2" ht="101.5">
-      <c r="A99" s="78" t="s">
+      <c r="A99" s="74" t="s">
         <v>658</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="28" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="72.5">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="B100" s="32"/>
+      <c r="B100" s="28"/>
     </row>
     <row r="101" spans="1:2" ht="29">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="28" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="73" t="s">
         <v>663</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="73" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="78" t="s">
+      <c r="A107" s="74" t="s">
         <v>665</v>
       </c>
-      <c r="B107" s="32"/>
+      <c r="B107" s="28"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="60" t="s">
         <v>666</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="28" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="58">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="28" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="29">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="28" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="28" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="58">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="28" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="73" t="s">
         <v>676</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="73" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="188.5">
-      <c r="A115" s="78" t="s">
+      <c r="A115" s="74" t="s">
         <v>678</v>
       </c>
-      <c r="B115" s="32"/>
+      <c r="B115" s="28"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="31" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="232">
-      <c r="A117" s="78" t="s">
+      <c r="A117" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="31" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="77" t="s">
+      <c r="A119" s="73" t="s">
         <v>683</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="B119" s="73" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="261">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="28" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="29">
-      <c r="A121" s="77" t="s">
+      <c r="A121" s="73" t="s">
         <v>687</v>
       </c>
-      <c r="B121" s="77" t="s">
+      <c r="B121" s="73" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="304.5">
-      <c r="A122" s="78" t="s">
+      <c r="A122" s="74" t="s">
+        <v>948</v>
+      </c>
+      <c r="B122" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="B122" s="32" t="s">
+    </row>
+    <row r="123" spans="1:2" ht="87">
+      <c r="A123" s="28" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="87">
-      <c r="A123" s="32" t="s">
+      <c r="B123" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="B123" s="32" t="s">
+    </row>
+    <row r="124" spans="1:2" ht="116">
+      <c r="A124" s="28" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="116">
-      <c r="A124" s="32" t="s">
+      <c r="B124" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="B124" s="32" t="s">
-        <v>694</v>
-      </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="32"/>
-      <c r="B127" s="32"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="32"/>
-      <c r="B128" s="32"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="32"/>
-      <c r="B129" s="32"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="32"/>
-      <c r="B130" s="32"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="32"/>
-      <c r="B139" s="32"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="32"/>
-      <c r="B142" s="32"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="28"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="32"/>
-      <c r="B143" s="32"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="28"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="32"/>
-      <c r="B145" s="32"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="28"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="32"/>
-      <c r="B146" s="32"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="28"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="32"/>
-      <c r="B148" s="32"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24402,173 +24395,173 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="71.6328125" style="33" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="33"/>
+    <col min="1" max="2" width="71.6328125" style="29" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="348">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>695</v>
       </c>
-      <c r="B2" s="89" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="232">
+      <c r="A3" s="86" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="232">
-      <c r="A3" s="90" t="s">
+      <c r="B3" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>698</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -24593,164 +24586,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>701</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="B4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>705</v>
       </c>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="25" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="B6" s="29" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="B7" t="s">
         <v>709</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="28" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>711</v>
       </c>
-      <c r="B8" s="32" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="28" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>713</v>
       </c>
-      <c r="B9" s="32" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="28" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>716</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -24767,64 +24760,64 @@
   <sheetFormatPr defaultColWidth="57.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="29">
+      <c r="A3" s="25" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="29">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="B4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -24847,237 +24840,237 @@
     <col min="2" max="2" width="78.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="92" customFormat="1" ht="18.5">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:2" s="88" customFormat="1" ht="18.5">
+      <c r="A1" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="87" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="B2" s="32" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="43.5">
+      <c r="A3" s="28" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="B3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="B4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="28" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="B5" s="32" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="28" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>733</v>
       </c>
-      <c r="B6" s="32" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="28" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="B7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="43.5">
+      <c r="A8" s="54" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.5">
-      <c r="A8" s="58" t="s">
+      <c r="B8" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="B8" s="32" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="29">
+      <c r="A9" s="54" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="58" t="s">
+      <c r="B9" s="28" t="s">
         <v>739</v>
       </c>
-      <c r="B9" s="32" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="72.5">
+      <c r="A10" s="25" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="B10" s="32" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="29">
+      <c r="A11" s="28" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="29">
-      <c r="A11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="B11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="28" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="B12" s="32" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.5">
+      <c r="A13" s="28" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.5">
-      <c r="A13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>747</v>
       </c>
-      <c r="B13" s="32" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="29">
+      <c r="A14" s="28" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="29">
-      <c r="A14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="B14" s="32" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="43.5">
+      <c r="A15" s="28" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="32" t="s">
+      <c r="B15" s="44" t="s">
         <v>751</v>
       </c>
-      <c r="B15" s="48" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="58">
+      <c r="A16" s="28" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="58">
-      <c r="A16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>753</v>
       </c>
-      <c r="B16" s="32" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="60" customHeight="1">
+      <c r="A17" s="28" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="B17" s="112" t="s">
         <v>755</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="89" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="93" t="s">
+      <c r="B18" s="112"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="89" t="s">
         <v>757</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="93" t="s">
+      <c r="B19" s="112"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="89" t="s">
         <v>758</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="93" t="s">
+      <c r="B20" s="112"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="89" t="s">
         <v>759</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="93" t="s">
+      <c r="B21" s="112"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="89" t="s">
         <v>760</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="93" t="s">
+      <c r="B22" s="112"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="89" t="s">
         <v>761</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="93" t="s">
+      <c r="B23" s="112"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+    </row>
+    <row r="25" spans="1:2" ht="29">
+      <c r="A25" s="28" t="s">
         <v>762</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-    </row>
-    <row r="25" spans="1:2" ht="29">
-      <c r="A25" s="32" t="s">
+      <c r="B25" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>764</v>
-      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25104,148 +25097,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="70" t="s">
+        <v>764</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="70"/>
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="60" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="64" t="s">
+      <c r="B4" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="B4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="60" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="64" t="s">
+      <c r="B5" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="101.5">
+      <c r="A6" s="25" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="101.5">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="B6" s="32" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="43.5">
+      <c r="A7" s="25" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.5">
-      <c r="A7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>773</v>
       </c>
-      <c r="B7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="58">
+      <c r="A8" s="28" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="58">
-      <c r="A8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>775</v>
       </c>
-      <c r="B8" s="32" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="28" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="B10" s="32" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="B11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="25" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="B12" s="32" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.5">
+      <c r="A13" s="25" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.5">
-      <c r="A13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="B13" s="32" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="25" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="B14" s="32" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="89.25" customHeight="1">
+      <c r="A15" s="28" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="89.25" customHeight="1">
-      <c r="A15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="B15" s="32" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="28" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="B16" s="32" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="29">
+      <c r="A17" s="28" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="29">
-      <c r="A17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>791</v>
       </c>
-      <c r="B17" s="32" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="28" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>793</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>794</v>
-      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25266,278 +25259,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="106.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="12"/>
+    <col min="1" max="1" width="106.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" style="8" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="130.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="232">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" ht="256.5">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="189">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:2" ht="189">
-      <c r="A21" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>946</v>
       </c>
+      <c r="B21" s="11" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="24"/>
-    </row>
-    <row r="27" spans="1:2" ht="72.5">
-      <c r="A27" s="15" t="s">
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:2" ht="43.5">
+      <c r="A27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="72.5">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25564,112 +25557,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="B3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="40" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="44" t="s">
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:2" ht="58">
+      <c r="A11" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-    </row>
-    <row r="11" spans="1:2" ht="58">
-      <c r="A11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>798</v>
       </c>
-      <c r="B11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="43.5">
+      <c r="A12" s="28" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.5">
-      <c r="A12" s="32" t="s">
-        <v>800</v>
-      </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25689,68 +25682,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="90" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="91" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" s="92"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="57" t="s">
         <v>801</v>
       </c>
-      <c r="B2" s="96"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="61" t="s">
-        <v>802</v>
-      </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25766,217 +25759,217 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="61.26953125" style="33" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="33"/>
+    <col min="1" max="2" width="61.26953125" style="29" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="94"/>
+    </row>
+    <row r="3" spans="1:2" ht="43.5">
+      <c r="A3" s="28" t="s">
         <v>803</v>
       </c>
-      <c r="B2" s="98"/>
-    </row>
-    <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>804</v>
       </c>
-      <c r="B3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="26" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="26" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="1:2" ht="58">
+      <c r="A6" s="26" t="s">
         <v>808</v>
       </c>
-      <c r="B5" s="32"/>
-    </row>
-    <row r="6" spans="1:2" ht="58">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="B6" s="32" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="26" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>811</v>
       </c>
-      <c r="B7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="26" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="32" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="26" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="B9" s="32" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="26" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="B10" s="32" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="95" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="99" t="s">
+      <c r="B11" s="28" t="s">
         <v>819</v>
       </c>
-      <c r="B11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="96" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="100" t="s">
+      <c r="B14" s="94"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="28" t="s">
         <v>821</v>
       </c>
-      <c r="B14" s="98"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="B15" s="32" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="28" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="B16" s="32" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="28" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="B17" s="32" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="28" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="B18" s="32" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="29">
+      <c r="A19" s="28" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="B19" s="32" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="29">
+      <c r="A20" s="28" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="29">
-      <c r="A20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="B20" s="32" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="41" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="45" t="s">
+      <c r="B22" s="41"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="32" t="s">
+      <c r="B23" s="28" t="s">
         <v>835</v>
       </c>
-      <c r="B23" s="32" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="43.5">
+      <c r="A24" s="28" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.5">
-      <c r="A24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>837</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>838</v>
-      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25995,476 +25988,476 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="5"/>
-    <col min="2" max="2" width="25.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="40.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="5"/>
-    <col min="6" max="6" width="16.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="5" customWidth="1"/>
-    <col min="8" max="1024" width="21.26953125" style="5"/>
+    <col min="1" max="1" width="21.26953125" style="1"/>
+    <col min="2" max="2" width="25.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="1"/>
+    <col min="6" max="6" width="16.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="21.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="97" t="s">
+        <v>838</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>839</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="C1" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="97" t="s">
         <v>840</v>
       </c>
-      <c r="C1" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="101" t="s">
+      <c r="E1" s="98" t="s">
         <v>841</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="F1" s="98" t="s">
         <v>842</v>
       </c>
-      <c r="F1" s="102" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="43.5">
+      <c r="A2" s="4" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.5">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="99" t="s">
         <v>847</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="F2" s="100">
+        <v>0</v>
+      </c>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="1:7" ht="29">
+      <c r="A3" s="79" t="s">
         <v>848</v>
       </c>
-      <c r="F2" s="104">
-        <v>0</v>
-      </c>
-      <c r="G2" s="105"/>
-    </row>
-    <row r="3" spans="1:7" ht="29">
-      <c r="A3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>849</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="C3" s="102" t="s">
         <v>850</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="D3" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="E3" s="99" t="s">
         <v>852</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="F3" s="100">
+        <v>1</v>
+      </c>
+      <c r="G3" s="101"/>
+    </row>
+    <row r="4" spans="1:7" ht="58">
+      <c r="A4" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="F3" s="104">
-        <v>1</v>
-      </c>
-      <c r="G3" s="105"/>
-    </row>
-    <row r="4" spans="1:7" ht="58">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="99" t="s">
         <v>856</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="F4" s="100">
+        <v>2</v>
+      </c>
+      <c r="G4" s="101"/>
+    </row>
+    <row r="5" spans="1:7" ht="58">
+      <c r="A5" s="79" t="s">
         <v>857</v>
       </c>
-      <c r="F4" s="104">
-        <v>2</v>
-      </c>
-      <c r="G4" s="105"/>
-    </row>
-    <row r="5" spans="1:7" ht="58">
-      <c r="A5" s="83" t="s">
+      <c r="B5" s="102" t="s">
         <v>858</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="C5" s="102" t="s">
         <v>859</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="D5" s="79" t="s">
         <v>860</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="E5" s="99" t="s">
         <v>861</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="F5" s="100">
+        <v>3</v>
+      </c>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="99" t="s">
         <v>862</v>
       </c>
-      <c r="F5" s="104">
-        <v>3</v>
-      </c>
-      <c r="G5" s="105"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="103" t="s">
+      <c r="F6" s="100">
+        <v>4</v>
+      </c>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="99" t="s">
         <v>863</v>
       </c>
-      <c r="F6" s="104">
-        <v>4</v>
-      </c>
-      <c r="G6" s="105"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="103" t="s">
+      <c r="F7" s="100">
+        <v>5</v>
+      </c>
+      <c r="G7" s="101"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="99" t="s">
         <v>864</v>
       </c>
-      <c r="F7" s="104">
-        <v>5</v>
-      </c>
-      <c r="G7" s="105"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="103" t="s">
+      <c r="F8" s="100">
+        <v>6</v>
+      </c>
+      <c r="G8" s="101"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="F8" s="104">
-        <v>6</v>
-      </c>
-      <c r="G8" s="105"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="103" t="s">
+      <c r="F9" s="100">
+        <v>7</v>
+      </c>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:7" ht="29">
+      <c r="A10" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="F9" s="104">
-        <v>7</v>
-      </c>
-      <c r="G9" s="105"/>
-    </row>
-    <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="F10" s="100">
+        <v>8</v>
+      </c>
+      <c r="G10" s="101"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="F10" s="104">
-        <v>8</v>
-      </c>
-      <c r="G10" s="105"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="99" t="s">
         <v>875</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="F11" s="100">
+        <v>9</v>
+      </c>
+      <c r="G11" s="101"/>
+    </row>
+    <row r="12" spans="1:7" ht="29">
+      <c r="A12" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="F11" s="104">
-        <v>9</v>
-      </c>
-      <c r="G11" s="105"/>
-    </row>
-    <row r="12" spans="1:7" ht="29">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="99" t="s">
         <v>880</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="F12" s="100">
+        <v>10</v>
+      </c>
+      <c r="G12" s="101"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.5">
+      <c r="A13" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="F12" s="104">
-        <v>10</v>
-      </c>
-      <c r="G12" s="105"/>
-    </row>
-    <row r="13" spans="1:7" ht="43.5">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="99" t="s">
         <v>885</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="F13" s="100">
+        <v>11</v>
+      </c>
+      <c r="G13" s="101"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="99" t="s">
         <v>886</v>
       </c>
-      <c r="F13" s="104">
-        <v>11</v>
-      </c>
-      <c r="G13" s="105"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="103" t="s">
+      <c r="F14" s="100">
+        <v>12</v>
+      </c>
+      <c r="G14" s="101"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="99" t="s">
         <v>887</v>
       </c>
-      <c r="F14" s="104">
-        <v>12</v>
-      </c>
-      <c r="G14" s="105"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="103" t="s">
+      <c r="F15" s="100">
+        <v>13</v>
+      </c>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="28" t="s">
         <v>888</v>
       </c>
-      <c r="F15" s="104">
-        <v>13</v>
-      </c>
-      <c r="G15" s="105"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>889</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>890</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="D16" s="28" t="s">
         <v>891</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="E16" s="99" t="s">
         <v>892</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="F16" s="100">
+        <v>14</v>
+      </c>
+      <c r="G16" s="101"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="28" t="s">
         <v>893</v>
       </c>
-      <c r="F16" s="104">
-        <v>14</v>
-      </c>
-      <c r="G16" s="105"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>894</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
         <v>895</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32" t="s">
+      <c r="E17" s="99" t="s">
         <v>896</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="F17" s="100">
+        <v>15</v>
+      </c>
+      <c r="G17" s="101"/>
+    </row>
+    <row r="18" spans="1:7" ht="29">
+      <c r="A18" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>897</v>
       </c>
-      <c r="F17" s="104">
-        <v>15</v>
-      </c>
-      <c r="G17" s="105"/>
-    </row>
-    <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>898</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="D18" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="E18" s="99" t="s">
         <v>900</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="F18" s="100">
+        <v>16</v>
+      </c>
+      <c r="G18" s="101"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="99" t="s">
         <v>901</v>
       </c>
-      <c r="F18" s="104">
-        <v>16</v>
-      </c>
-      <c r="G18" s="105"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="103" t="s">
+      <c r="F19" s="100">
+        <v>17</v>
+      </c>
+      <c r="G19" s="101"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="99" t="s">
         <v>902</v>
       </c>
-      <c r="F19" s="104">
-        <v>17</v>
-      </c>
-      <c r="G19" s="105"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="103" t="s">
+      <c r="F20" s="100">
+        <v>18</v>
+      </c>
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="99" t="s">
         <v>903</v>
       </c>
-      <c r="F20" s="104">
-        <v>18</v>
-      </c>
-      <c r="G20" s="105"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="103" t="s">
+      <c r="F21" s="100">
+        <v>19</v>
+      </c>
+      <c r="G21" s="101"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="99" t="s">
         <v>904</v>
       </c>
-      <c r="F21" s="104">
-        <v>19</v>
-      </c>
-      <c r="G21" s="105"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="103" t="s">
+      <c r="F22" s="100">
+        <v>20</v>
+      </c>
+      <c r="G22" s="101"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="G23" s="101"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A27" s="114" t="s">
         <v>905</v>
       </c>
-      <c r="F22" s="104">
-        <v>20</v>
-      </c>
-      <c r="G22" s="105"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="G23" s="105"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A28" s="113" t="s">
         <v>906</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A29" s="113" t="s">
         <v>907</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A30" s="113" t="s">
         <v>908</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1">
+      <c r="A31" s="113" t="s">
         <v>909</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A32" s="113" t="s">
         <v>910</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="113" t="s">
         <v>911</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -26493,92 +26486,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>913</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="58">
+      <c r="A3" s="28" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="58">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>915</v>
       </c>
-      <c r="B3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="43.5">
+      <c r="A4" s="28" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.5">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>917</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>918</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26594,33 +26587,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="85" style="107" customWidth="1"/>
-    <col min="2" max="2" width="109.81640625" style="107" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="33"/>
+    <col min="1" max="1" width="85" style="103" customWidth="1"/>
+    <col min="2" max="2" width="109.81640625" style="103" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="103" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5">
+      <c r="A2" s="70" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="74" t="s">
+      <c r="B2" s="103" t="s">
         <v>920</v>
       </c>
-      <c r="B2" s="107" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="116">
+      <c r="A3" s="70" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="116">
-      <c r="A3" s="74" t="s">
+      <c r="B3" s="103" t="s">
         <v>922</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -26642,84 +26635,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>924</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="29">
+      <c r="A4" s="25" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>928</v>
       </c>
-      <c r="B4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="104" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="108" t="s">
+      <c r="B6" s="104" t="s">
         <v>930</v>
       </c>
-      <c r="B6" s="108" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="43.5">
+      <c r="A7" s="105" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.5">
-      <c r="A7" s="109" t="s">
+      <c r="B7" s="91" t="s">
         <v>932</v>
       </c>
-      <c r="B7" s="95" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="105" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="109" t="s">
+      <c r="B8" s="104" t="s">
         <v>934</v>
       </c>
-      <c r="B8" s="108" t="s">
-        <v>935</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26741,26 +26734,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1" t="s">
         <v>936</v>
-      </c>
-      <c r="B1" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B2" t="s">
         <v>938</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="106" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="110" t="s">
+      <c r="B3" t="s">
         <v>940</v>
-      </c>
-      <c r="B3" t="s">
-        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -26781,146 +26774,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="56" t="s">
-        <v>942</v>
-      </c>
-      <c r="B1" s="56"/>
+      <c r="A1" s="52" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26936,179 +26929,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="43.36328125" style="111" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="111"/>
+    <col min="1" max="2" width="43.36328125" style="107" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="109" t="s">
+        <v>942</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>943</v>
       </c>
-      <c r="B2" s="114" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="56.5">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="56.5">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112" t="s">
-        <v>945</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="112"/>
-      <c r="B31" s="112"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="112"/>
-      <c r="B33" s="112"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="112"/>
-      <c r="B34" s="112"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="112"/>
-      <c r="B35" s="112"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="112"/>
-      <c r="B36" s="112"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="112"/>
-      <c r="B38" s="112"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -27135,310 +27128,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" ht="18.5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
     </row>
     <row r="16" spans="1:2" ht="101.5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="87">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="24"/>
     </row>
     <row r="20" spans="1:2" ht="72.5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="25"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
     </row>
     <row r="35" spans="1:2" ht="43.5">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="58">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27462,264 +27455,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" ht="18.5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" spans="1:2" ht="29">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="111"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="24"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27741,86 +27734,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="5" customWidth="1"/>
-    <col min="4" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="27.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" ht="58">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" ht="29">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27836,230 +27829,230 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="100.36328125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="52.90625" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="33"/>
+    <col min="1" max="1" width="100.36328125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="52.90625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="304.5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="159.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="87">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="130.5">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="145">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="203">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="141.5">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="38" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28085,546 +28078,546 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="92.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="101.26953125" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="92.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="101.26953125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="43" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:2" s="39" customFormat="1">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="43" customFormat="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:2" s="39" customFormat="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.5">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="72.5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.5">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="44" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="58">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="25" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="116">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:2" ht="58">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="45" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="87">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="28" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="28" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="28" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="28" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="28" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2" ht="87">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="28" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="28" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="87">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="28" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="116">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="28" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="46" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="28" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="28" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="28" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="28" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="28" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="58">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="28" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="48" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="28" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="58">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="28" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="28" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="29">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="28" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="28" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="28" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="28" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="28" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="28" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="28" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="159.5">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="28" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="72.5">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="28" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -28644,218 +28637,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="51" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="51" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="51" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="51" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="51" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -28870,195 +28863,195 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="86.54296875" style="57" customWidth="1"/>
-    <col min="3" max="1024" width="53.36328125" style="57"/>
+    <col min="1" max="2" width="86.54296875" style="53" customWidth="1"/>
+    <col min="3" max="1024" width="53.36328125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="87">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2" ht="87">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="130.5">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="55" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
-      <c r="A16" s="95" t="s">
-        <v>948</v>
-      </c>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="91" t="s">
+        <v>947</v>
+      </c>
+      <c r="B16" s="57" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="954">
   <si>
     <r>
       <rPr>
@@ -11099,6 +11099,61 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">for x, y in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">heapq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF536DFE"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nsmallest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(20, mydict.items()):</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Итерация по 20 элементам из словаря.  Выбор любого N числа элментов словаря.</t>
+  </si>
+  <si>
     <t xml:space="preserve">string = "2010-12-31"
 year, month, day = map(int, string.split('-') )</t>
   </si>
@@ -21003,7 +21058,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="112">
+  <fonts count="113">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -21659,6 +21714,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF536DFE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFC55A11"/>
@@ -21926,7 +21988,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -22259,11 +22321,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="96" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="97" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22283,11 +22349,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22311,7 +22377,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="105" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="106" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22339,7 +22405,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="106" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="107" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22347,7 +22413,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="107" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="108" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22367,15 +22433,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="111" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="112" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="111" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="112" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22434,7 +22500,7 @@
       <rgbColor rgb="FFBBB529"/>
       <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FFFFC66D"/>
-      <rgbColor rgb="FF2C76E7"/>
+      <rgbColor rgb="FF3274F4"/>
       <rgbColor rgb="FF40C4FF"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFD740"/>
@@ -23707,10 +23773,10 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B122" activeCellId="0" sqref="B122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23992,19 +24058,19 @@
         <v>578</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="83" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="s">
+    <row r="40" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="4" t="s">
         <v>582</v>
       </c>
     </row>
@@ -24032,7 +24098,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
         <v>589</v>
       </c>
@@ -24044,51 +24110,51 @@
       <c r="A45" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="28" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="44" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="26" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28"/>
-      <c r="B48" s="26"/>
-    </row>
-    <row r="49" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28" t="s">
+    <row r="48" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B48" s="22" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="28"/>
+      <c r="B49" s="26"/>
+    </row>
+    <row r="50" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
         <v>601</v>
       </c>
@@ -24096,7 +24162,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
         <v>603</v>
       </c>
@@ -24104,7 +24170,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="28" t="s">
         <v>605</v>
       </c>
@@ -24112,57 +24178,57 @@
         <v>606</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="65" t="s">
+    <row r="55" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="65" t="s">
         <v>370</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28" t="s">
-        <v>608</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="74" t="s">
-        <v>610</v>
-      </c>
-      <c r="B59" s="74" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="74" t="s">
         <v>612</v>
       </c>
-      <c r="B60" s="28"/>
-    </row>
-    <row r="61" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="83" t="s">
+      <c r="B60" s="74" t="s">
         <v>613</v>
       </c>
-      <c r="B61" s="28" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="28" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="83" t="s">
+      <c r="B61" s="28"/>
+    </row>
+    <row r="62" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="84" t="s">
         <v>615</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="84" t="s">
         <v>617</v>
       </c>
@@ -24170,39 +24236,39 @@
         <v>618</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28" t="s">
+    <row r="64" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="85" t="s">
         <v>619</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="203" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="83" t="s">
+    <row r="65" customFormat="false" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="28" t="s">
         <v>621</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+    <row r="66" customFormat="false" ht="203" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="84" t="s">
+        <v>623</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="74" t="s">
-        <v>623</v>
-      </c>
-      <c r="B67" s="74" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="74" t="s">
         <v>626</v>
       </c>
     </row>
@@ -24214,37 +24280,37 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
+    <row r="70" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
     </row>
-    <row r="72" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="74" t="s">
-        <v>629</v>
-      </c>
-      <c r="B72" s="74" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="75" t="s">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+    </row>
+    <row r="73" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="74" t="s">
         <v>631</v>
       </c>
-      <c r="B73" s="28"/>
-    </row>
-    <row r="74" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="s">
+      <c r="B73" s="74" t="s">
         <v>632</v>
       </c>
-      <c r="B74" s="28" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="75" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="28"/>
+    </row>
+    <row r="75" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
         <v>634</v>
       </c>
@@ -24260,39 +24326,39 @@
         <v>637</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="85" t="s">
+    <row r="77" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="B77" s="85" t="s">
+      <c r="B77" s="28" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
+    <row r="78" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="B78" s="86" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="74" t="s">
-        <v>640</v>
-      </c>
-      <c r="B80" s="74" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="28" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="74" t="s">
         <v>642</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="74" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="28" t="s">
         <v>644</v>
       </c>
@@ -24300,35 +24366,35 @@
         <v>645</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+    <row r="83" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="74" t="s">
-        <v>646</v>
-      </c>
-      <c r="B84" s="74" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="75" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+    </row>
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="74" t="s">
         <v>648</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="74" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="28" t="s">
+    <row r="86" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="75" t="s">
         <v>650</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="s">
         <v>652</v>
       </c>
@@ -24336,50 +24402,54 @@
         <v>653</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
+    <row r="88" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="74" t="s">
-        <v>654</v>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="28" t="s">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="B91" s="28"/>
-    </row>
-    <row r="92" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="74" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="B92" s="28" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="28"/>
+    </row>
+    <row r="93" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="B93" s="28"/>
-    </row>
-    <row r="94" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="28" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B94" s="28"/>
     </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="28"/>
+    <row r="95" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="28" t="s">
+        <v>662</v>
+      </c>
       <c r="B95" s="28"/>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24387,44 +24457,44 @@
       <c r="B96" s="28"/>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="74" t="s">
-        <v>661</v>
-      </c>
-      <c r="B97" s="74" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="28" t="s">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="74" t="s">
         <v>663</v>
       </c>
-      <c r="B98" s="28"/>
-    </row>
-    <row r="99" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="75" t="s">
+      <c r="B98" s="74" t="s">
         <v>664</v>
       </c>
-      <c r="B99" s="28" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="28" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="28" t="s">
+      <c r="B99" s="28"/>
+    </row>
+    <row r="100" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="75" t="s">
         <v>666</v>
       </c>
-      <c r="B100" s="28"/>
-    </row>
-    <row r="101" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="28" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="B101" s="28" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
+      <c r="B101" s="28"/>
+    </row>
+    <row r="102" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28"/>
@@ -24439,36 +24509,32 @@
       <c r="B105" s="28"/>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="74" t="s">
-        <v>669</v>
-      </c>
-      <c r="B106" s="74" t="s">
-        <v>670</v>
-      </c>
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="75" t="s">
+      <c r="A107" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="B107" s="28"/>
+      <c r="B107" s="74" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="61" t="s">
-        <v>672</v>
-      </c>
-      <c r="B108" s="28" t="s">
+      <c r="A108" s="75" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="28" t="s">
+      <c r="B108" s="28"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="61" t="s">
         <v>674</v>
       </c>
       <c r="B109" s="28" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="28" t="s">
         <v>676</v>
       </c>
@@ -24476,7 +24542,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="28" t="s">
         <v>678</v>
       </c>
@@ -24484,7 +24550,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="28" t="s">
         <v>680</v>
       </c>
@@ -24492,85 +24558,85 @@
         <v>681</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
+    <row r="113" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="74" t="s">
-        <v>682</v>
-      </c>
-      <c r="B114" s="74" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="75" t="s">
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+    </row>
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="74" t="s">
         <v>684</v>
       </c>
-      <c r="B115" s="28"/>
-    </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="28" t="s">
+      <c r="B115" s="74" t="s">
         <v>685</v>
       </c>
-      <c r="B116" s="31" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="75" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="75" t="s">
+      <c r="B116" s="28"/>
+    </row>
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="28" t="s">
         <v>687</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
+    <row r="118" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="74" t="s">
-        <v>689</v>
-      </c>
-      <c r="B119" s="74" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="261" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="28" t="s">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="74" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="74" t="s">
+    <row r="121" customFormat="false" ht="261" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="B121" s="74" t="s">
+      <c r="B121" s="28" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="304.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="75" t="s">
+    <row r="122" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="74" t="s">
         <v>695</v>
       </c>
-      <c r="B122" s="28" t="s">
+      <c r="B122" s="74" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="28" t="s">
+    <row r="123" customFormat="false" ht="304.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="75" t="s">
         <v>697</v>
       </c>
       <c r="B123" s="28" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="28" t="s">
         <v>699</v>
       </c>
@@ -24578,9 +24644,13 @@
         <v>700</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
+    <row r="125" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28"/>
@@ -24674,9 +24744,13 @@
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
     </row>
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B93:B94"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -24716,18 +24790,18 @@
     </row>
     <row r="2" customFormat="false" ht="348" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="87" t="s">
-        <v>703</v>
+      <c r="A3" s="88" t="s">
+        <v>705</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24908,74 +24982,74 @@
     </row>
     <row r="2" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25092,34 +25166,34 @@
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25171,175 +25245,175 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
   </cols>
   <sheetData>
-    <row r="1" s="89" customFormat="true" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="88" t="s">
+    <row r="1" s="90" customFormat="true" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="89" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="54" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="54" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="90" t="s">
-        <v>763</v>
+      <c r="A18" s="91" t="s">
+        <v>765</v>
       </c>
       <c r="B18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="90" t="s">
-        <v>764</v>
+      <c r="A19" s="91" t="s">
+        <v>766</v>
       </c>
       <c r="B19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="90" t="s">
-        <v>765</v>
+      <c r="A20" s="91" t="s">
+        <v>767</v>
       </c>
       <c r="B20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="90" t="s">
-        <v>766</v>
+      <c r="A21" s="91" t="s">
+        <v>768</v>
       </c>
       <c r="B21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="90" t="s">
-        <v>767</v>
+      <c r="A22" s="91" t="s">
+        <v>769</v>
       </c>
       <c r="B22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="90" t="s">
-        <v>768</v>
+      <c r="A23" s="91" t="s">
+        <v>770</v>
       </c>
       <c r="B23" s="28"/>
     </row>
@@ -25349,10 +25423,10 @@
     </row>
     <row r="25" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25445,10 +25519,10 @@
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="71" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25457,42 +25531,42 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="61" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25501,74 +25575,74 @@
     </row>
     <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25598,8 +25672,8 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25927,10 +26001,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25947,7 +26021,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="40" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B7" s="41"/>
     </row>
@@ -25965,15 +26039,15 @@
     </row>
     <row r="11" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B12" s="28"/>
     </row>
@@ -26049,22 +26123,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="92" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="92" t="s">
-        <v>807</v>
-      </c>
-      <c r="B2" s="93"/>
+      <c r="A2" s="93" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="94"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B3" s="58"/>
     </row>
@@ -26149,79 +26223,79 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="94" t="s">
-        <v>809</v>
-      </c>
-      <c r="B2" s="95"/>
+      <c r="A2" s="95" t="s">
+        <v>811</v>
+      </c>
+      <c r="B2" s="96"/>
     </row>
     <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="96" t="s">
-        <v>825</v>
+      <c r="A11" s="97" t="s">
+        <v>827</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26233,57 +26307,57 @@
       <c r="B13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="97" t="s">
-        <v>827</v>
-      </c>
-      <c r="B14" s="95"/>
+      <c r="A14" s="98" t="s">
+        <v>829</v>
+      </c>
+      <c r="B14" s="96"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26292,24 +26366,24 @@
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26386,397 +26460,397 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="98" t="s">
-        <v>845</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>846</v>
-      </c>
-      <c r="C1" s="98" t="s">
+      <c r="A1" s="99" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>848</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="98" t="s">
-        <v>847</v>
-      </c>
-      <c r="E1" s="99" t="s">
-        <v>848</v>
-      </c>
-      <c r="F1" s="99" t="s">
+      <c r="D1" s="99" t="s">
         <v>849</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>850</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="E2" s="100" t="s">
-        <v>854</v>
-      </c>
-      <c r="F2" s="101" t="n">
+        <v>855</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>856</v>
+      </c>
+      <c r="F2" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="102"/>
+      <c r="G2" s="103"/>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="80" t="s">
-        <v>855</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>856</v>
-      </c>
-      <c r="C3" s="103" t="s">
         <v>857</v>
       </c>
+      <c r="B3" s="104" t="s">
+        <v>858</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>859</v>
+      </c>
       <c r="D3" s="80" t="s">
-        <v>858</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>859</v>
-      </c>
-      <c r="F3" s="101" t="n">
+        <v>860</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>861</v>
+      </c>
+      <c r="F3" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="102"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="4" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>863</v>
-      </c>
-      <c r="F4" s="101" t="n">
+        <v>864</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>865</v>
+      </c>
+      <c r="F4" s="102" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="102"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="80" t="s">
-        <v>864</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>865</v>
-      </c>
-      <c r="C5" s="103" t="s">
         <v>866</v>
       </c>
+      <c r="B5" s="104" t="s">
+        <v>867</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>868</v>
+      </c>
       <c r="D5" s="80" t="s">
-        <v>867</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>868</v>
-      </c>
-      <c r="F5" s="101" t="n">
+        <v>869</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>870</v>
+      </c>
+      <c r="F5" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="100" t="s">
-        <v>869</v>
-      </c>
-      <c r="F6" s="101" t="n">
+      <c r="E6" s="101" t="s">
+        <v>871</v>
+      </c>
+      <c r="F6" s="102" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="102"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="100" t="s">
-        <v>870</v>
-      </c>
-      <c r="F7" s="101" t="n">
+      <c r="E7" s="101" t="s">
+        <v>872</v>
+      </c>
+      <c r="F7" s="102" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="100" t="s">
-        <v>871</v>
-      </c>
-      <c r="F8" s="101" t="n">
+      <c r="E8" s="101" t="s">
+        <v>873</v>
+      </c>
+      <c r="F8" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="100" t="s">
-        <v>872</v>
-      </c>
-      <c r="F9" s="101" t="n">
+      <c r="E9" s="101" t="s">
+        <v>874</v>
+      </c>
+      <c r="F9" s="102" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="102"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>877</v>
-      </c>
-      <c r="F10" s="101" t="n">
+        <v>878</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>879</v>
+      </c>
+      <c r="F10" s="102" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="102"/>
+      <c r="G10" s="103"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>882</v>
-      </c>
-      <c r="F11" s="101" t="n">
+        <v>883</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>884</v>
+      </c>
+      <c r="F11" s="102" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="102"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>887</v>
-      </c>
-      <c r="F12" s="101" t="n">
+        <v>888</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>889</v>
+      </c>
+      <c r="F12" s="102" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="102"/>
+      <c r="G12" s="103"/>
     </row>
     <row r="13" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>892</v>
-      </c>
-      <c r="F13" s="101" t="n">
+        <v>893</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>894</v>
+      </c>
+      <c r="F13" s="102" t="n">
         <v>11</v>
       </c>
-      <c r="G13" s="102"/>
+      <c r="G13" s="103"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="100" t="s">
-        <v>893</v>
-      </c>
-      <c r="F14" s="101" t="n">
+      <c r="E14" s="101" t="s">
+        <v>895</v>
+      </c>
+      <c r="F14" s="102" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="102"/>
+      <c r="G14" s="103"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="100" t="s">
-        <v>894</v>
-      </c>
-      <c r="F15" s="101" t="n">
+      <c r="E15" s="101" t="s">
+        <v>896</v>
+      </c>
+      <c r="F15" s="102" t="n">
         <v>13</v>
       </c>
-      <c r="G15" s="102"/>
+      <c r="G15" s="103"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>899</v>
-      </c>
-      <c r="F16" s="101" t="n">
+        <v>900</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>901</v>
+      </c>
+      <c r="F16" s="102" t="n">
         <v>14</v>
       </c>
-      <c r="G16" s="102"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>903</v>
-      </c>
-      <c r="F17" s="101" t="n">
+        <v>904</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>905</v>
+      </c>
+      <c r="F17" s="102" t="n">
         <v>15</v>
       </c>
-      <c r="G17" s="102"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
         <v>399</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>906</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>907</v>
-      </c>
-      <c r="F18" s="101" t="n">
+        <v>908</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>909</v>
+      </c>
+      <c r="F18" s="102" t="n">
         <v>16</v>
       </c>
-      <c r="G18" s="102"/>
+      <c r="G18" s="103"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="100" t="s">
-        <v>908</v>
-      </c>
-      <c r="F19" s="101" t="n">
+      <c r="E19" s="101" t="s">
+        <v>910</v>
+      </c>
+      <c r="F19" s="102" t="n">
         <v>17</v>
       </c>
-      <c r="G19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="100" t="s">
-        <v>909</v>
-      </c>
-      <c r="F20" s="101" t="n">
+      <c r="E20" s="101" t="s">
+        <v>911</v>
+      </c>
+      <c r="F20" s="102" t="n">
         <v>18</v>
       </c>
-      <c r="G20" s="102"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="100" t="s">
-        <v>910</v>
-      </c>
-      <c r="F21" s="101" t="n">
+      <c r="E21" s="101" t="s">
+        <v>912</v>
+      </c>
+      <c r="F21" s="102" t="n">
         <v>19</v>
       </c>
-      <c r="G21" s="102"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="100" t="s">
-        <v>911</v>
-      </c>
-      <c r="F22" s="101" t="n">
+      <c r="E22" s="101" t="s">
+        <v>913</v>
+      </c>
+      <c r="F22" s="102" t="n">
         <v>20</v>
       </c>
-      <c r="G22" s="102"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="G23" s="102"/>
+      <c r="G23" s="103"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="28"/>
@@ -26791,59 +26865,59 @@
       <c r="D26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="104" t="s">
-        <v>912</v>
-      </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
+      <c r="A27" s="105" t="s">
+        <v>914</v>
+      </c>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
     </row>
     <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="105" t="s">
-        <v>913</v>
-      </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
+      <c r="A28" s="106" t="s">
+        <v>915</v>
+      </c>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="105" t="s">
-        <v>914</v>
-      </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
+      <c r="A29" s="106" t="s">
+        <v>916</v>
+      </c>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="105" t="s">
-        <v>915</v>
-      </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
+      <c r="A30" s="106" t="s">
+        <v>917</v>
+      </c>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="105" t="s">
-        <v>916</v>
-      </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
+      <c r="A31" s="106" t="s">
+        <v>918</v>
+      </c>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="105" t="s">
-        <v>917</v>
-      </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
+      <c r="A32" s="106" t="s">
+        <v>919</v>
+      </c>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="105" t="s">
-        <v>918</v>
-      </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
+      <c r="A33" s="106" t="s">
+        <v>920</v>
+      </c>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="28"/>
     </row>
   </sheetData>
@@ -26892,26 +26966,26 @@
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26994,33 +27068,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="106" width="85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="106" width="109.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="107" width="85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="107" width="109.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="29" width="9.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="106" t="s">
-        <v>925</v>
+      <c r="B1" s="107" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="71" t="s">
-        <v>926</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="71" t="s">
-        <v>928</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -27061,26 +27135,26 @@
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27088,48 +27162,48 @@
       <c r="B5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="107" t="s">
-        <v>936</v>
-      </c>
-      <c r="B6" s="107" t="s">
-        <v>937</v>
+      <c r="A6" s="108" t="s">
+        <v>938</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="108" t="s">
-        <v>938</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>939</v>
+      <c r="A7" s="109" t="s">
+        <v>940</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="108" t="s">
-        <v>940</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>941</v>
+      <c r="A8" s="109" t="s">
+        <v>942</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -27161,26 +27235,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="109" t="s">
-        <v>946</v>
+      <c r="A3" s="110" t="s">
+        <v>948</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -27212,7 +27286,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B1" s="52"/>
     </row>
@@ -27376,179 +27450,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="110" width="43.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="110" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="111" width="43.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="111" width="9.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111"/>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="112" t="s">
-        <v>949</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>950</v>
+      <c r="A2" s="113" t="s">
+        <v>951</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="56.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111" t="s">
-        <v>951</v>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="112"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="111"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="112"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="112"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="112"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="112"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="112"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -10589,78 +10589,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Создать 1 лист   по условию из элементов, запрятанных внутри </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>листа</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>листов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>листов…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   ПОРЯДОК for - обратный!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">[ 'yes' </t>
     </r>
     <r>
@@ -20610,6 +20538,71 @@
       </rPr>
       <t>(compute_cost(records))
 &gt;&gt;&gt; 65912.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать 1 лист   по условию из элементов, запрятанных внутри </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>листа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>листов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>листов…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -23410,8 +23403,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -23733,36 +23726,36 @@
         <v>582</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29">
+    <row r="44" spans="1:2">
       <c r="A44" s="28" t="s">
         <v>583</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>584</v>
+        <v>948</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29">
       <c r="A45" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="B45" s="44" t="s">
         <v>585</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B46" s="26" t="s">
         <v>587</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="43.5">
       <c r="A47" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>589</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -23771,10 +23764,10 @@
     </row>
     <row r="49" spans="1:2" ht="29">
       <c r="A49" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>591</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -23783,34 +23776,34 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>593</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="87">
       <c r="A52" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="B52" s="28" t="s">
         <v>595</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.5">
       <c r="A53" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>597</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="29">
       <c r="A54" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>599</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
@@ -23818,15 +23811,15 @@
         <v>364</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>602</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -23835,56 +23828,56 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="73" t="s">
+        <v>603</v>
+      </c>
+      <c r="B59" s="73" t="s">
         <v>604</v>
-      </c>
-      <c r="B59" s="73" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="58">
       <c r="A60" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B60" s="28"/>
     </row>
     <row r="61" spans="1:2" ht="43.5">
       <c r="A61" s="82" t="s">
+        <v>606</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>607</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="87">
       <c r="A62" s="82" t="s">
+        <v>608</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>609</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="70">
       <c r="A63" s="83" t="s">
+        <v>610</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>611</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="159.5">
       <c r="A64" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>613</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="203">
       <c r="A65" s="82" t="s">
+        <v>614</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>615</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -23893,26 +23886,26 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="73" t="s">
+        <v>616</v>
+      </c>
+      <c r="B67" s="73" t="s">
         <v>617</v>
-      </c>
-      <c r="B67" s="73" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="87">
       <c r="A68" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B68" s="28" t="s">
         <v>619</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="87">
       <c r="A69" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>621</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -23925,48 +23918,48 @@
     </row>
     <row r="72" spans="1:2" ht="29">
       <c r="A72" s="73" t="s">
+        <v>622</v>
+      </c>
+      <c r="B72" s="73" t="s">
         <v>623</v>
-      </c>
-      <c r="B72" s="73" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="43.5">
       <c r="A73" s="74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B73" s="28"/>
     </row>
     <row r="74" spans="1:2" ht="29">
       <c r="A74" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="B74" s="28" t="s">
         <v>626</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="72.5">
       <c r="A75" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>628</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="72.5">
       <c r="A76" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>630</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.5">
       <c r="A77" s="84" t="s">
+        <v>631</v>
+      </c>
+      <c r="B77" s="84" t="s">
         <v>632</v>
-      </c>
-      <c r="B77" s="84" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -23979,26 +23972,26 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="B80" s="73" t="s">
         <v>634</v>
-      </c>
-      <c r="B80" s="73" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="116">
       <c r="A81" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="B81" s="28" t="s">
         <v>636</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="43.5">
       <c r="A82" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="B82" s="28" t="s">
         <v>638</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24007,34 +24000,34 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="73" t="s">
+        <v>639</v>
+      </c>
+      <c r="B84" s="73" t="s">
         <v>640</v>
-      </c>
-      <c r="B84" s="73" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="43.5">
       <c r="A85" s="74" t="s">
+        <v>641</v>
+      </c>
+      <c r="B85" s="28" t="s">
         <v>642</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72.5">
       <c r="A86" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="B86" s="28" t="s">
         <v>644</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.5">
       <c r="A87" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="B87" s="28" t="s">
         <v>646</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24047,35 +24040,35 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="73" t="s">
+        <v>647</v>
+      </c>
+      <c r="B90" s="73" t="s">
         <v>648</v>
-      </c>
-      <c r="B90" s="73" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="87">
       <c r="A91" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B91" s="28"/>
     </row>
     <row r="92" spans="1:2" ht="46.4" customHeight="1">
       <c r="A92" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="B92" s="112" t="s">
         <v>651</v>
-      </c>
-      <c r="B92" s="112" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="49.75" customHeight="1">
       <c r="A93" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B93" s="112"/>
     </row>
     <row r="94" spans="1:2" ht="43.5">
       <c r="A94" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B94" s="28"/>
     </row>
@@ -24089,38 +24082,38 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="73" t="s">
+        <v>654</v>
+      </c>
+      <c r="B97" s="73" t="s">
         <v>655</v>
-      </c>
-      <c r="B97" s="73" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="87">
       <c r="A98" s="28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B98" s="28"/>
     </row>
     <row r="99" spans="1:2" ht="101.5">
       <c r="A99" s="74" t="s">
+        <v>657</v>
+      </c>
+      <c r="B99" s="28" t="s">
         <v>658</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="72.5">
       <c r="A100" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B100" s="28"/>
     </row>
     <row r="101" spans="1:2" ht="29">
       <c r="A101" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="B101" s="28" t="s">
         <v>661</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24141,56 +24134,56 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="73" t="s">
+        <v>662</v>
+      </c>
+      <c r="B106" s="73" t="s">
         <v>663</v>
-      </c>
-      <c r="B106" s="73" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="74" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B107" s="28"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="60" t="s">
+        <v>665</v>
+      </c>
+      <c r="B108" s="28" t="s">
         <v>666</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="58">
       <c r="A109" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" s="28" t="s">
         <v>668</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="29">
       <c r="A110" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="B110" s="28" t="s">
         <v>670</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="B111" s="28" t="s">
         <v>672</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="58">
       <c r="A112" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="B112" s="28" t="s">
         <v>674</v>
-      </c>
-      <c r="B112" s="28" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -24199,32 +24192,32 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="73" t="s">
+        <v>675</v>
+      </c>
+      <c r="B114" s="73" t="s">
         <v>676</v>
-      </c>
-      <c r="B114" s="73" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="188.5">
       <c r="A115" s="74" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B115" s="28"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="B116" s="31" t="s">
         <v>679</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="232">
       <c r="A117" s="74" t="s">
+        <v>680</v>
+      </c>
+      <c r="B117" s="31" t="s">
         <v>681</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -24233,50 +24226,50 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="73" t="s">
+        <v>682</v>
+      </c>
+      <c r="B119" s="73" t="s">
         <v>683</v>
-      </c>
-      <c r="B119" s="73" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="261">
       <c r="A120" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="B120" s="28" t="s">
         <v>685</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="29">
       <c r="A121" s="73" t="s">
+        <v>686</v>
+      </c>
+      <c r="B121" s="73" t="s">
         <v>687</v>
-      </c>
-      <c r="B121" s="73" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="304.5">
       <c r="A122" s="74" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="87">
       <c r="A123" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="B123" s="28" t="s">
         <v>690</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="116">
       <c r="A124" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="B124" s="28" t="s">
         <v>692</v>
-      </c>
-      <c r="B124" s="28" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -24409,18 +24402,18 @@
     </row>
     <row r="2" spans="1:2" ht="348">
       <c r="A2" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>694</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="232">
       <c r="A3" s="86" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -24595,74 +24588,74 @@
     </row>
     <row r="2" spans="1:2" ht="130.5">
       <c r="A2" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>698</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>700</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>702</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>704</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>706</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="B7" t="s">
         <v>708</v>
-      </c>
-      <c r="B7" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>710</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>712</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>714</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -24769,34 +24762,34 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>716</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
       <c r="A3" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>718</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>720</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>722</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -24850,165 +24843,165 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>724</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>726</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>728</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>730</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>732</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="28" t="s">
+        <v>733</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>734</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5">
       <c r="A8" s="54" t="s">
+        <v>735</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>736</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>740</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>742</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="28" t="s">
+        <v>743</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>744</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>746</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
       <c r="A14" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>748</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5">
       <c r="A15" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>750</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="58">
       <c r="A16" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>752</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" customHeight="1">
       <c r="A17" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="B17" s="112" t="s">
         <v>754</v>
-      </c>
-      <c r="B17" s="112" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="89" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B18" s="112"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="89" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B19" s="112"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="89" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B20" s="112"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="89" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B21" s="112"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="89" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B22" s="112"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="89" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B23" s="112"/>
     </row>
@@ -25018,10 +25011,10 @@
     </row>
     <row r="25" spans="1:2" ht="29">
       <c r="A25" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>762</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -25106,10 +25099,10 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="70" t="s">
+        <v>763</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>764</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25118,42 +25111,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>766</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>768</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
       <c r="A6" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>770</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="25" t="s">
+        <v>771</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>772</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>774</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -25162,74 +25155,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>776</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>778</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>780</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>782</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>784</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="28" t="s">
+        <v>785</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>786</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
+        <v>787</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>788</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>790</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="28" t="s">
+        <v>791</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>792</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -25400,10 +25393,10 @@
     </row>
     <row r="21" spans="1:2" ht="189">
       <c r="A21" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -25570,10 +25563,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>794</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -25590,7 +25583,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="40" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B7" s="41"/>
     </row>
@@ -25608,15 +25601,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>797</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="28" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B12" s="28"/>
     </row>
@@ -25691,13 +25684,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="91" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B2" s="92"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="57" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B3" s="57"/>
     </row>
@@ -25773,78 +25766,78 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="93" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B2" s="94"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>803</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>805</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2" ht="58">
       <c r="A6" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>808</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>810</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>812</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>814</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>816</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="95" t="s">
+        <v>817</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>818</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -25857,56 +25850,56 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="96" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B14" s="94"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>821</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>823</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>825</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>827</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>829</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>831</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -25915,24 +25908,24 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>834</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5">
       <c r="A24" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -26000,39 +25993,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="97" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>838</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>839</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>144</v>
       </c>
       <c r="D1" s="97" t="s">
+        <v>839</v>
+      </c>
+      <c r="E1" s="98" t="s">
         <v>840</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="F1" s="98" t="s">
         <v>841</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="99" t="s">
         <v>846</v>
-      </c>
-      <c r="E2" s="99" t="s">
-        <v>847</v>
       </c>
       <c r="F2" s="100">
         <v>0</v>
@@ -26041,19 +26034,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="79" t="s">
+        <v>847</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>848</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="C3" s="102" t="s">
         <v>849</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="D3" s="79" t="s">
         <v>850</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="E3" s="99" t="s">
         <v>851</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>852</v>
       </c>
       <c r="F3" s="100">
         <v>1</v>
@@ -26062,19 +26055,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="99" t="s">
         <v>855</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>856</v>
       </c>
       <c r="F4" s="100">
         <v>2</v>
@@ -26083,19 +26076,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="79" t="s">
+        <v>856</v>
+      </c>
+      <c r="B5" s="102" t="s">
         <v>857</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="C5" s="102" t="s">
         <v>858</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="D5" s="79" t="s">
         <v>859</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="E5" s="99" t="s">
         <v>860</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>861</v>
       </c>
       <c r="F5" s="100">
         <v>3</v>
@@ -26108,7 +26101,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="99" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F6" s="100">
         <v>4</v>
@@ -26121,7 +26114,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="99" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F7" s="100">
         <v>5</v>
@@ -26134,7 +26127,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="99" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F8" s="100">
         <v>6</v>
@@ -26147,7 +26140,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="99" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F9" s="100">
         <v>7</v>
@@ -26156,19 +26149,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="99" t="s">
         <v>869</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>870</v>
       </c>
       <c r="F10" s="100">
         <v>8</v>
@@ -26177,19 +26170,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="99" t="s">
         <v>874</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>875</v>
       </c>
       <c r="F11" s="100">
         <v>9</v>
@@ -26198,19 +26191,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="99" t="s">
         <v>879</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>880</v>
       </c>
       <c r="F12" s="100">
         <v>10</v>
@@ -26219,19 +26212,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="99" t="s">
         <v>884</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>885</v>
       </c>
       <c r="F13" s="100">
         <v>11</v>
@@ -26244,7 +26237,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="99" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F14" s="100">
         <v>12</v>
@@ -26257,7 +26250,7 @@
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="99" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F15" s="100">
         <v>13</v>
@@ -26266,19 +26259,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>888</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>889</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>890</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="99" t="s">
         <v>891</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>892</v>
       </c>
       <c r="F16" s="100">
         <v>14</v>
@@ -26287,17 +26280,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>893</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>894</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="E17" s="99" t="s">
         <v>895</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>896</v>
       </c>
       <c r="F17" s="100">
         <v>15</v>
@@ -26309,16 +26302,16 @@
         <v>393</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>897</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="D18" s="28" t="s">
         <v>898</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="E18" s="99" t="s">
         <v>899</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>900</v>
       </c>
       <c r="F18" s="100">
         <v>16</v>
@@ -26331,7 +26324,7 @@
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="99" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F19" s="100">
         <v>17</v>
@@ -26343,7 +26336,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="99" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F20" s="100">
         <v>18</v>
@@ -26356,7 +26349,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="99" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F21" s="100">
         <v>19</v>
@@ -26369,7 +26362,7 @@
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="99" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F22" s="100">
         <v>20</v>
@@ -26405,7 +26398,7 @@
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="114" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B27" s="114"/>
       <c r="C27" s="114"/>
@@ -26413,7 +26406,7 @@
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
       <c r="A28" s="113" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B28" s="113"/>
       <c r="C28" s="113"/>
@@ -26421,7 +26414,7 @@
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
       <c r="A29" s="113" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="113"/>
@@ -26429,7 +26422,7 @@
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
       <c r="A30" s="113" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B30" s="113"/>
       <c r="C30" s="113"/>
@@ -26437,7 +26430,7 @@
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
       <c r="A31" s="113" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>
@@ -26445,7 +26438,7 @@
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
       <c r="A32" s="113" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B32" s="113"/>
       <c r="C32" s="113"/>
@@ -26453,7 +26446,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
       <c r="A33" s="113" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B33" s="113"/>
       <c r="C33" s="113"/>
@@ -26495,26 +26488,26 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>912</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>914</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>916</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26597,23 +26590,23 @@
         <v>181</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="70" t="s">
+        <v>918</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>919</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="103" t="s">
         <v>921</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -26644,26 +26637,26 @@
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>923</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>925</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>927</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26672,26 +26665,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="104" t="s">
+        <v>928</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>929</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="105" t="s">
+        <v>930</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>931</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="105" t="s">
+        <v>932</v>
+      </c>
+      <c r="B8" s="104" t="s">
         <v>933</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -26734,26 +26727,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1" t="s">
         <v>935</v>
-      </c>
-      <c r="B1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B2" t="s">
         <v>937</v>
-      </c>
-      <c r="B2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="106" t="s">
+        <v>938</v>
+      </c>
+      <c r="B3" t="s">
         <v>939</v>
-      </c>
-      <c r="B3" t="s">
-        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -26775,7 +26768,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="52" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B1" s="52"/>
     </row>
@@ -26939,16 +26932,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="109" t="s">
+        <v>941</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>942</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="108"/>
       <c r="B3" s="108" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -28975,7 +28968,7 @@
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="91" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>328</v>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="840" firstSheet="6" activeTab="13"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="840" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -18040,90 +18040,6 @@
     <t xml:space="preserve">Запустить файлик.  Файлик сам не является executable, поэтому надо указать и exe, и сам файлик   </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> datetime </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> datetime
-datetime.now().strftime(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF548235"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>'%Y-%m-%d %H:%M:%S:%f'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)
-datetime.now().strftime(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF548235"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>'%d%m%y%H%M%S'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Написать дату  и время в любом формате
 YYYY-mm-dd HH:MM:SSSS:msmsmsmsms
 ddmmyyhhss</t>
@@ -20603,6 +20519,83 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> datetime
+datetime.now().strftime(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF548235"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'%Y-%m-%d %H:%M:%S:%f'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)
+datetime.now().strftime(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF548235"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'%d%m%y%H%M%S'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -23403,7 +23396,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -23731,7 +23724,7 @@
         <v>583</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29">
@@ -24250,7 +24243,7 @@
     </row>
     <row r="122" spans="1:2" ht="304.5">
       <c r="A122" s="74" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B122" s="28" t="s">
         <v>688</v>
@@ -25081,7 +25074,9 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.6328125" defaultRowHeight="14.5"/>
   <cols>
@@ -25099,10 +25094,10 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="70" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>763</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25111,42 +25106,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>765</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>767</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
       <c r="A6" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>769</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>771</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>773</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -25155,74 +25150,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>775</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>777</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>779</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>781</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>783</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>785</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>787</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>789</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>791</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -25393,10 +25388,10 @@
     </row>
     <row r="21" spans="1:2" ht="189">
       <c r="A21" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -25563,10 +25558,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>793</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -25583,7 +25578,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B7" s="41"/>
     </row>
@@ -25601,15 +25596,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>796</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B12" s="28"/>
     </row>
@@ -25684,13 +25679,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="91" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B2" s="92"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="57" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="57"/>
     </row>
@@ -25766,78 +25761,78 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="93" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B2" s="94"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>802</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>804</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2" ht="58">
       <c r="A6" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>807</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>809</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="26" t="s">
+        <v>810</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>811</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>813</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>815</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="95" t="s">
+        <v>816</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>817</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -25850,56 +25845,56 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="96" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B14" s="94"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>820</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>822</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>824</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>826</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>828</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>830</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -25908,24 +25903,24 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="41" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>833</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5">
       <c r="A24" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>835</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -25993,39 +25988,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="97" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>837</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>838</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>144</v>
       </c>
       <c r="D1" s="97" t="s">
+        <v>838</v>
+      </c>
+      <c r="E1" s="98" t="s">
         <v>839</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="F1" s="98" t="s">
         <v>840</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="99" t="s">
         <v>845</v>
-      </c>
-      <c r="E2" s="99" t="s">
-        <v>846</v>
       </c>
       <c r="F2" s="100">
         <v>0</v>
@@ -26034,19 +26029,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="79" t="s">
+        <v>846</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>847</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="C3" s="102" t="s">
         <v>848</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="D3" s="79" t="s">
         <v>849</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="E3" s="99" t="s">
         <v>850</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>851</v>
       </c>
       <c r="F3" s="100">
         <v>1</v>
@@ -26055,19 +26050,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="99" t="s">
         <v>854</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>855</v>
       </c>
       <c r="F4" s="100">
         <v>2</v>
@@ -26076,19 +26071,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="79" t="s">
+        <v>855</v>
+      </c>
+      <c r="B5" s="102" t="s">
         <v>856</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="C5" s="102" t="s">
         <v>857</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="D5" s="79" t="s">
         <v>858</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="E5" s="99" t="s">
         <v>859</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>860</v>
       </c>
       <c r="F5" s="100">
         <v>3</v>
@@ -26101,7 +26096,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="99" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F6" s="100">
         <v>4</v>
@@ -26114,7 +26109,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="99" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F7" s="100">
         <v>5</v>
@@ -26127,7 +26122,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="99" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F8" s="100">
         <v>6</v>
@@ -26140,7 +26135,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="99" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F9" s="100">
         <v>7</v>
@@ -26149,19 +26144,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="99" t="s">
         <v>868</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>869</v>
       </c>
       <c r="F10" s="100">
         <v>8</v>
@@ -26170,19 +26165,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="99" t="s">
         <v>873</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>874</v>
       </c>
       <c r="F11" s="100">
         <v>9</v>
@@ -26191,19 +26186,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="99" t="s">
         <v>878</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>879</v>
       </c>
       <c r="F12" s="100">
         <v>10</v>
@@ -26212,19 +26207,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="99" t="s">
         <v>883</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>884</v>
       </c>
       <c r="F13" s="100">
         <v>11</v>
@@ -26237,7 +26232,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="99" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F14" s="100">
         <v>12</v>
@@ -26250,7 +26245,7 @@
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="99" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F15" s="100">
         <v>13</v>
@@ -26259,19 +26254,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28" t="s">
+        <v>886</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>887</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>888</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>889</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="99" t="s">
         <v>890</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>891</v>
       </c>
       <c r="F16" s="100">
         <v>14</v>
@@ -26280,17 +26275,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>892</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>893</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="E17" s="99" t="s">
         <v>894</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>895</v>
       </c>
       <c r="F17" s="100">
         <v>15</v>
@@ -26302,16 +26297,16 @@
         <v>393</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>896</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="D18" s="28" t="s">
         <v>897</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="E18" s="99" t="s">
         <v>898</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>899</v>
       </c>
       <c r="F18" s="100">
         <v>16</v>
@@ -26324,7 +26319,7 @@
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="99" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F19" s="100">
         <v>17</v>
@@ -26336,7 +26331,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="99" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F20" s="100">
         <v>18</v>
@@ -26349,7 +26344,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="99" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F21" s="100">
         <v>19</v>
@@ -26362,7 +26357,7 @@
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="99" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F22" s="100">
         <v>20</v>
@@ -26398,7 +26393,7 @@
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="114" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B27" s="114"/>
       <c r="C27" s="114"/>
@@ -26406,7 +26401,7 @@
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
       <c r="A28" s="113" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B28" s="113"/>
       <c r="C28" s="113"/>
@@ -26414,7 +26409,7 @@
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
       <c r="A29" s="113" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="113"/>
@@ -26422,7 +26417,7 @@
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
       <c r="A30" s="113" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B30" s="113"/>
       <c r="C30" s="113"/>
@@ -26430,7 +26425,7 @@
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
       <c r="A31" s="113" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>
@@ -26438,7 +26433,7 @@
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
       <c r="A32" s="113" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B32" s="113"/>
       <c r="C32" s="113"/>
@@ -26446,7 +26441,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
       <c r="A33" s="113" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B33" s="113"/>
       <c r="C33" s="113"/>
@@ -26488,26 +26483,26 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>911</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="28" t="s">
+        <v>912</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>913</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>915</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26590,23 +26585,23 @@
         <v>181</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="70" t="s">
+        <v>917</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>918</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="70" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="103" t="s">
         <v>920</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -26637,26 +26632,26 @@
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>922</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>924</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>926</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26665,26 +26660,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="104" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>928</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="105" t="s">
+        <v>929</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>930</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="105" t="s">
+        <v>931</v>
+      </c>
+      <c r="B8" s="104" t="s">
         <v>932</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -26727,26 +26722,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1" t="s">
         <v>934</v>
-      </c>
-      <c r="B1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2" t="s">
         <v>936</v>
-      </c>
-      <c r="B2" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="106" t="s">
+        <v>937</v>
+      </c>
+      <c r="B3" t="s">
         <v>938</v>
-      </c>
-      <c r="B3" t="s">
-        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -26768,7 +26763,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="52" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B1" s="52"/>
     </row>
@@ -26932,16 +26927,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="109" t="s">
+        <v>940</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>941</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="108"/>
       <c r="B3" s="108" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -28968,7 +28963,7 @@
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="91" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>328</v>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="840" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="840" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="951">
   <si>
     <r>
       <rPr>
@@ -20598,12 +20598,85 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>with open(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'duplicates_report.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 'w'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>) as myfile:
+    wr = csv.writer(myfile, quoting=csv.QUOTE_ALL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> delimiter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=';')
+        for v_tuple in analyze['list_for_db']:
+            wr.writerow(list(v_tuple))</t>
+    </r>
+  </si>
+  <si>
+    <t>Записать лист в csv-файл.
+Чтоб строка разделялась по колонкам, надо указывать делиметер ;
+В примере был лист туплов со стринг-значениями. Именно указание ; как делиметера разнесло значения туплов по разным колонкам.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="111">
+  <fonts count="112">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -21348,6 +21421,13 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -23396,8 +23476,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ148"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -23593,9 +23673,13 @@
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="77" customFormat="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+    <row r="25" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A25" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="26" spans="1:2" s="77" customFormat="1">
       <c r="A26" s="25"/>
@@ -24366,7 +24450,7 @@
     <mergeCell ref="B92:B93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25074,7 +25158,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -20599,77 +20599,165 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>with open(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>'duplicates_report.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 'w'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>) as myfile:
-    wr = csv.writer(myfile, quoting=csv.QUOTE_ALL,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> delimiter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>=';')
-        for v_tuple in analyze['list_for_db']:
-            wr.writerow(list(v_tuple))</t>
-    </r>
-  </si>
-  <si>
     <t>Записать лист в csv-файл.
 Чтоб строка разделялась по колонкам, надо указывать делиметер ;
 В примере был лист туплов со стринг-значениями. Именно указание ; как делиметера разнесло значения туплов по разным колонкам.</t>
+  </si>
+  <si>
+    <r>
+      <t>with open(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'duplicates_report.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 'w'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>newline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>='') a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>s myfile:
+    wr = csv.writer(myfile, quoting=csv.QUOTE_ALL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> delimiter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">=';')
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> v_tuple </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> analyze[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'list_for_db'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>]:
+            wr.writerow(v_tuple)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -23477,7 +23565,7 @@
   <dimension ref="A1:AMJ148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -23675,10 +23763,10 @@
     </row>
     <row r="25" spans="1:2" s="77" customFormat="1" ht="58">
       <c r="A25" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>949</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="77" customFormat="1">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="953">
   <si>
     <r>
       <rPr>
@@ -20757,6 +20757,111 @@
       </rPr>
       <t>]:
             wr.writerow(v_tuple)</t>
+    </r>
+  </si>
+  <si>
+    <t>Наиболее часто встречающийся элемент, ф-я возвращает кортеж (кол-во, значение)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> val: (my_list.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(val), val), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(arr) ))</t>
     </r>
   </si>
 </sst>
@@ -23565,7 +23670,7 @@
   <dimension ref="A1:AMJ148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -23770,8 +23875,12 @@
       </c>
     </row>
     <row r="26" spans="1:2" s="77" customFormat="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="25" t="s">
+        <v>952</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="27" spans="1:2" s="77" customFormat="1">
       <c r="A27" s="25"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -22632,7 +22632,7 @@
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="77.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="9.09"/>
   </cols>
   <sheetData>
@@ -23504,7 +23504,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.28"/>
   </cols>
   <sheetData>
@@ -24867,7 +24867,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25258,7 +25258,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="57.73828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="57.75" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
@@ -25607,7 +25607,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.64453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="51.66015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.09"/>
@@ -26545,7 +26545,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.28125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2890625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.18"/>
@@ -27167,7 +27167,7 @@
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="105" width="85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="105" width="109.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="105" width="109.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="28" width="9.09"/>
   </cols>
   <sheetData>
@@ -27379,7 +27379,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="51.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="51.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -19378,61 +19378,6 @@
     <t>Объединить объекты datetime.date и datetime.time - дату и время</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;&gt;&gt; datetime.datetime.now()
-datetime.datetime(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2009, 1, 6, 15, 8, 24, 78915</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
-&gt;&gt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(datetime.datetime.now())
-2009-01-06 15:08:24.789150</t>
-    </r>
-  </si>
-  <si>
     <t>Текущее дата/время</t>
   </si>
   <si>
@@ -21012,6 +20957,54 @@
   </si>
   <si>
     <t>Импорт из другой папки</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt;&gt;&gt; datetime.datetime.now()
+datetime.datetime(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2009, 1, 6, 15, 8, 24, 78915</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+&gt;&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(datetime.datetime.now())
+2009-01-06 15:08:24.789150</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -21877,18 +21870,6 @@
   </cellStyleXfs>
   <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -22206,6 +22187,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22566,164 +22559,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="77.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="101.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -22752,202 +22745,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="72.5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="59" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="62" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="63" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="60" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="60" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="60"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="63" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="101.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="60"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:2" ht="58">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="27" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="40" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="27" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="27" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2" ht="29">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="40" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="27" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="27"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22968,78 +22961,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="65" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23060,341 +23053,341 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="31" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="66.08984375" style="70" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="5" customWidth="1"/>
-    <col min="6" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="8" style="27" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="66.08984375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="42" customFormat="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" s="38" customFormat="1">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="42" customFormat="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:4" s="38" customFormat="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="42" customFormat="1" ht="130.5">
-      <c r="A3" s="25"/>
-      <c r="B3" s="71" t="s">
+    <row r="3" spans="1:4" s="38" customFormat="1" ht="130.5">
+      <c r="A3" s="21"/>
+      <c r="B3" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5">
-      <c r="A8" s="31" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="43.5">
+      <c r="A8" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="68" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="87">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="29">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="29">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="29">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="29">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="29">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="43.5">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="43.5">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="29">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="43.5">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="29">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="29">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="43.5">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="29">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="29">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="27" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="58">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="68" t="s">
         <v>435</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="27" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="29">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="27" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="29">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="27" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="29">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="2:4" ht="43.5">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="27" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="29">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="70" t="s">
         <v>444</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="27" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="31"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="31"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="31"/>
+      <c r="C35" s="27"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="31"/>
+      <c r="C36" s="27"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="31"/>
+      <c r="C37" s="27"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="31"/>
+      <c r="C38" s="27"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="31"/>
+      <c r="C39" s="27"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="31"/>
+      <c r="C40" s="27"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="31"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="31"/>
+      <c r="C42" s="27"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="31"/>
+      <c r="C43" s="27"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="31"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="31"/>
+      <c r="C45" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23420,348 +23413,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72.5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" ht="29">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="57" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="71" t="s">
         <v>469</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="71" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="71" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="71" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="27" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="72" t="s">
         <v>477</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="27" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="27" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="27" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="27" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="27" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="27" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="48" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="27" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="27" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="27" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="27" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="27" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="27" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="27" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="27" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="87">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="27" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="101.5">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="74" t="s">
         <v>510</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="27" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="58">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="27" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="188.5">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="75" t="s">
         <v>514</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="27" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="58">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="27" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -23786,972 +23779,972 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.08984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.26953125" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="77.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.26953125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="42" customFormat="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:2" s="38" customFormat="1">
+      <c r="A1" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="76" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="42" customFormat="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:2" s="38" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="40" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="81" customFormat="1">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:2" s="77" customFormat="1">
+      <c r="A3" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="81" customFormat="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:2" s="77" customFormat="1">
+      <c r="A4" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="81" customFormat="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:2" s="77" customFormat="1">
+      <c r="A5" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="81" customFormat="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:2" s="77" customFormat="1">
+      <c r="A6" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="81" customFormat="1">
-      <c r="A7" s="82" t="s">
+    <row r="7" spans="1:2" s="77" customFormat="1">
+      <c r="A7" s="78" t="s">
         <v>527</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="81" customFormat="1">
-      <c r="A8" s="82" t="s">
+    <row r="8" spans="1:2" s="77" customFormat="1">
+      <c r="A8" s="78" t="s">
         <v>529</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="81" customFormat="1" ht="72.5">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:2" s="77" customFormat="1" ht="72.5">
+      <c r="A9" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="81" customFormat="1">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:2" s="77" customFormat="1">
+      <c r="A10" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="81" customFormat="1">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:2" s="77" customFormat="1">
+      <c r="A11" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="81" customFormat="1">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:2" s="77" customFormat="1">
+      <c r="A12" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="81" customFormat="1">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:2" s="77" customFormat="1">
+      <c r="A13" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="81" customFormat="1">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:2" s="77" customFormat="1">
+      <c r="A14" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="81" customFormat="1">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:2" s="77" customFormat="1">
+      <c r="A15" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="81" customFormat="1" ht="29">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:2" s="77" customFormat="1" ht="29">
+      <c r="A16" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="81" customFormat="1">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:2" s="77" customFormat="1">
+      <c r="A17" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="81" customFormat="1">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:2" s="77" customFormat="1">
+      <c r="A18" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="81" customFormat="1">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:2" s="77" customFormat="1">
+      <c r="A19" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A20" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A21" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="81" customFormat="1">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:2" s="77" customFormat="1">
+      <c r="A22" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="81" customFormat="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A24" s="28" t="s">
+    <row r="23" spans="1:2" s="77" customFormat="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A24" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A25" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="81" customFormat="1">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:2" s="77" customFormat="1">
+      <c r="A26" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="81" customFormat="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-    </row>
-    <row r="28" spans="1:2" s="81" customFormat="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-    </row>
-    <row r="29" spans="1:2" s="81" customFormat="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-    </row>
-    <row r="30" spans="1:2" s="81" customFormat="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-    </row>
-    <row r="31" spans="1:2" s="81" customFormat="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="44" t="s">
+    <row r="27" spans="1:2" s="77" customFormat="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" spans="1:2" s="77" customFormat="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="1:2" s="77" customFormat="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:2" s="77" customFormat="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" spans="1:2" s="77" customFormat="1">
+      <c r="A31" s="23"/>
+      <c r="B31" s="40" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="81" customFormat="1" ht="58">
-      <c r="A32" s="83" t="s">
+    <row r="32" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A32" s="79" t="s">
         <v>566</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="79" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="81" customFormat="1" ht="29">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:2" s="77" customFormat="1" ht="29">
+      <c r="A33" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="80" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="81" customFormat="1">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:2" s="77" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="80" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="81" customFormat="1">
-      <c r="A35" s="84" t="s">
+    <row r="35" spans="1:2" s="77" customFormat="1">
+      <c r="A35" s="80" t="s">
         <v>572</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="80" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="81" customFormat="1">
-      <c r="A36" s="84" t="s">
+    <row r="36" spans="1:2" s="77" customFormat="1">
+      <c r="A36" s="80" t="s">
         <v>574</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="80" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="81" customFormat="1">
-      <c r="A37" s="84" t="s">
+    <row r="37" spans="1:2" s="77" customFormat="1">
+      <c r="A37" s="80" t="s">
         <v>576</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="80" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="81" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="27" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="27" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="27" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="27" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="27" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="43" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="25" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="43.5">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="21" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="25"/>
     </row>
     <row r="49" spans="1:2" ht="29">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="27" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="27" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="87">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="27" t="s">
         <v>602</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="27" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.5">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="27" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="29">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="27" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="27" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="27" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="73" t="s">
         <v>611</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="73" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="58">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="B60" s="31"/>
+      <c r="B60" s="27"/>
     </row>
     <row r="61" spans="1:2" ht="43.5">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="82" t="s">
         <v>614</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="27" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="87">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="82" t="s">
         <v>616</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="27" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="70">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="83" t="s">
         <v>618</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="27" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="159.5">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="27" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="203">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="82" t="s">
         <v>622</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="27" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="73" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="87">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="27" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="87">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="27" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:2" ht="29">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="73" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="43.5">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="74" t="s">
         <v>632</v>
       </c>
-      <c r="B73" s="31"/>
+      <c r="B73" s="27"/>
     </row>
     <row r="74" spans="1:2" ht="29">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="27" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="72.5">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="27" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="72.5">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="27" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.5">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="84" t="s">
         <v>639</v>
       </c>
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="84" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="73" t="s">
         <v>641</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="73" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="116">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="27" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="43.5">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="27" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="73" t="s">
         <v>647</v>
       </c>
-      <c r="B84" s="77" t="s">
+      <c r="B84" s="73" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="43.5">
-      <c r="A85" s="78" t="s">
+      <c r="A85" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="27" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72.5">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="27" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.5">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="27" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="77" t="s">
+      <c r="A90" s="73" t="s">
         <v>655</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="73" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="87">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="B91" s="31"/>
+      <c r="B91" s="27"/>
     </row>
     <row r="92" spans="1:2" ht="46.4" customHeight="1">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="112" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="49.75" customHeight="1">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="112"/>
     </row>
     <row r="94" spans="1:2" ht="43.5">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="B94" s="31"/>
+      <c r="B94" s="27"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="77" t="s">
+      <c r="A97" s="73" t="s">
         <v>662</v>
       </c>
-      <c r="B97" s="77" t="s">
+      <c r="B97" s="73" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="87">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="B98" s="31"/>
+      <c r="B98" s="27"/>
     </row>
     <row r="99" spans="1:2" ht="101.5">
-      <c r="A99" s="78" t="s">
+      <c r="A99" s="74" t="s">
         <v>665</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="27" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="72.5">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="B100" s="31"/>
+      <c r="B100" s="27"/>
     </row>
     <row r="101" spans="1:2" ht="29">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="27" t="s">
         <v>668</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="27" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="73" t="s">
         <v>670</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="73" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="78" t="s">
+      <c r="A107" s="74" t="s">
         <v>672</v>
       </c>
-      <c r="B107" s="31"/>
+      <c r="B107" s="27"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="60" t="s">
         <v>673</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="27" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="58">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="27" t="s">
         <v>675</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="27" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="29">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="27" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="27" t="s">
         <v>679</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="27" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="58">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="27" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="73" t="s">
         <v>683</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="73" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="188.5">
-      <c r="A115" s="78" t="s">
+      <c r="A115" s="74" t="s">
         <v>685</v>
       </c>
-      <c r="B115" s="31"/>
+      <c r="B115" s="27"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="30" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="232">
-      <c r="A117" s="78" t="s">
+      <c r="A117" s="74" t="s">
         <v>688</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="30" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="31"/>
-      <c r="B118" s="31"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="77" t="s">
+      <c r="A119" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="B119" s="73" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="261">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="27" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="29">
-      <c r="A121" s="77" t="s">
+      <c r="A121" s="73" t="s">
         <v>694</v>
       </c>
-      <c r="B121" s="77" t="s">
+      <c r="B121" s="73" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="304.5">
-      <c r="A122" s="78" t="s">
+      <c r="A122" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="27" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="87">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="27" t="s">
         <v>698</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="27" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="116">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="27" t="s">
         <v>700</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="27" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="31"/>
-      <c r="B125" s="31"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="31"/>
-      <c r="B126" s="31"/>
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="31"/>
-      <c r="B129" s="31"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="31"/>
-      <c r="B130" s="31"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="31"/>
-      <c r="B131" s="31"/>
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="31"/>
-      <c r="B132" s="31"/>
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="31"/>
-      <c r="B133" s="31"/>
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="31"/>
-      <c r="B137" s="31"/>
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31"/>
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="31"/>
-      <c r="B141" s="31"/>
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="31"/>
-      <c r="B142" s="31"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31"/>
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="31"/>
-      <c r="B145" s="31"/>
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="31"/>
-      <c r="B146" s="31"/>
+      <c r="A146" s="27"/>
+      <c r="B146" s="27"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24775,181 +24768,181 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="71.6328125" style="32" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="32"/>
+    <col min="1" max="2" width="71.6328125" style="28" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="288" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="348">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="232">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -24974,55 +24967,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>714</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>718</v>
       </c>
       <c r="B7" t="s">
@@ -25030,108 +25023,108 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
         <v>720</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="27" t="s">
         <v>722</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="27" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25148,64 +25141,64 @@
   <sheetFormatPr defaultColWidth="57.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25228,237 +25221,237 @@
     <col min="2" max="2" width="78.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="92" customFormat="1" ht="18.5">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:2" s="88" customFormat="1" ht="18.5">
+      <c r="A1" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="87" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>740</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="27" t="s">
         <v>744</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="53" t="s">
         <v>746</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="53" t="s">
         <v>748</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>750</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>754</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="27" t="s">
         <v>760</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="43" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="58">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="112" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="89" t="s">
         <v>766</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="112"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="89" t="s">
         <v>767</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="112"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="89" t="s">
         <v>768</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="112"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="89" t="s">
         <v>769</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="112"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="89" t="s">
         <v>770</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="112"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="89" t="s">
         <v>771</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="112"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
     </row>
     <row r="25" spans="1:2" ht="29">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="27" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25476,8 +25469,8 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.6328125" defaultRowHeight="14.5"/>
@@ -25487,148 +25480,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="70" t="s">
         <v>774</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="60" t="s">
         <v>776</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="60" t="s">
         <v>778</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>780</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>782</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="B8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="27" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>786</v>
       </c>
-      <c r="B10" s="31" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>788</v>
       </c>
-      <c r="B11" s="31" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="24" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>790</v>
       </c>
-      <c r="B12" s="31" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.5">
+      <c r="A13" s="24" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.5">
-      <c r="A13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>792</v>
       </c>
-      <c r="B13" s="31" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>794</v>
       </c>
-      <c r="B14" s="31" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="89.25" customHeight="1">
+      <c r="A15" s="27" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="89.25" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>796</v>
       </c>
-      <c r="B15" s="31" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="B16" s="31" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="29">
+      <c r="A17" s="27" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="29">
-      <c r="A17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>800</v>
       </c>
-      <c r="B17" s="31" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="27" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>803</v>
-      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25649,278 +25642,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="106.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="12"/>
+    <col min="1" max="1" width="106.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" style="8" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="130.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="232">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" ht="256.5">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="189">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" ht="189">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="1:2" ht="43.5">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="72.5">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25947,112 +25940,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>804</v>
       </c>
-      <c r="B3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="39" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="43" t="s">
+      <c r="B7" s="40"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:2" ht="58">
+      <c r="A11" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="B7" s="44"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" spans="1:2" ht="58">
-      <c r="A11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>807</v>
       </c>
-      <c r="B11" s="31" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="43.5">
+      <c r="A12" s="27" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.5">
-      <c r="A12" s="31" t="s">
-        <v>809</v>
-      </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26072,68 +26065,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="90" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="91" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="92"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="57" t="s">
         <v>810</v>
       </c>
-      <c r="B2" s="96"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="61" t="s">
-        <v>811</v>
-      </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26145,225 +26138,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="61.26953125" style="32" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="32"/>
+    <col min="1" max="2" width="61.26953125" style="28" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
+        <v>811</v>
+      </c>
+      <c r="B2" s="94"/>
+    </row>
+    <row r="3" spans="1:2" ht="43.5">
+      <c r="A3" s="27" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="98"/>
-    </row>
-    <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>813</v>
       </c>
-      <c r="B3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>815</v>
       </c>
-      <c r="B4" s="31" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:2" ht="58">
+      <c r="A6" s="25" t="s">
         <v>817</v>
       </c>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="1:2" ht="58">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>818</v>
       </c>
-      <c r="B6" s="31" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>820</v>
       </c>
-      <c r="B7" s="31" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="25" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>822</v>
       </c>
-      <c r="B8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="25" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>824</v>
       </c>
-      <c r="B9" s="31" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="25" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>826</v>
       </c>
-      <c r="B10" s="31" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="95" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="99" t="s">
+      <c r="B11" s="27" t="s">
         <v>828</v>
       </c>
-      <c r="B11" s="31" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="96" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="100" t="s">
+      <c r="B14" s="94"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27" t="s">
         <v>830</v>
       </c>
-      <c r="B14" s="98"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>831</v>
       </c>
-      <c r="B15" s="31" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>833</v>
       </c>
-      <c r="B16" s="31" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="27" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>835</v>
       </c>
-      <c r="B17" s="31" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="27" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>837</v>
       </c>
-      <c r="B18" s="31" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="29">
+      <c r="A19" s="27" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="31" t="s">
+      <c r="B19" s="27" t="s">
         <v>839</v>
       </c>
-      <c r="B19" s="31" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="29">
+      <c r="A20" s="27" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="29">
-      <c r="A20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="B20" s="31" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="40" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="44" t="s">
+      <c r="B22" s="40"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27" t="s">
         <v>843</v>
       </c>
-      <c r="B22" s="44"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+      <c r="B23" s="27" t="s">
         <v>844</v>
       </c>
-      <c r="B23" s="31" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="43.5">
+      <c r="A24" s="27" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.5">
-      <c r="A24" s="31" t="s">
+      <c r="B24" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>847</v>
-      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31" t="s">
-        <v>955</v>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -26382,476 +26375,476 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="5"/>
-    <col min="2" max="2" width="25.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="40.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="5"/>
-    <col min="6" max="6" width="16.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="5" customWidth="1"/>
-    <col min="8" max="1024" width="21.26953125" style="5"/>
+    <col min="1" max="1" width="21.26953125" style="1"/>
+    <col min="2" max="2" width="25.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="1"/>
+    <col min="6" max="6" width="16.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="21.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="97" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>848</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="C1" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="97" t="s">
         <v>849</v>
       </c>
-      <c r="C1" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="101" t="s">
+      <c r="E1" s="98" t="s">
         <v>850</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="F1" s="98" t="s">
         <v>851</v>
       </c>
-      <c r="F1" s="102" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="43.5">
+      <c r="A2" s="4" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.5">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="99" t="s">
         <v>856</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="F2" s="100">
+        <v>0</v>
+      </c>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="1:7" ht="29">
+      <c r="A3" s="79" t="s">
         <v>857</v>
       </c>
-      <c r="F2" s="104">
-        <v>0</v>
-      </c>
-      <c r="G2" s="105"/>
-    </row>
-    <row r="3" spans="1:7" ht="29">
-      <c r="A3" s="83" t="s">
+      <c r="B3" s="102" t="s">
         <v>858</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="C3" s="102" t="s">
         <v>859</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="D3" s="79" t="s">
         <v>860</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="E3" s="99" t="s">
         <v>861</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="F3" s="100">
+        <v>1</v>
+      </c>
+      <c r="G3" s="101"/>
+    </row>
+    <row r="4" spans="1:7" ht="58">
+      <c r="A4" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="F3" s="104">
-        <v>1</v>
-      </c>
-      <c r="G3" s="105"/>
-    </row>
-    <row r="4" spans="1:7" ht="58">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="F4" s="100">
+        <v>2</v>
+      </c>
+      <c r="G4" s="101"/>
+    </row>
+    <row r="5" spans="1:7" ht="58">
+      <c r="A5" s="79" t="s">
         <v>866</v>
       </c>
-      <c r="F4" s="104">
-        <v>2</v>
-      </c>
-      <c r="G4" s="105"/>
-    </row>
-    <row r="5" spans="1:7" ht="58">
-      <c r="A5" s="83" t="s">
+      <c r="B5" s="102" t="s">
         <v>867</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="C5" s="102" t="s">
         <v>868</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="D5" s="79" t="s">
         <v>869</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="E5" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="F5" s="100">
+        <v>3</v>
+      </c>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="99" t="s">
         <v>871</v>
       </c>
-      <c r="F5" s="104">
-        <v>3</v>
-      </c>
-      <c r="G5" s="105"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="103" t="s">
+      <c r="F6" s="100">
+        <v>4</v>
+      </c>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="99" t="s">
         <v>872</v>
       </c>
-      <c r="F6" s="104">
-        <v>4</v>
-      </c>
-      <c r="G6" s="105"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="103" t="s">
+      <c r="F7" s="100">
+        <v>5</v>
+      </c>
+      <c r="G7" s="101"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="99" t="s">
         <v>873</v>
       </c>
-      <c r="F7" s="104">
-        <v>5</v>
-      </c>
-      <c r="G7" s="105"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="103" t="s">
+      <c r="F8" s="100">
+        <v>6</v>
+      </c>
+      <c r="G8" s="101"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="99" t="s">
         <v>874</v>
       </c>
-      <c r="F8" s="104">
-        <v>6</v>
-      </c>
-      <c r="G8" s="105"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="103" t="s">
+      <c r="F9" s="100">
+        <v>7</v>
+      </c>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:7" ht="29">
+      <c r="A10" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="F9" s="104">
-        <v>7</v>
-      </c>
-      <c r="G9" s="105"/>
-    </row>
-    <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="99" t="s">
         <v>879</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="F10" s="100">
+        <v>8</v>
+      </c>
+      <c r="G10" s="101"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="F10" s="104">
-        <v>8</v>
-      </c>
-      <c r="G10" s="105"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="99" t="s">
         <v>884</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="F11" s="100">
+        <v>9</v>
+      </c>
+      <c r="G11" s="101"/>
+    </row>
+    <row r="12" spans="1:7" ht="29">
+      <c r="A12" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="F11" s="104">
-        <v>9</v>
-      </c>
-      <c r="G11" s="105"/>
-    </row>
-    <row r="12" spans="1:7" ht="29">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="99" t="s">
         <v>889</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="F12" s="100">
+        <v>10</v>
+      </c>
+      <c r="G12" s="101"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.5">
+      <c r="A13" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="F12" s="104">
-        <v>10</v>
-      </c>
-      <c r="G12" s="105"/>
-    </row>
-    <row r="13" spans="1:7" ht="43.5">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="99" t="s">
         <v>894</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="F13" s="100">
+        <v>11</v>
+      </c>
+      <c r="G13" s="101"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="99" t="s">
         <v>895</v>
       </c>
-      <c r="F13" s="104">
-        <v>11</v>
-      </c>
-      <c r="G13" s="105"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="103" t="s">
+      <c r="F14" s="100">
+        <v>12</v>
+      </c>
+      <c r="G14" s="101"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="99" t="s">
         <v>896</v>
       </c>
-      <c r="F14" s="104">
-        <v>12</v>
-      </c>
-      <c r="G14" s="105"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="103" t="s">
+      <c r="F15" s="100">
+        <v>13</v>
+      </c>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27" t="s">
         <v>897</v>
       </c>
-      <c r="F15" s="104">
-        <v>13</v>
-      </c>
-      <c r="G15" s="105"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>899</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="D16" s="27" t="s">
         <v>900</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="99" t="s">
         <v>901</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="F16" s="100">
+        <v>14</v>
+      </c>
+      <c r="G16" s="101"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27" t="s">
         <v>902</v>
       </c>
-      <c r="F16" s="104">
-        <v>14</v>
-      </c>
-      <c r="G16" s="105"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>903</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
         <v>904</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31" t="s">
+      <c r="E17" s="99" t="s">
         <v>905</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="F17" s="100">
+        <v>15</v>
+      </c>
+      <c r="G17" s="101"/>
+    </row>
+    <row r="18" spans="1:7" ht="29">
+      <c r="A18" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>906</v>
       </c>
-      <c r="F17" s="104">
-        <v>15</v>
-      </c>
-      <c r="G17" s="105"/>
-    </row>
-    <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="B18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>907</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="D18" s="27" t="s">
         <v>908</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="E18" s="99" t="s">
         <v>909</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="F18" s="100">
+        <v>16</v>
+      </c>
+      <c r="G18" s="101"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="99" t="s">
         <v>910</v>
       </c>
-      <c r="F18" s="104">
-        <v>16</v>
-      </c>
-      <c r="G18" s="105"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="103" t="s">
+      <c r="F19" s="100">
+        <v>17</v>
+      </c>
+      <c r="G19" s="101"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="99" t="s">
         <v>911</v>
       </c>
-      <c r="F19" s="104">
-        <v>17</v>
-      </c>
-      <c r="G19" s="105"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="103" t="s">
+      <c r="F20" s="100">
+        <v>18</v>
+      </c>
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="99" t="s">
         <v>912</v>
       </c>
-      <c r="F20" s="104">
-        <v>18</v>
-      </c>
-      <c r="G20" s="105"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="103" t="s">
+      <c r="F21" s="100">
+        <v>19</v>
+      </c>
+      <c r="G21" s="101"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="99" t="s">
         <v>913</v>
       </c>
-      <c r="F21" s="104">
-        <v>19</v>
-      </c>
-      <c r="G21" s="105"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="103" t="s">
+      <c r="F22" s="100">
+        <v>20</v>
+      </c>
+      <c r="G22" s="101"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="G23" s="101"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A27" s="114" t="s">
         <v>914</v>
       </c>
-      <c r="F22" s="104">
-        <v>20</v>
-      </c>
-      <c r="G22" s="105"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="G23" s="105"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A28" s="113" t="s">
         <v>915</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A29" s="113" t="s">
         <v>916</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A30" s="113" t="s">
         <v>917</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1">
+      <c r="A31" s="113" t="s">
         <v>918</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A32" s="113" t="s">
         <v>919</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="113" t="s">
         <v>920</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -26880,92 +26873,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="B2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="58">
+      <c r="A3" s="27" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="58">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>924</v>
       </c>
-      <c r="B3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="43.5">
+      <c r="A4" s="27" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.5">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>927</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26981,33 +26974,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="85" style="107" customWidth="1"/>
-    <col min="2" max="2" width="109.81640625" style="107" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="32"/>
+    <col min="1" max="1" width="85" style="103" customWidth="1"/>
+    <col min="2" max="2" width="109.81640625" style="103" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="103" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5">
+      <c r="A2" s="70" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="74" t="s">
+      <c r="B2" s="103" t="s">
         <v>929</v>
       </c>
-      <c r="B2" s="107" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="116">
+      <c r="A3" s="70" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="116">
-      <c r="A3" s="74" t="s">
+      <c r="B3" s="103" t="s">
         <v>931</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -27029,84 +27022,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="B2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>935</v>
       </c>
-      <c r="B3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="29">
+      <c r="A4" s="24" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="B4" s="28" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="104" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="108" t="s">
+      <c r="B6" s="104" t="s">
         <v>939</v>
       </c>
-      <c r="B6" s="108" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="43.5">
+      <c r="A7" s="105" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.5">
-      <c r="A7" s="109" t="s">
+      <c r="B7" s="91" t="s">
         <v>941</v>
       </c>
-      <c r="B7" s="95" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="105" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="109" t="s">
+      <c r="B8" s="104" t="s">
         <v>943</v>
       </c>
-      <c r="B8" s="108" t="s">
-        <v>944</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27128,26 +27121,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1" t="s">
         <v>945</v>
-      </c>
-      <c r="B1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B2" t="s">
         <v>947</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="106" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="110" t="s">
+      <c r="B3" t="s">
         <v>949</v>
-      </c>
-      <c r="B3" t="s">
-        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -27168,146 +27161,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="55" t="s">
-        <v>951</v>
-      </c>
-      <c r="B1" s="55"/>
+      <c r="A1" s="51" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27323,179 +27316,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="43.36328125" style="111" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="111"/>
+    <col min="1" max="2" width="43.36328125" style="107" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="109" t="s">
+        <v>951</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>952</v>
       </c>
-      <c r="B2" s="114" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="56.5">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="56.5">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112" t="s">
-        <v>954</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="112"/>
-      <c r="B31" s="112"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="112"/>
-      <c r="B33" s="112"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="112"/>
-      <c r="B34" s="112"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="112"/>
-      <c r="B35" s="112"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="112"/>
-      <c r="B36" s="112"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="112"/>
-      <c r="B38" s="112"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -27522,310 +27515,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="18.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="1:2" ht="101.5">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="87">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="23"/>
     </row>
     <row r="20" spans="1:2" ht="72.5">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="23"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:2" ht="43.5">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="58">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27849,264 +27842,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="18.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="23"/>
     </row>
     <row r="17" spans="1:2" ht="29">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="111"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28128,86 +28121,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="5" customWidth="1"/>
-    <col min="4" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="27.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="58">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="29">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -28223,230 +28216,230 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="100.36328125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="52.90625" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="32"/>
+    <col min="1" max="1" width="100.36328125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="52.90625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="304.5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="159.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="87">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="130.5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="145">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="203">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="141.5">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="37" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28472,546 +28465,546 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="92.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="101.26953125" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="5"/>
+    <col min="1" max="1" width="92.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="101.26953125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="42" customFormat="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" s="38" customFormat="1">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="42" customFormat="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:2" s="38" customFormat="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.5">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="27" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="72.5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="27" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.5">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="43" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="58">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="116">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="27" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
     </row>
     <row r="28" spans="1:2" ht="58">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="44" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="87">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="27" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
     </row>
     <row r="36" spans="1:2" ht="87">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="27" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="87">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="27" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="116">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="27" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="45" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="27" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="27" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="27" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="27" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="27" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="27" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="58">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="27" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="47" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="27" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="58">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="27" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="27" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="29">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="27" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="27" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="27" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="27" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="27" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="27" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="27" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="159.5">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="27" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="72.5">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="27" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -29031,218 +29024,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="49"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="50" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="50" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="50" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="50" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="50" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="50" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -29263,189 +29256,189 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="86.54296875" style="56" customWidth="1"/>
-    <col min="3" max="1024" width="53.36328125" style="56"/>
+    <col min="1" max="2" width="86.54296875" style="52" customWidth="1"/>
+    <col min="3" max="1024" width="53.36328125" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="87">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2" ht="87">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="130.5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -42,7 +42,7 @@
     <sheet name="SAP" sheetId="28" r:id="rId28"/>
     <sheet name="Formats" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25470,7 +25470,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.6328125" defaultRowHeight="14.5"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -26371,7 +26371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5"/>
   <cols>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="960">
   <si>
     <r>
       <rPr>
@@ -21005,6 +21005,20 @@
       <t>(datetime.datetime.now())
 2009-01-06 15:08:24.789150</t>
     </r>
+  </si>
+  <si>
+    <t>import shutil
+shutil.rmtree('/path/to/your/dir/')</t>
+  </si>
+  <si>
+    <t>Рекурсивно удалить папки и их содержимое</t>
+  </si>
+  <si>
+    <t>for i, val in enumerate(seq, start=1):
+...     print(f'№ {i} =&gt; {val}')</t>
+  </si>
+  <si>
+    <t>Цикл по листу с извлечением индекса элемента и самого элемента</t>
   </si>
 </sst>
 </file>
@@ -21868,7 +21882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -22187,6 +22201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23771,10 +23788,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AMJ148"/>
+  <dimension ref="A1:AMJ149"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -23854,141 +23871,145 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="77" customFormat="1">
+    <row r="10" spans="1:2" s="77" customFormat="1" ht="29">
       <c r="A10" s="24" t="s">
-        <v>533</v>
+        <v>958</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>534</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="77" customFormat="1">
       <c r="A11" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="77" customFormat="1">
       <c r="A12" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="77" customFormat="1">
       <c r="A13" s="24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="77" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="77" customFormat="1">
       <c r="A15" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="77" customFormat="1">
+      <c r="A16" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B16" s="24" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="77" customFormat="1" ht="29">
-      <c r="A16" s="24" t="s">
+    <row r="17" spans="1:2" s="77" customFormat="1" ht="29">
+      <c r="A17" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B17" s="24" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="77" customFormat="1">
-      <c r="A17" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="77" customFormat="1">
       <c r="A18" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="77" customFormat="1">
+      <c r="A19" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B19" s="24" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="77" customFormat="1">
-      <c r="A19" s="24" t="s">
+    <row r="20" spans="1:2" s="77" customFormat="1">
+      <c r="A20" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B20" s="24" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="77" customFormat="1" ht="58">
-      <c r="A20" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="77" customFormat="1" ht="58">
       <c r="A21" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A22" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="77" customFormat="1">
-      <c r="A22" s="24" t="s">
+    <row r="23" spans="1:2" s="77" customFormat="1">
+      <c r="A23" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="77" customFormat="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-    </row>
-    <row r="24" spans="1:2" s="77" customFormat="1" ht="58">
-      <c r="A24" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>560</v>
-      </c>
+    <row r="24" spans="1:2" s="77" customFormat="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:2" s="77" customFormat="1" ht="58">
       <c r="A25" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A26" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B26" s="24" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="77" customFormat="1">
-      <c r="A26" s="53" t="s">
+    <row r="27" spans="1:2" s="77" customFormat="1">
+      <c r="A27" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B27" s="24" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" s="77" customFormat="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="1:2" s="77" customFormat="1">
       <c r="A28" s="24"/>
@@ -24003,455 +24024,455 @@
       <c r="B30" s="24"/>
     </row>
     <row r="31" spans="1:2" s="77" customFormat="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:2" s="77" customFormat="1">
+      <c r="A32" s="23"/>
+      <c r="B32" s="40" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="77" customFormat="1" ht="58">
-      <c r="A32" s="79" t="s">
+    <row r="33" spans="1:2" s="77" customFormat="1" ht="58">
+      <c r="A33" s="79" t="s">
         <v>566</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B33" s="79" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="77" customFormat="1" ht="29">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:2" s="77" customFormat="1" ht="29">
+      <c r="A34" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B34" s="80" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="77" customFormat="1">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" s="77" customFormat="1">
+      <c r="A35" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B35" s="80" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="77" customFormat="1">
-      <c r="A35" s="80" t="s">
-        <v>572</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="77" customFormat="1">
       <c r="A36" s="80" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="77" customFormat="1">
       <c r="A37" s="80" t="s">
+        <v>574</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="77" customFormat="1">
+      <c r="A38" s="80" t="s">
         <v>576</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B38" s="80" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B39" s="81" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="29">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:2" ht="29">
+      <c r="A40" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>581</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B45" s="27" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="29">
-      <c r="A45" s="27" t="s">
+    <row r="46" spans="1:2" ht="29">
+      <c r="A46" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B46" s="43" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="27" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B47" s="25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="43.5">
-      <c r="A47" s="27" t="s">
+    <row r="48" spans="1:2" ht="43.5">
+      <c r="A48" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B48" s="21" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="25"/>
-    </row>
-    <row r="49" spans="1:2" ht="29">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="25"/>
+    </row>
+    <row r="50" spans="1:2" ht="29">
+      <c r="A50" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B50" s="27" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-    </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B52" s="27" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="87">
-      <c r="A52" s="27" t="s">
+    <row r="53" spans="1:2" ht="87">
+      <c r="A53" s="27" t="s">
         <v>602</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B53" s="27" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="43.5">
-      <c r="A53" s="27" t="s">
+    <row r="54" spans="1:2" ht="43.5">
+      <c r="A54" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B54" s="27" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="29">
-      <c r="A54" s="27" t="s">
+    <row r="55" spans="1:2" ht="29">
+      <c r="A55" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B55" s="27" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="29">
-      <c r="A56" s="64" t="s">
+    <row r="57" spans="1:2" ht="29">
+      <c r="A57" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B57" s="27" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="27" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B58" s="27" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-    </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="73" t="s">
         <v>611</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B60" s="73" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="58">
-      <c r="A60" s="27" t="s">
+    <row r="61" spans="1:2" ht="58">
+      <c r="A61" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="B60" s="27"/>
-    </row>
-    <row r="61" spans="1:2" ht="43.5">
-      <c r="A61" s="82" t="s">
+      <c r="B61" s="27"/>
+    </row>
+    <row r="62" spans="1:2" ht="43.5">
+      <c r="A62" s="82" t="s">
         <v>614</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B62" s="27" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="87">
-      <c r="A62" s="82" t="s">
+    <row r="63" spans="1:2" ht="87">
+      <c r="A63" s="82" t="s">
         <v>616</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B63" s="27" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="70">
-      <c r="A63" s="83" t="s">
+    <row r="64" spans="1:2" ht="70">
+      <c r="A64" s="83" t="s">
         <v>618</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B64" s="27" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="159.5">
-      <c r="A64" s="27" t="s">
+    <row r="65" spans="1:2" ht="159.5">
+      <c r="A65" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B65" s="27" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="203">
-      <c r="A65" s="82" t="s">
+    <row r="66" spans="1:2" ht="203">
+      <c r="A66" s="82" t="s">
         <v>622</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B66" s="27" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-    </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B68" s="73" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="87">
-      <c r="A68" s="27" t="s">
-        <v>626</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="87">
       <c r="A69" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="87">
+      <c r="A70" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B70" s="27" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
     </row>
-    <row r="72" spans="1:2" ht="29">
-      <c r="A72" s="73" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+    </row>
+    <row r="73" spans="1:2" ht="29">
+      <c r="A73" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B73" s="73" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="43.5">
-      <c r="A73" s="74" t="s">
+    <row r="74" spans="1:2" ht="43.5">
+      <c r="A74" s="74" t="s">
         <v>632</v>
       </c>
-      <c r="B73" s="27"/>
-    </row>
-    <row r="74" spans="1:2" ht="29">
-      <c r="A74" s="27" t="s">
+      <c r="B74" s="27"/>
+    </row>
+    <row r="75" spans="1:2" ht="29">
+      <c r="A75" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B75" s="27" t="s">
         <v>634</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="72.5">
-      <c r="A75" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="72.5">
       <c r="A76" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="72.5">
+      <c r="A77" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B77" s="27" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="43.5">
-      <c r="A77" s="84" t="s">
+    <row r="78" spans="1:2" ht="43.5">
+      <c r="A78" s="84" t="s">
         <v>639</v>
       </c>
-      <c r="B77" s="84" t="s">
+      <c r="B78" s="84" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="73" t="s">
         <v>641</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B81" s="73" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="116">
-      <c r="A81" s="27" t="s">
+    <row r="82" spans="1:2" ht="116">
+      <c r="A82" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B82" s="27" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.5">
-      <c r="A82" s="27" t="s">
+    <row r="83" spans="1:2" ht="43.5">
+      <c r="A83" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B83" s="27" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-    </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="73" t="s">
         <v>647</v>
       </c>
-      <c r="B84" s="73" t="s">
+      <c r="B85" s="73" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="43.5">
-      <c r="A85" s="74" t="s">
+    <row r="86" spans="1:2" ht="43.5">
+      <c r="A86" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B86" s="27" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="72.5">
-      <c r="A86" s="27" t="s">
+    <row r="87" spans="1:2" ht="72.5">
+      <c r="A87" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B87" s="27" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="43.5">
-      <c r="A87" s="27" t="s">
+    <row r="88" spans="1:2" ht="43.5">
+      <c r="A88" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B88" s="27" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="73" t="s">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="73" t="s">
         <v>655</v>
       </c>
-      <c r="B90" s="73" t="s">
+      <c r="B91" s="73" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="87">
-      <c r="A91" s="27" t="s">
+    <row r="92" spans="1:2" ht="87">
+      <c r="A92" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="B91" s="27"/>
-    </row>
-    <row r="92" spans="1:2" ht="46.4" customHeight="1">
-      <c r="A92" s="27" t="s">
+      <c r="B92" s="27"/>
+    </row>
+    <row r="93" spans="1:2" ht="46.4" customHeight="1">
+      <c r="A93" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="B92" s="112" t="s">
+      <c r="B93" s="113" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="49.75" customHeight="1">
-      <c r="A93" s="27" t="s">
+    <row r="94" spans="1:2" ht="49.75" customHeight="1">
+      <c r="A94" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="B93" s="112"/>
-    </row>
-    <row r="94" spans="1:2" ht="43.5">
-      <c r="A94" s="27" t="s">
+      <c r="B94" s="113"/>
+    </row>
+    <row r="95" spans="1:2" ht="43.5">
+      <c r="A95" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="B94" s="27"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="27"/>
       <c r="B95" s="27"/>
     </row>
     <row r="96" spans="1:2">
@@ -24459,44 +24480,44 @@
       <c r="B96" s="27"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="73" t="s">
         <v>662</v>
       </c>
-      <c r="B97" s="73" t="s">
+      <c r="B98" s="73" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="87">
-      <c r="A98" s="27" t="s">
+    <row r="99" spans="1:2" ht="87">
+      <c r="A99" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="B98" s="27"/>
-    </row>
-    <row r="99" spans="1:2" ht="101.5">
-      <c r="A99" s="74" t="s">
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="1:2" ht="101.5">
+      <c r="A100" s="74" t="s">
         <v>665</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B100" s="27" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="72.5">
-      <c r="A100" s="27" t="s">
+    <row r="101" spans="1:2" ht="72.5">
+      <c r="A101" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="B100" s="27"/>
-    </row>
-    <row r="101" spans="1:2" ht="29">
-      <c r="A101" s="27" t="s">
+      <c r="B101" s="27"/>
+    </row>
+    <row r="102" spans="1:2" ht="29">
+      <c r="A102" s="27" t="s">
         <v>668</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B102" s="27" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="27"/>
@@ -24511,148 +24532,148 @@
       <c r="B105" s="27"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="73" t="s">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="73" t="s">
         <v>670</v>
       </c>
-      <c r="B106" s="73" t="s">
+      <c r="B107" s="73" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="74" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="74" t="s">
         <v>672</v>
       </c>
-      <c r="B107" s="27"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="60" t="s">
+      <c r="B108" s="27"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="60" t="s">
         <v>673</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B109" s="27" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="58">
-      <c r="A109" s="27" t="s">
+    <row r="110" spans="1:2" ht="58">
+      <c r="A110" s="27" t="s">
         <v>675</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B110" s="27" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="29">
-      <c r="A110" s="27" t="s">
+    <row r="111" spans="1:2" ht="29">
+      <c r="A111" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B111" s="27" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="27" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="27" t="s">
         <v>679</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B112" s="27" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="58">
-      <c r="A112" s="27" t="s">
+    <row r="113" spans="1:2" ht="58">
+      <c r="A113" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B113" s="27" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-    </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="73" t="s">
         <v>683</v>
       </c>
-      <c r="B114" s="73" t="s">
+      <c r="B115" s="73" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="188.5">
-      <c r="A115" s="74" t="s">
+    <row r="116" spans="1:2" ht="188.5">
+      <c r="A116" s="74" t="s">
         <v>685</v>
       </c>
-      <c r="B115" s="27"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="27" t="s">
+      <c r="B116" s="27"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B117" s="30" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="232">
-      <c r="A117" s="74" t="s">
+    <row r="118" spans="1:2" ht="232">
+      <c r="A118" s="74" t="s">
         <v>688</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B118" s="30" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
-    </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="73" t="s">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="B119" s="73" t="s">
+      <c r="B120" s="73" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="261">
-      <c r="A120" s="27" t="s">
+    <row r="121" spans="1:2" ht="261">
+      <c r="A121" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B121" s="27" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29">
-      <c r="A121" s="73" t="s">
+    <row r="122" spans="1:2" ht="29">
+      <c r="A122" s="73" t="s">
         <v>694</v>
       </c>
-      <c r="B121" s="73" t="s">
+      <c r="B122" s="73" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="304.5">
-      <c r="A122" s="74" t="s">
+    <row r="123" spans="1:2" ht="304.5">
+      <c r="A123" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B123" s="27" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="87">
-      <c r="A123" s="27" t="s">
+    <row r="124" spans="1:2" ht="87">
+      <c r="A124" s="27" t="s">
         <v>698</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B124" s="27" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="116">
-      <c r="A124" s="27" t="s">
+    <row r="125" spans="1:2" ht="116">
+      <c r="A125" s="27" t="s">
         <v>700</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B125" s="27" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="27"/>
@@ -24746,9 +24767,13 @@
       <c r="A148" s="27"/>
       <c r="B148" s="27"/>
     </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B93:B94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -25211,9 +25236,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
@@ -25302,112 +25329,116 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
-      <c r="A11" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>753</v>
+      <c r="A11" s="24" t="s">
+        <v>956</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="27" t="s">
         <v>754</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B13" s="27" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.5">
-      <c r="A13" s="27" t="s">
+    <row r="14" spans="1:2" ht="43.5">
+      <c r="A14" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B14" s="27" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:2" ht="29">
+      <c r="A15" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B15" s="27" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="27" t="s">
+    <row r="16" spans="1:2" ht="43.5">
+      <c r="A16" s="27" t="s">
         <v>760</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B16" s="43" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="58">
-      <c r="A16" s="27" t="s">
+    <row r="17" spans="1:2" ht="58">
+      <c r="A17" s="27" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B17" s="27" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60" customHeight="1">
-      <c r="A17" s="27" t="s">
+    <row r="18" spans="1:2" ht="60" customHeight="1">
+      <c r="A18" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B18" s="113" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="89" t="s">
-        <v>766</v>
-      </c>
-      <c r="B18" s="112"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="89" t="s">
-        <v>767</v>
-      </c>
-      <c r="B19" s="112"/>
+        <v>766</v>
+      </c>
+      <c r="B19" s="113"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="89" t="s">
-        <v>768</v>
-      </c>
-      <c r="B20" s="112"/>
+        <v>767</v>
+      </c>
+      <c r="B20" s="113"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="89" t="s">
-        <v>769</v>
-      </c>
-      <c r="B21" s="112"/>
+        <v>768</v>
+      </c>
+      <c r="B21" s="113"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="89" t="s">
-        <v>770</v>
-      </c>
-      <c r="B22" s="112"/>
+        <v>769</v>
+      </c>
+      <c r="B22" s="113"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="89" t="s">
+        <v>770</v>
+      </c>
+      <c r="B23" s="113"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="89" t="s">
         <v>771</v>
       </c>
-      <c r="B23" s="112"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-    </row>
-    <row r="25" spans="1:2" ht="29">
-      <c r="A25" s="27" t="s">
+      <c r="B24" s="113"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:2" ht="29">
+      <c r="A26" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B26" s="27" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="27"/>
@@ -25453,9 +25484,13 @@
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B18:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -25469,7 +25504,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -26793,59 +26828,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="115" t="s">
         <v>914</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="114" t="s">
         <v>915</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="114" t="s">
         <v>916</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="114" t="s">
         <v>917</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="114" t="s">
         <v>918</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="114" t="s">
         <v>919</v>
       </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>920</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -27970,10 +28005,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="112"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,20 @@
     <sheet name="excel" sheetId="7" r:id="rId7"/>
     <sheet name="FastTyping" sheetId="8" r:id="rId8"/>
     <sheet name="basics" sheetId="9" r:id="rId9"/>
-    <sheet name="Clev_funcs" sheetId="10" r:id="rId10"/>
-    <sheet name="int, float, decimal" sheetId="11" r:id="rId11"/>
-    <sheet name="Strings" sheetId="12" r:id="rId12"/>
-    <sheet name="reg_exp" sheetId="13" r:id="rId13"/>
-    <sheet name="List, Dict" sheetId="14" r:id="rId14"/>
-    <sheet name="ООП" sheetId="15" r:id="rId15"/>
-    <sheet name="Set(Множ-во)" sheetId="16" r:id="rId16"/>
-    <sheet name="Generator" sheetId="17" r:id="rId17"/>
-    <sheet name="os, shutil" sheetId="18" r:id="rId18"/>
-    <sheet name="datetime" sheetId="19" r:id="rId19"/>
-    <sheet name="word" sheetId="20" r:id="rId20"/>
-    <sheet name="pipes" sheetId="21" r:id="rId21"/>
-    <sheet name="pip, venv, import" sheetId="22" r:id="rId22"/>
-    <sheet name="Побит и атомарность" sheetId="23" r:id="rId23"/>
+    <sheet name="Побит и атомарность" sheetId="23" r:id="rId10"/>
+    <sheet name="Clev_funcs" sheetId="10" r:id="rId11"/>
+    <sheet name="int, float, decimal" sheetId="11" r:id="rId12"/>
+    <sheet name="Strings" sheetId="12" r:id="rId13"/>
+    <sheet name="reg_exp" sheetId="13" r:id="rId14"/>
+    <sheet name="List, Dict" sheetId="14" r:id="rId15"/>
+    <sheet name="ООП" sheetId="15" r:id="rId16"/>
+    <sheet name="Set(Множ-во)" sheetId="16" r:id="rId17"/>
+    <sheet name="Generator" sheetId="17" r:id="rId18"/>
+    <sheet name="os, shutil" sheetId="18" r:id="rId19"/>
+    <sheet name="datetime" sheetId="19" r:id="rId20"/>
+    <sheet name="word" sheetId="20" r:id="rId21"/>
+    <sheet name="pipes" sheetId="21" r:id="rId22"/>
+    <sheet name="pip, venv, import" sheetId="22" r:id="rId23"/>
     <sheet name="if" sheetId="24" r:id="rId24"/>
     <sheet name="with" sheetId="25" r:id="rId25"/>
     <sheet name="Threads" sheetId="26" r:id="rId26"/>
@@ -22208,14 +22208,14 @@
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22747,6 +22747,502 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" style="1"/>
+    <col min="2" max="2" width="25.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="1"/>
+    <col min="6" max="6" width="16.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="21.26953125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="97" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>848</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>849</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>850</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5">
+      <c r="A2" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>856</v>
+      </c>
+      <c r="F2" s="100">
+        <v>0</v>
+      </c>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="1:7" ht="29">
+      <c r="A3" s="79" t="s">
+        <v>857</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>858</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>859</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>860</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>861</v>
+      </c>
+      <c r="F3" s="100">
+        <v>1</v>
+      </c>
+      <c r="G3" s="101"/>
+    </row>
+    <row r="4" spans="1:7" ht="58">
+      <c r="A4" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>865</v>
+      </c>
+      <c r="F4" s="100">
+        <v>2</v>
+      </c>
+      <c r="G4" s="101"/>
+    </row>
+    <row r="5" spans="1:7" ht="58">
+      <c r="A5" s="79" t="s">
+        <v>866</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>867</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>868</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>869</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>870</v>
+      </c>
+      <c r="F5" s="100">
+        <v>3</v>
+      </c>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="99" t="s">
+        <v>871</v>
+      </c>
+      <c r="F6" s="100">
+        <v>4</v>
+      </c>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="99" t="s">
+        <v>872</v>
+      </c>
+      <c r="F7" s="100">
+        <v>5</v>
+      </c>
+      <c r="G7" s="101"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="99" t="s">
+        <v>873</v>
+      </c>
+      <c r="F8" s="100">
+        <v>6</v>
+      </c>
+      <c r="G8" s="101"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="99" t="s">
+        <v>874</v>
+      </c>
+      <c r="F9" s="100">
+        <v>7</v>
+      </c>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:7" ht="29">
+      <c r="A10" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>879</v>
+      </c>
+      <c r="F10" s="100">
+        <v>8</v>
+      </c>
+      <c r="G10" s="101"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>884</v>
+      </c>
+      <c r="F11" s="100">
+        <v>9</v>
+      </c>
+      <c r="G11" s="101"/>
+    </row>
+    <row r="12" spans="1:7" ht="29">
+      <c r="A12" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>889</v>
+      </c>
+      <c r="F12" s="100">
+        <v>10</v>
+      </c>
+      <c r="G12" s="101"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.5">
+      <c r="A13" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>894</v>
+      </c>
+      <c r="F13" s="100">
+        <v>11</v>
+      </c>
+      <c r="G13" s="101"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="99" t="s">
+        <v>895</v>
+      </c>
+      <c r="F14" s="100">
+        <v>12</v>
+      </c>
+      <c r="G14" s="101"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="99" t="s">
+        <v>896</v>
+      </c>
+      <c r="F15" s="100">
+        <v>13</v>
+      </c>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>899</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>901</v>
+      </c>
+      <c r="F16" s="100">
+        <v>14</v>
+      </c>
+      <c r="G16" s="101"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27" t="s">
+        <v>902</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>905</v>
+      </c>
+      <c r="F17" s="100">
+        <v>15</v>
+      </c>
+      <c r="G17" s="101"/>
+    </row>
+    <row r="18" spans="1:7" ht="29">
+      <c r="A18" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="E18" s="99" t="s">
+        <v>909</v>
+      </c>
+      <c r="F18" s="100">
+        <v>16</v>
+      </c>
+      <c r="G18" s="101"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="99" t="s">
+        <v>910</v>
+      </c>
+      <c r="F19" s="100">
+        <v>17</v>
+      </c>
+      <c r="G19" s="101"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="99" t="s">
+        <v>911</v>
+      </c>
+      <c r="F20" s="100">
+        <v>18</v>
+      </c>
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="99" t="s">
+        <v>912</v>
+      </c>
+      <c r="F21" s="100">
+        <v>19</v>
+      </c>
+      <c r="G21" s="101"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="99" t="s">
+        <v>913</v>
+      </c>
+      <c r="F22" s="100">
+        <v>20</v>
+      </c>
+      <c r="G22" s="101"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="G23" s="101"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A27" s="114" t="s">
+        <v>914</v>
+      </c>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A28" s="113" t="s">
+        <v>915</v>
+      </c>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A29" s="113" t="s">
+        <v>916</v>
+      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A30" s="113" t="s">
+        <v>917</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1">
+      <c r="A31" s="113" t="s">
+        <v>918</v>
+      </c>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A32" s="113" t="s">
+        <v>919</v>
+      </c>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="113" t="s">
+        <v>920</v>
+      </c>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -22965,7 +23461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -23057,7 +23553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF33691E"/>
@@ -23412,7 +23908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFB2FF59"/>
@@ -23783,15 +24279,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:AMJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -24459,7 +24955,7 @@
       <c r="A93" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="B93" s="113" t="s">
+      <c r="B93" s="115" t="s">
         <v>659</v>
       </c>
     </row>
@@ -24467,7 +24963,7 @@
       <c r="A94" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="B94" s="113"/>
+      <c r="B94" s="115"/>
     </row>
     <row r="95" spans="1:2" ht="43.5">
       <c r="A95" s="27" t="s">
@@ -24780,7 +25276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFD740"/>
@@ -24979,7 +25475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -25157,7 +25653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -25231,7 +25727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -25388,7 +25884,7 @@
       <c r="A18" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="115" t="s">
         <v>765</v>
       </c>
     </row>
@@ -25396,37 +25892,37 @@
       <c r="A19" s="89" t="s">
         <v>766</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="89" t="s">
         <v>767</v>
       </c>
-      <c r="B20" s="113"/>
+      <c r="B20" s="115"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="89" t="s">
         <v>768</v>
       </c>
-      <c r="B21" s="113"/>
+      <c r="B21" s="115"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="89" t="s">
         <v>769</v>
       </c>
-      <c r="B22" s="113"/>
+      <c r="B22" s="115"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="89" t="s">
         <v>770</v>
       </c>
-      <c r="B23" s="113"/>
+      <c r="B23" s="115"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="89" t="s">
         <v>771</v>
       </c>
-      <c r="B24" s="113"/>
+      <c r="B24" s="115"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -25492,173 +25988,6 @@
   <mergeCells count="1">
     <mergeCell ref="B18:B24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="51.6328125" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="62.7265625" customWidth="1"/>
-    <col min="2" max="2" width="68.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="70" t="s">
-        <v>774</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="21"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="60" t="s">
-        <v>778</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="101.5">
-      <c r="A6" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.5">
-      <c r="A7" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="58">
-      <c r="A8" s="27" t="s">
-        <v>955</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-    </row>
-    <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.5">
-      <c r="A13" s="24" t="s">
-        <v>791</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="89.25" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29">
-      <c r="A17" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -25965,6 +26294,173 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="51.6328125" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="62.7265625" customWidth="1"/>
+    <col min="2" max="2" width="68.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5">
+      <c r="A2" s="70" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="70"/>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="60" t="s">
+        <v>776</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="60" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="101.5">
+      <c r="A6" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5">
+      <c r="A7" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58">
+      <c r="A8" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.5">
+      <c r="A13" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="89.25" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29">
+      <c r="A17" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
@@ -26088,7 +26584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -26169,7 +26665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
@@ -26397,502 +26893,6 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="21.26953125" style="1"/>
-    <col min="2" max="2" width="25.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="1"/>
-    <col min="6" max="6" width="16.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
-    <col min="8" max="1024" width="21.26953125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="97" t="s">
-        <v>847</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>848</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>849</v>
-      </c>
-      <c r="E1" s="98" t="s">
-        <v>850</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.5">
-      <c r="A2" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="E2" s="99" t="s">
-        <v>856</v>
-      </c>
-      <c r="F2" s="100">
-        <v>0</v>
-      </c>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="3" spans="1:7" ht="29">
-      <c r="A3" s="79" t="s">
-        <v>857</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>858</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>859</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>860</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>861</v>
-      </c>
-      <c r="F3" s="100">
-        <v>1</v>
-      </c>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="4" spans="1:7" ht="58">
-      <c r="A4" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>865</v>
-      </c>
-      <c r="F4" s="100">
-        <v>2</v>
-      </c>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:7" ht="58">
-      <c r="A5" s="79" t="s">
-        <v>866</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>867</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>868</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>869</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>870</v>
-      </c>
-      <c r="F5" s="100">
-        <v>3</v>
-      </c>
-      <c r="G5" s="101"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="99" t="s">
-        <v>871</v>
-      </c>
-      <c r="F6" s="100">
-        <v>4</v>
-      </c>
-      <c r="G6" s="101"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="99" t="s">
-        <v>872</v>
-      </c>
-      <c r="F7" s="100">
-        <v>5</v>
-      </c>
-      <c r="G7" s="101"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="99" t="s">
-        <v>873</v>
-      </c>
-      <c r="F8" s="100">
-        <v>6</v>
-      </c>
-      <c r="G8" s="101"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="99" t="s">
-        <v>874</v>
-      </c>
-      <c r="F9" s="100">
-        <v>7</v>
-      </c>
-      <c r="G9" s="101"/>
-    </row>
-    <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>879</v>
-      </c>
-      <c r="F10" s="100">
-        <v>8</v>
-      </c>
-      <c r="G10" s="101"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>884</v>
-      </c>
-      <c r="F11" s="100">
-        <v>9</v>
-      </c>
-      <c r="G11" s="101"/>
-    </row>
-    <row r="12" spans="1:7" ht="29">
-      <c r="A12" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>889</v>
-      </c>
-      <c r="F12" s="100">
-        <v>10</v>
-      </c>
-      <c r="G12" s="101"/>
-    </row>
-    <row r="13" spans="1:7" ht="43.5">
-      <c r="A13" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>894</v>
-      </c>
-      <c r="F13" s="100">
-        <v>11</v>
-      </c>
-      <c r="G13" s="101"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="99" t="s">
-        <v>895</v>
-      </c>
-      <c r="F14" s="100">
-        <v>12</v>
-      </c>
-      <c r="G14" s="101"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="99" t="s">
-        <v>896</v>
-      </c>
-      <c r="F15" s="100">
-        <v>13</v>
-      </c>
-      <c r="G15" s="101"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="27" t="s">
-        <v>897</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>898</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>899</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>901</v>
-      </c>
-      <c r="F16" s="100">
-        <v>14</v>
-      </c>
-      <c r="G16" s="101"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="27" t="s">
-        <v>902</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
-        <v>904</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>905</v>
-      </c>
-      <c r="F17" s="100">
-        <v>15</v>
-      </c>
-      <c r="G17" s="101"/>
-    </row>
-    <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>906</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>907</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>908</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>909</v>
-      </c>
-      <c r="F18" s="100">
-        <v>16</v>
-      </c>
-      <c r="G18" s="101"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="99" t="s">
-        <v>910</v>
-      </c>
-      <c r="F19" s="100">
-        <v>17</v>
-      </c>
-      <c r="G19" s="101"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="99" t="s">
-        <v>911</v>
-      </c>
-      <c r="F20" s="100">
-        <v>18</v>
-      </c>
-      <c r="G20" s="101"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="99" t="s">
-        <v>912</v>
-      </c>
-      <c r="F21" s="100">
-        <v>19</v>
-      </c>
-      <c r="G21" s="101"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="99" t="s">
-        <v>913</v>
-      </c>
-      <c r="F22" s="100">
-        <v>20</v>
-      </c>
-      <c r="G22" s="101"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="G23" s="101"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="115" t="s">
-        <v>914</v>
-      </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="114" t="s">
-        <v>915</v>
-      </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="114" t="s">
-        <v>916</v>
-      </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="114" t="s">
-        <v>917</v>
-      </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="114" t="s">
-        <v>918</v>
-      </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="114" t="s">
-        <v>919</v>
-      </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="114" t="s">
-        <v>920</v>
-      </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -29287,7 +29287,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="962">
   <si>
     <r>
       <rPr>
@@ -21019,6 +21019,12 @@
   </si>
   <si>
     <t>Цикл по листу с извлечением индекса элемента и самого элемента</t>
+  </si>
+  <si>
+    <t>min(a,b, key=len)</t>
+  </si>
+  <si>
+    <t>Выбрать более короткий лист. Выбрать лист с меньшим количеством элементов</t>
   </si>
 </sst>
 </file>
@@ -24286,8 +24292,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -24512,8 +24518,12 @@
       <c r="B28" s="24"/>
     </row>
     <row r="29" spans="1:2" s="77" customFormat="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="30" spans="1:2" s="77" customFormat="1">
       <c r="A30" s="24"/>
@@ -26669,8 +26679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -29287,8 +29297,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="966">
   <si>
     <r>
       <rPr>
@@ -19381,78 +19381,6 @@
     <t>Текущее дата/время</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>datetime_object = datetime.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF2A6099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>strptime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF468A1A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Jun 1 2005  1:33PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF468A1A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>%b %d %Y %I:%M%p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>')</t>
-    </r>
-  </si>
-  <si>
     <t>Перевести в datetime стрингу с датой в любом формате</t>
   </si>
   <si>
@@ -21025,6 +20953,85 @@
   </si>
   <si>
     <t>Выбрать более короткий лист. Выбрать лист с меньшим количеством элементов</t>
+  </si>
+  <si>
+    <r>
+      <t>datetime_object = datetime.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>strptime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF468A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Jun 1 2005  1:33PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF468A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>%b %d %Y %I:%M%p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <t>Заполняем переменные приложения из файла config классом Config</t>
+  </si>
+  <si>
+    <t>from config import Config
+app.config.from_object(Config)</t>
+  </si>
+  <si>
+    <t>Считываем переменные окружения в работающем приложении</t>
+  </si>
+  <si>
+    <t>from flask import current_app
+current_app.config['SQLALCHEMY_DATABASE_URI']</t>
   </si>
 </sst>
 </file>
@@ -22576,8 +22583,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -22665,13 +22672,21 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="14" spans="1:2" ht="43.5">
+      <c r="A14" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.5">
+      <c r="A15" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2"/>
@@ -22773,39 +22788,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="97" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>847</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>848</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>146</v>
       </c>
       <c r="D1" s="97" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1" s="98" t="s">
         <v>849</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="F1" s="98" t="s">
         <v>850</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="99" t="s">
         <v>855</v>
-      </c>
-      <c r="E2" s="99" t="s">
-        <v>856</v>
       </c>
       <c r="F2" s="100">
         <v>0</v>
@@ -22814,19 +22829,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="79" t="s">
+        <v>856</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>857</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="C3" s="102" t="s">
         <v>858</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="D3" s="79" t="s">
         <v>859</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="E3" s="99" t="s">
         <v>860</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>861</v>
       </c>
       <c r="F3" s="100">
         <v>1</v>
@@ -22835,19 +22850,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="99" t="s">
         <v>864</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>865</v>
       </c>
       <c r="F4" s="100">
         <v>2</v>
@@ -22856,19 +22871,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="79" t="s">
+        <v>865</v>
+      </c>
+      <c r="B5" s="102" t="s">
         <v>866</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="C5" s="102" t="s">
         <v>867</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="D5" s="79" t="s">
         <v>868</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="E5" s="99" t="s">
         <v>869</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>870</v>
       </c>
       <c r="F5" s="100">
         <v>3</v>
@@ -22881,7 +22896,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="99" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F6" s="100">
         <v>4</v>
@@ -22894,7 +22909,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="99" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F7" s="100">
         <v>5</v>
@@ -22907,7 +22922,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="99" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F8" s="100">
         <v>6</v>
@@ -22920,7 +22935,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="99" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F9" s="100">
         <v>7</v>
@@ -22929,19 +22944,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="99" t="s">
         <v>878</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>879</v>
       </c>
       <c r="F10" s="100">
         <v>8</v>
@@ -22950,19 +22965,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="99" t="s">
         <v>883</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>884</v>
       </c>
       <c r="F11" s="100">
         <v>9</v>
@@ -22971,19 +22986,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="99" t="s">
         <v>888</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>889</v>
       </c>
       <c r="F12" s="100">
         <v>10</v>
@@ -22992,19 +23007,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="99" t="s">
         <v>893</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>894</v>
       </c>
       <c r="F13" s="100">
         <v>11</v>
@@ -23017,7 +23032,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="99" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F14" s="100">
         <v>12</v>
@@ -23030,7 +23045,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="99" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F15" s="100">
         <v>13</v>
@@ -23039,19 +23054,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
+        <v>896</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>897</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>899</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="99" t="s">
         <v>900</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>901</v>
       </c>
       <c r="F16" s="100">
         <v>14</v>
@@ -23060,17 +23075,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>902</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>903</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="E17" s="99" t="s">
         <v>904</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>905</v>
       </c>
       <c r="F17" s="100">
         <v>15</v>
@@ -23082,16 +23097,16 @@
         <v>396</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>906</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>907</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="99" t="s">
         <v>908</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>909</v>
       </c>
       <c r="F18" s="100">
         <v>16</v>
@@ -23104,7 +23119,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="99" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F19" s="100">
         <v>17</v>
@@ -23116,7 +23131,7 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="99" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F20" s="100">
         <v>18</v>
@@ -23129,7 +23144,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="99" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F21" s="100">
         <v>19</v>
@@ -23142,7 +23157,7 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="99" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F22" s="100">
         <v>20</v>
@@ -23178,7 +23193,7 @@
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B27" s="114"/>
       <c r="C27" s="114"/>
@@ -23186,7 +23201,7 @@
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
       <c r="A28" s="113" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B28" s="113"/>
       <c r="C28" s="113"/>
@@ -23194,7 +23209,7 @@
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
       <c r="A29" s="113" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="113"/>
@@ -23202,7 +23217,7 @@
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
       <c r="A30" s="113" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B30" s="113"/>
       <c r="C30" s="113"/>
@@ -23210,7 +23225,7 @@
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
       <c r="A31" s="113" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>
@@ -23218,7 +23233,7 @@
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
       <c r="A32" s="113" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B32" s="113"/>
       <c r="C32" s="113"/>
@@ -23226,7 +23241,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
       <c r="A33" s="113" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B33" s="113"/>
       <c r="C33" s="113"/>
@@ -24292,8 +24307,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -24375,10 +24390,10 @@
     </row>
     <row r="10" spans="1:2" s="77" customFormat="1" ht="29">
       <c r="A10" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>958</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="77" customFormat="1">
@@ -24519,10 +24534,10 @@
     </row>
     <row r="29" spans="1:2" s="77" customFormat="1">
       <c r="A29" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>960</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="77" customFormat="1">
@@ -25836,10 +25851,10 @@
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="B11" s="111" t="s">
         <v>956</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
@@ -26310,7 +26325,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.6328125" defaultRowHeight="14.5"/>
@@ -26373,7 +26388,7 @@
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>784</v>
@@ -26385,74 +26400,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>785</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>787</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>789</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>791</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>793</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>795</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>797</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>799</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>801</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -26494,10 +26509,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>803</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -26514,7 +26529,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B7" s="40"/>
     </row>
@@ -26532,15 +26547,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>806</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B12" s="27"/>
     </row>
@@ -26615,13 +26630,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="91" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B2" s="92"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="57" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B3" s="57"/>
     </row>
@@ -26699,78 +26714,78 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="93" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B2" s="94"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>812</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>814</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="58">
       <c r="A6" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>817</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>819</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>821</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>823</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>825</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="95" t="s">
+        <v>826</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>827</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -26783,56 +26798,56 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="96" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B14" s="94"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>830</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>832</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>834</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>836</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>838</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>840</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -26841,30 +26856,30 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>843</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5">
       <c r="A24" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>845</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -26929,26 +26944,26 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>921</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="27" t="s">
+        <v>922</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>923</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="27" t="s">
+        <v>924</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>925</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27031,23 +27046,23 @@
         <v>183</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="70" t="s">
+        <v>927</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>928</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="B3" s="103" t="s">
         <v>930</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -27078,26 +27093,26 @@
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>932</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>934</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>936</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27106,26 +27121,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="104" t="s">
+        <v>937</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>938</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="105" t="s">
+        <v>939</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>940</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="105" t="s">
+        <v>941</v>
+      </c>
+      <c r="B8" s="104" t="s">
         <v>942</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -27168,26 +27183,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" t="s">
         <v>944</v>
-      </c>
-      <c r="B1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2" t="s">
         <v>946</v>
-      </c>
-      <c r="B2" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="106" t="s">
+        <v>947</v>
+      </c>
+      <c r="B3" t="s">
         <v>948</v>
-      </c>
-      <c r="B3" t="s">
-        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -27209,7 +27224,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="51" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B1" s="51"/>
     </row>
@@ -27373,16 +27388,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="109" t="s">
+        <v>950</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>951</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="108"/>
       <c r="B3" s="108" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="988">
   <si>
     <r>
       <rPr>
@@ -21033,12 +21033,176 @@
     <t>from flask import current_app
 current_app.config['SQLALCHEMY_DATABASE_URI']</t>
   </si>
+  <si>
+    <t>https://youtu.be/IxCBjUapkWk - видео на тему</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/42992256/how-do-you-add-migrate-an-existing-database-with-alembic-flask-migrate-if-you-di - StackOverflow на тему</t>
+  </si>
+  <si>
+    <t>2) Инициируем базу данных, создаем папку с миграциями. Она должна быть пустой. Если до этого были миграции - удаляем или переносим их в бекап.</t>
+  </si>
+  <si>
+    <t>4) Возвращаем обратно имена наших баз</t>
+  </si>
+  <si>
+    <t>Переименовыаем обратно (например, "real_base" в "base"</t>
+  </si>
+  <si>
+    <t>5) Апгрейд в базу делать бессмысленно, так как она уже все содержит. Поэтому ставим на нее отметку, что она впереди.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">flask db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>init</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Нужно создать пустую базу рядом с нашей и переименовать. Если имя нашей основной базы, например, "base", нашу переименовать в "real_base". А новой пустой базе дать имя базы "base". И после этого командуем
+flask db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>migrate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">flask db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>stamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> head</t>
+    </r>
+  </si>
+  <si>
+    <t>3) Заставить flask db (alembic) думать, что база пустая.
+И сделать инициирущую миграцию (первую)</t>
+  </si>
+  <si>
+    <t>6) Добавляем колонку в модель</t>
+  </si>
+  <si>
+    <t>В models.py добавляем колонку</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">flask db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>migrate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">flask db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>upgrade</t>
+    </r>
+  </si>
+  <si>
+    <t>Добавить миграции из models.py в существовавшую самомтоятельно Базу данных.</t>
+  </si>
+  <si>
+    <r>
+      <t>json1_data = json.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>loads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(json1_str)[0]
+datapoints = json1_data['datapoints']</t>
+    </r>
+  </si>
+  <si>
+    <t>Json to Dict. Json в словарь.
+Получаем элемент в JSON по ключу</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t>Получить лист со всеми дашбордами</t>
+  </si>
+  <si>
+    <t>url = f'http://{args.host}:{args.port}'
+all_dashboards = requests.get(url=f'{url}/api/search?query=%', headers={"Authorization": f"Bearer {api_key}"})
+all_dashboards = all_dashboards.json()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="105">
+  <fonts count="107">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -21754,8 +21918,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21828,8 +22007,14 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -21891,11 +22076,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -22218,6 +22417,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -22230,8 +22438,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22581,10 +22802,10 @@
   <sheetPr>
     <tabColor rgb="FF40C4FF"/>
   </sheetPr>
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -22697,43 +22918,73 @@
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A18" s="114" t="s">
+        <v>980</v>
+      </c>
+      <c r="B18" s="114"/>
+    </row>
+    <row r="19" spans="1:2" ht="29">
+      <c r="A19" s="113" t="s">
+        <v>967</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="21" spans="1:2" ht="58">
+      <c r="A21" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="58">
+      <c r="A22" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.5">
+      <c r="A24" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>978</v>
+      </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>979</v>
+      </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
@@ -22745,20 +22996,20 @@
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -23192,59 +23443,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="117" t="s">
         <v>913</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="116" t="s">
         <v>914</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="116" t="s">
         <v>915</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="116" t="s">
         <v>916</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="116" t="s">
         <v>917</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="116" t="s">
         <v>918</v>
       </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="116" t="s">
         <v>919</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -24980,7 +25231,7 @@
       <c r="A93" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="B93" s="115" t="s">
+      <c r="B93" s="118" t="s">
         <v>659</v>
       </c>
     </row>
@@ -24988,7 +25239,7 @@
       <c r="A94" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="B94" s="115"/>
+      <c r="B94" s="118"/>
     </row>
     <row r="95" spans="1:2" ht="43.5">
       <c r="A95" s="27" t="s">
@@ -25909,7 +26160,7 @@
       <c r="A18" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="118" t="s">
         <v>765</v>
       </c>
     </row>
@@ -25917,37 +26168,37 @@
       <c r="A19" s="89" t="s">
         <v>766</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="118"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="89" t="s">
         <v>767</v>
       </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="118"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="89" t="s">
         <v>768</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="118"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="89" t="s">
         <v>769</v>
       </c>
-      <c r="B22" s="115"/>
+      <c r="B22" s="118"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="89" t="s">
         <v>770</v>
       </c>
-      <c r="B23" s="115"/>
+      <c r="B23" s="118"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="89" t="s">
         <v>771</v>
       </c>
-      <c r="B24" s="115"/>
+      <c r="B24" s="118"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -26025,7 +26276,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -27374,7 +27625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
@@ -27412,10 +27665,6 @@
       <c r="A6" s="108"/>
       <c r="B6" s="108"/>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-    </row>
     <row r="8" spans="1:2">
       <c r="A8" s="108"/>
       <c r="B8" s="108"/>
@@ -27554,7 +27803,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -28030,10 +28279,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="112"/>
+      <c r="B20" s="115"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">
@@ -28177,13 +28426,15 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AMJ11"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="59.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" style="1" customWidth="1"/>
     <col min="4" max="1024" width="9.08984375" style="1"/>
@@ -28235,34 +28486,155 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="119" t="s">
+        <v>984</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="112"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="119" t="s">
+        <v>983</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="70.5">
+      <c r="A16" s="108" t="s">
+        <v>981</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>982</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="120"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="122" t="s">
+        <v>985</v>
+      </c>
+      <c r="B24" s="122"/>
+    </row>
+    <row r="25" spans="1:3" ht="87">
+      <c r="A25" s="121" t="s">
+        <v>987</v>
+      </c>
+      <c r="B25" s="121" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="121"/>
+      <c r="B36" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -28274,7 +28646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
@@ -29312,7 +29684,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1009">
   <si>
     <r>
       <rPr>
@@ -507,76 +507,6 @@
   <si>
     <t>инициализация базы данных,
 создание таблицы</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>cursor.execute</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"""INSERT INTO albums
-                  VALUES ('Glow', 'Andy Hunter', '7/24/2012',
-                  'Xplore Records', 'MP3')"""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  )
-conn.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>commit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">()
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Вставляем данные в таблицу
-Сохраняем изменения</t>
   </si>
   <si>
     <r>
@@ -21040,16 +20970,7 @@
     <t>https://stackoverflow.com/questions/42992256/how-do-you-add-migrate-an-existing-database-with-alembic-flask-migrate-if-you-di - StackOverflow на тему</t>
   </si>
   <si>
-    <t>2) Инициируем базу данных, создаем папку с миграциями. Она должна быть пустой. Если до этого были миграции - удаляем или переносим их в бекап.</t>
-  </si>
-  <si>
-    <t>4) Возвращаем обратно имена наших баз</t>
-  </si>
-  <si>
     <t>Переименовыаем обратно (например, "real_base" в "base"</t>
-  </si>
-  <si>
-    <t>5) Апгрейд в базу делать бессмысленно, так как она уже все содержит. Поэтому ставим на нее отметку, что она впереди.</t>
   </si>
   <si>
     <r>
@@ -21106,13 +21027,6 @@
       </rPr>
       <t xml:space="preserve"> head</t>
     </r>
-  </si>
-  <si>
-    <t>3) Заставить flask db (alembic) думать, что база пустая.
-И сделать инициирущую миграцию (первую)</t>
-  </si>
-  <si>
-    <t>6) Добавляем колонку в модель</t>
   </si>
   <si>
     <t>В models.py добавляем колонку</t>
@@ -21196,13 +21110,307 @@
     <t>url = f'http://{args.host}:{args.port}'
 all_dashboards = requests.get(url=f'{url}/api/search?query=%', headers={"Authorization": f"Bearer {api_key}"})
 all_dashboards = all_dashboards.json()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+flask db migrate</t>
+  </si>
+  <si>
+    <t>В конфиге прописываем connectable
+И создаем миграцию.</t>
+  </si>
+  <si>
+    <t>Создать миграцию, которая будет соответствовать уже имеющейся базе данных, если models.py пустой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теперь можно в конфиге поменять connectable на localhost, а в локальной базе создать пустую схему с нашим названием.  </t>
+  </si>
+  <si>
+    <t>Чтобы заново накатить ту же миграцию, например, после ручного удаления,   в имеющейся базе в таблице public.alembic_versions нужно удалить имеющуюся миграцию - строку с именем миграции</t>
+  </si>
+  <si>
+    <t>Далее лучше работать в localhost, а-то страшновато в реальной базе</t>
+  </si>
+  <si>
+    <t>flask db upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внутри файла миграции (например, 9b44ce7ba6fe_.py):
+Меняем upgrage в downgrade и наоборот.
+А также  прибиваем ссылки на другие схемы, если работаем только с одной,  а то в других таблицы потрём </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удаляем другие миграции из папки, сохраняем только нашу изменённую.
+При этом в файле надо ещё установить
+down_revision = None
+чтоб flask не ругался на отсутствие прошлой миграции.
+</t>
+  </si>
+  <si>
+    <t>1) Инициируем базу данных, создаем папку с миграциями. Она должна быть пустой. Если до этого были миграции - удаляем или переносим их в бекап.</t>
+  </si>
+  <si>
+    <t>2) Заставить flask db (alembic) думать, что база пустая.
+И сделать инициирущую миграцию (первую)</t>
+  </si>
+  <si>
+    <t>3) Возвращаем обратно имена наших баз</t>
+  </si>
+  <si>
+    <t>4) Апгрейд в базу делать бессмысленно, так как она уже все содержит. Поэтому ставим на нее отметку, что она впереди.</t>
+  </si>
+  <si>
+    <t>5) Добавляем колонку в модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проходит на локальой базе успешно:
+INFO  [alembic.runtime.migration] Running upgrade  -&gt; 9b44ce7ba6fe, empty message
+Таблицы создаются.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>cursor.execute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"""INSERT INTO albums
+                  VALUES ('Glow', 'Andy Hunter', '7/24/2012',
+                  'Xplore Records', 'MP3')"""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  )
+conn.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">()
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Вставляем данные в таблицу
+Сохраняем изменения</t>
+  </si>
+  <si>
+    <t>"{'", "'.join(tags)}"</t>
+  </si>
+  <si>
+    <t>Соединить стринги в листе в единуб стрингу, каждую из которых взять в кавычки (для PostgreSQL)</t>
+  </si>
+  <si>
+    <t>functools.reduce</t>
+  </si>
+  <si>
+    <t>Последовательно производит действие с каждым элементом последовательности, 
+сохраняя промежуточный результат.  Выдаёт результат нарстающего итога.</t>
+  </si>
+  <si>
+    <t>Посчитает ((((1+2)+3)+4)+5) - то есть ПОСЛЕДОВАТЕЛЬНО сложит все элементы.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>reduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> x, y: x+y, [1, 2, 3, 4, 5])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>reduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> left, right: pd.merge(left, right, on='DateTime', how='left'), dfs)</t>
+    </r>
+  </si>
+  <si>
+    <t>Мерджит все DataFrame из листа датафреймов поочерёдно. Выдает один большой DataFrame</t>
+  </si>
+  <si>
+    <t>Пути, внутренние импорты и т.д.</t>
+  </si>
+  <si>
+    <t>Получить реальное местоположение приложения на диске и путь к внутреннему файлу app/my_folder/my_file.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>filename = os.path.join(app.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>instance_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 'my_folder'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'my_file.txt'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="107">
+  <fonts count="110">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -21933,8 +22141,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22013,8 +22242,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -22089,12 +22324,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -22188,24 +22436,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -22426,15 +22656,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -22448,6 +22669,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22802,10 +23074,10 @@
   <sheetPr>
     <tabColor rgb="FF40C4FF"/>
   </sheetPr>
-  <dimension ref="A1:AMJ31"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -22895,18 +23167,18 @@
     </row>
     <row r="14" spans="1:2" ht="43.5">
       <c r="A14" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5">
       <c r="A15" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -22914,102 +23186,22 @@
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="114" t="s">
-        <v>980</v>
-      </c>
-      <c r="B18" s="114"/>
-    </row>
-    <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="113" t="s">
-        <v>967</v>
-      </c>
-      <c r="B19" s="113" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="58">
-      <c r="A21" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="58">
-      <c r="A22" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.5">
-      <c r="A24" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A17" s="130" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="130"/>
+    </row>
+    <row r="18" spans="1:2" ht="43.5">
+      <c r="A18" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1007</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="A19" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -23038,397 +23230,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="91" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="E1" s="92" t="s">
         <v>847</v>
       </c>
-      <c r="C1" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="97" t="s">
+      <c r="F1" s="92" t="s">
         <v>848</v>
-      </c>
-      <c r="E1" s="98" t="s">
-        <v>849</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="93" t="s">
         <v>853</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="94">
+        <v>0</v>
+      </c>
+      <c r="G2" s="95"/>
+    </row>
+    <row r="3" spans="1:7" ht="29">
+      <c r="A3" s="73" t="s">
         <v>854</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="B3" s="96" t="s">
         <v>855</v>
       </c>
-      <c r="F2" s="100">
-        <v>0</v>
-      </c>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="3" spans="1:7" ht="29">
-      <c r="A3" s="79" t="s">
+      <c r="C3" s="96" t="s">
         <v>856</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="D3" s="73" t="s">
         <v>857</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="E3" s="93" t="s">
         <v>858</v>
       </c>
-      <c r="D3" s="79" t="s">
-        <v>859</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>860</v>
-      </c>
-      <c r="F3" s="100">
+      <c r="F3" s="94">
         <v>1</v>
       </c>
-      <c r="G3" s="101"/>
+      <c r="G3" s="95"/>
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="93" t="s">
         <v>862</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="94">
+        <v>2</v>
+      </c>
+      <c r="G4" s="95"/>
+    </row>
+    <row r="5" spans="1:7" ht="58">
+      <c r="A5" s="73" t="s">
         <v>863</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="B5" s="96" t="s">
         <v>864</v>
       </c>
-      <c r="F4" s="100">
-        <v>2</v>
-      </c>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:7" ht="58">
-      <c r="A5" s="79" t="s">
+      <c r="C5" s="96" t="s">
         <v>865</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="D5" s="73" t="s">
         <v>866</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="E5" s="93" t="s">
         <v>867</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>868</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>869</v>
-      </c>
-      <c r="F5" s="100">
+      <c r="F5" s="94">
         <v>3</v>
       </c>
-      <c r="G5" s="101"/>
+      <c r="G5" s="95"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="99" t="s">
-        <v>870</v>
-      </c>
-      <c r="F6" s="100">
+      <c r="E6" s="93" t="s">
+        <v>868</v>
+      </c>
+      <c r="F6" s="94">
         <v>4</v>
       </c>
-      <c r="G6" s="101"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="99" t="s">
-        <v>871</v>
-      </c>
-      <c r="F7" s="100">
+      <c r="E7" s="93" t="s">
+        <v>869</v>
+      </c>
+      <c r="F7" s="94">
         <v>5</v>
       </c>
-      <c r="G7" s="101"/>
+      <c r="G7" s="95"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="99" t="s">
-        <v>872</v>
-      </c>
-      <c r="F8" s="100">
+      <c r="E8" s="93" t="s">
+        <v>870</v>
+      </c>
+      <c r="F8" s="94">
         <v>6</v>
       </c>
-      <c r="G8" s="101"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="99" t="s">
-        <v>873</v>
-      </c>
-      <c r="F9" s="100">
+      <c r="E9" s="93" t="s">
+        <v>871</v>
+      </c>
+      <c r="F9" s="94">
         <v>7</v>
       </c>
-      <c r="G9" s="101"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="93" t="s">
         <v>876</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>878</v>
-      </c>
-      <c r="F10" s="100">
+      <c r="F10" s="94">
         <v>8</v>
       </c>
-      <c r="G10" s="101"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="93" t="s">
         <v>881</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>883</v>
-      </c>
-      <c r="F11" s="100">
+      <c r="F11" s="94">
         <v>9</v>
       </c>
-      <c r="G11" s="101"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="93" t="s">
         <v>886</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>888</v>
-      </c>
-      <c r="F12" s="100">
+      <c r="F12" s="94">
         <v>10</v>
       </c>
-      <c r="G12" s="101"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="93" t="s">
         <v>891</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>893</v>
-      </c>
-      <c r="F13" s="100">
+      <c r="F13" s="94">
         <v>11</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="99" t="s">
-        <v>894</v>
-      </c>
-      <c r="F14" s="100">
+      <c r="E14" s="93" t="s">
+        <v>892</v>
+      </c>
+      <c r="F14" s="94">
         <v>12</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="99" t="s">
-        <v>895</v>
-      </c>
-      <c r="F15" s="100">
+      <c r="E15" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="F15" s="94">
         <v>13</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>896</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>897</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="E16" s="93" t="s">
         <v>898</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>899</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>900</v>
-      </c>
-      <c r="F16" s="100">
+      <c r="F16" s="94">
         <v>14</v>
       </c>
-      <c r="G16" s="101"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>904</v>
-      </c>
-      <c r="F17" s="100">
+        <v>901</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>902</v>
+      </c>
+      <c r="F17" s="94">
         <v>15</v>
       </c>
-      <c r="G17" s="101"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:7" ht="29">
       <c r="A18" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>905</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="E18" s="93" t="s">
         <v>906</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>907</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>908</v>
-      </c>
-      <c r="F18" s="100">
+      <c r="F18" s="94">
         <v>16</v>
       </c>
-      <c r="G18" s="101"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="99" t="s">
-        <v>909</v>
-      </c>
-      <c r="F19" s="100">
+      <c r="E19" s="93" t="s">
+        <v>907</v>
+      </c>
+      <c r="F19" s="94">
         <v>17</v>
       </c>
-      <c r="G19" s="101"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="99" t="s">
-        <v>910</v>
-      </c>
-      <c r="F20" s="100">
+      <c r="E20" s="93" t="s">
+        <v>908</v>
+      </c>
+      <c r="F20" s="94">
         <v>18</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="95"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="99" t="s">
-        <v>911</v>
-      </c>
-      <c r="F21" s="100">
+      <c r="E21" s="93" t="s">
+        <v>909</v>
+      </c>
+      <c r="F21" s="94">
         <v>19</v>
       </c>
-      <c r="G21" s="101"/>
+      <c r="G21" s="95"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="99" t="s">
-        <v>912</v>
-      </c>
-      <c r="F22" s="100">
+      <c r="E22" s="93" t="s">
+        <v>910</v>
+      </c>
+      <c r="F22" s="94">
         <v>20</v>
       </c>
-      <c r="G22" s="101"/>
+      <c r="G22" s="95"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="G23" s="101"/>
+      <c r="G23" s="95"/>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="27"/>
@@ -23443,59 +23635,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="127" t="s">
+        <v>911</v>
+      </c>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A28" s="126" t="s">
+        <v>912</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A29" s="126" t="s">
         <v>913</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="116" t="s">
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A30" s="126" t="s">
         <v>914</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="116" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1">
+      <c r="A31" s="126" t="s">
         <v>915</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="116" t="s">
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A32" s="126" t="s">
         <v>916</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="116" t="s">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="126" t="s">
         <v>917</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="116" t="s">
-        <v>918</v>
-      </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="116" t="s">
-        <v>919</v>
-      </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -23518,10 +23710,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -23531,24 +23723,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1">
@@ -23556,82 +23748,82 @@
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="87">
+      <c r="A6" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B6" s="24" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="87">
-      <c r="A6" s="60" t="s">
+    <row r="7" spans="1:2" ht="58">
+      <c r="A7" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B7" s="56" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="61" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B9" s="57" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="63" t="s">
+    <row r="10" spans="1:2" ht="72.5">
+      <c r="A10" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
       <c r="A11" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87">
       <c r="A12" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="27"/>
-      <c r="B13" s="60"/>
+      <c r="B13" s="54"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="101.5">
       <c r="A15" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="60"/>
+        <v>353</v>
+      </c>
+      <c r="B15" s="54"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="24"/>
@@ -23643,16 +23835,16 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" s="40"/>
+        <v>354</v>
+      </c>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="58">
       <c r="A19" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -23665,26 +23857,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -23697,18 +23889,18 @@
     </row>
     <row r="27" spans="1:2" ht="29">
       <c r="A27" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29">
+      <c r="A28" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B28" s="27" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29">
-      <c r="A28" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -23716,8 +23908,8 @@
       <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="129"/>
+      <c r="B30" s="110"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27"/>
@@ -23726,6 +23918,58 @@
     <row r="32" spans="1:2">
       <c r="A32" s="24"/>
       <c r="B32" s="27"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="123"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="123"/>
+      <c r="B35" s="123"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="123"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="24"/>
+      <c r="B38" s="123"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="123"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="24"/>
+      <c r="B42" s="123"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="123"/>
+      <c r="B43" s="123"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="24"/>
+      <c r="B44" s="123"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="123"/>
+      <c r="B45" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23747,56 +23991,56 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
       <c r="A6" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24"/>
-      <c r="B7" s="65" t="s">
-        <v>379</v>
+      <c r="B7" s="59" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -23832,307 +24076,307 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8" style="27" customWidth="1"/>
     <col min="2" max="2" width="51.453125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="66.08984375" style="66" customWidth="1"/>
+    <col min="3" max="3" width="66.08984375" style="60" customWidth="1"/>
     <col min="4" max="4" width="8.54296875" style="28" customWidth="1"/>
     <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
     <col min="6" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="38" customFormat="1">
+    <row r="1" spans="1:4" s="32" customFormat="1">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="38" customFormat="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="32" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="32" customFormat="1" ht="130.5">
+      <c r="A3" s="21"/>
+      <c r="B3" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C3" s="27" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="38" customFormat="1" ht="130.5">
-      <c r="A3" s="21"/>
-      <c r="B3" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5">
       <c r="A5" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>388</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29">
       <c r="A6" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>391</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="43.5">
       <c r="A8" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>396</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
       <c r="B9" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="87">
       <c r="B10" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="29">
       <c r="B11" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="29">
       <c r="B12" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="29">
       <c r="B13" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="B14" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="29">
       <c r="B15" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="43.5">
       <c r="B16" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="43.5">
       <c r="B17" s="27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="29">
       <c r="B18" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="43.5">
       <c r="B19" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>422</v>
+        <v>419</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>420</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="29">
       <c r="B21" s="27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="29">
       <c r="B22" s="27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="43.5">
       <c r="B23" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="29">
       <c r="B24" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>428</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="29">
+      <c r="B26" s="62" t="s">
         <v>431</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C26" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="29">
-      <c r="B26" s="68" t="s">
+    </row>
+    <row r="27" spans="2:4" ht="58">
+      <c r="B27" s="62" t="s">
         <v>433</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C27" s="27" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="58">
-      <c r="B27" s="68" t="s">
+    <row r="28" spans="2:4" ht="29">
+      <c r="B28" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C28" s="27" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="29">
-      <c r="B28" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="29">
       <c r="B29" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="29">
       <c r="B30" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" spans="2:4" ht="43.5">
       <c r="B31" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="29">
+      <c r="B32" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="29">
-      <c r="B32" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -24199,40 +24443,40 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -24241,42 +24485,42 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -24284,19 +24528,19 @@
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>464</v>
+      <c r="A13" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -24305,178 +24549,178 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="65" t="s">
         <v>467</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B17" s="65" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="71" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>469</v>
       </c>
-      <c r="B17" s="71" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="65" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="71" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29">
+      <c r="A22" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="29">
-      <c r="A22" s="72" t="s">
-        <v>477</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B26" s="27" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="68" t="s">
-        <v>485</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B28" s="42" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="87">
       <c r="A37" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24484,41 +24728,41 @@
       <c r="B38" s="27"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="101.5">
+      <c r="A40" s="68" t="s">
+        <v>508</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="101.5">
-      <c r="A40" s="74" t="s">
-        <v>510</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="58">
       <c r="A41" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="188.5">
+      <c r="A42" s="69" t="s">
         <v>512</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B42" s="27" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="188.5">
-      <c r="A42" s="75" t="s">
+    <row r="43" spans="1:2" ht="58">
+      <c r="A43" s="69" t="s">
         <v>514</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B43" s="27" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="58">
-      <c r="A43" s="75" t="s">
-        <v>516</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24558,8 +24802,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ149"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A124" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -24569,368 +24813,372 @@
     <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="38" customFormat="1">
-      <c r="A1" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="38" customFormat="1">
+    <row r="1" spans="1:2" s="32" customFormat="1">
+      <c r="A1" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="32" customFormat="1">
       <c r="A2" s="23"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="71" customFormat="1">
+      <c r="A3" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="77" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="4" spans="1:2" s="71" customFormat="1">
+      <c r="A4" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B4" s="24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="77" customFormat="1">
-      <c r="A4" s="24" t="s">
+    <row r="5" spans="1:2" s="71" customFormat="1">
+      <c r="A5" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="77" customFormat="1">
-      <c r="A5" s="24" t="s">
+    <row r="6" spans="1:2" s="71" customFormat="1">
+      <c r="A6" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B6" s="24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="77" customFormat="1">
-      <c r="A6" s="24" t="s">
+    <row r="7" spans="1:2" s="71" customFormat="1">
+      <c r="A7" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B7" s="24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="77" customFormat="1">
-      <c r="A7" s="78" t="s">
+    <row r="8" spans="1:2" s="71" customFormat="1">
+      <c r="A8" s="72" t="s">
         <v>527</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B8" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="77" customFormat="1">
-      <c r="A8" s="78" t="s">
+    <row r="9" spans="1:2" s="71" customFormat="1" ht="72.5">
+      <c r="A9" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B9" s="24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="77" customFormat="1" ht="72.5">
-      <c r="A9" s="24" t="s">
+    <row r="10" spans="1:2" s="71" customFormat="1" ht="29">
+      <c r="A10" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="71" customFormat="1">
+      <c r="A11" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="77" customFormat="1" ht="29">
-      <c r="A10" s="24" t="s">
-        <v>957</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="77" customFormat="1">
-      <c r="A11" s="24" t="s">
+    <row r="12" spans="1:2" s="71" customFormat="1">
+      <c r="A12" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B12" s="24" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="77" customFormat="1">
-      <c r="A12" s="24" t="s">
+    <row r="13" spans="1:2" s="71" customFormat="1">
+      <c r="A13" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="77" customFormat="1">
-      <c r="A13" s="24" t="s">
+    <row r="14" spans="1:2" s="71" customFormat="1">
+      <c r="A14" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B14" s="24" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="77" customFormat="1">
-      <c r="A14" s="24" t="s">
+    <row r="15" spans="1:2" s="71" customFormat="1">
+      <c r="A15" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B15" s="24" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="77" customFormat="1">
-      <c r="A15" s="24" t="s">
+    <row r="16" spans="1:2" s="71" customFormat="1">
+      <c r="A16" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B16" s="24" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="77" customFormat="1">
-      <c r="A16" s="24" t="s">
+    <row r="17" spans="1:2" s="71" customFormat="1" ht="29">
+      <c r="A17" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B17" s="24" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="77" customFormat="1" ht="29">
-      <c r="A17" s="24" t="s">
+    <row r="18" spans="1:2" s="71" customFormat="1">
+      <c r="A18" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="24" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="77" customFormat="1">
-      <c r="A18" s="27" t="s">
+    <row r="19" spans="1:2" s="71" customFormat="1">
+      <c r="A19" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B19" s="24" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="77" customFormat="1">
-      <c r="A19" s="27" t="s">
+    <row r="20" spans="1:2" s="71" customFormat="1">
+      <c r="A20" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B20" s="24" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="77" customFormat="1">
-      <c r="A20" s="24" t="s">
+    <row r="21" spans="1:2" s="71" customFormat="1" ht="58">
+      <c r="A21" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B21" s="24" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="77" customFormat="1" ht="58">
-      <c r="A21" s="24" t="s">
+    <row r="22" spans="1:2" s="71" customFormat="1" ht="58">
+      <c r="A22" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="77" customFormat="1" ht="58">
-      <c r="A22" s="24" t="s">
+    <row r="23" spans="1:2" s="71" customFormat="1">
+      <c r="A23" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="77" customFormat="1">
-      <c r="A23" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="77" customFormat="1">
+    <row r="24" spans="1:2" s="71" customFormat="1">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
     </row>
-    <row r="25" spans="1:2" s="77" customFormat="1" ht="58">
+    <row r="25" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A25" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="71" customFormat="1" ht="58">
+      <c r="A26" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B26" s="24" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="77" customFormat="1" ht="58">
-      <c r="A26" s="24" t="s">
+    <row r="27" spans="1:2" s="71" customFormat="1">
+      <c r="A27" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B27" s="24" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="77" customFormat="1">
-      <c r="A27" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="77" customFormat="1">
+    <row r="28" spans="1:2" s="71" customFormat="1">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
     </row>
-    <row r="29" spans="1:2" s="77" customFormat="1">
+    <row r="29" spans="1:2" s="71" customFormat="1">
       <c r="A29" s="24" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="77" customFormat="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-    </row>
-    <row r="31" spans="1:2" s="77" customFormat="1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="71" customFormat="1">
+      <c r="A30" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="71" customFormat="1">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
     </row>
-    <row r="32" spans="1:2" s="77" customFormat="1">
+    <row r="32" spans="1:2" s="71" customFormat="1">
       <c r="A32" s="23"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="34" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="71" customFormat="1" ht="58">
+      <c r="A33" s="73" t="s">
+        <v>564</v>
+      </c>
+      <c r="B33" s="73" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="77" customFormat="1" ht="58">
-      <c r="A33" s="79" t="s">
+    <row r="34" spans="1:2" s="71" customFormat="1" ht="29">
+      <c r="A34" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B34" s="74" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="77" customFormat="1" ht="29">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" s="71" customFormat="1">
+      <c r="A35" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B35" s="74" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="77" customFormat="1">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" s="71" customFormat="1">
+      <c r="A36" s="74" t="s">
         <v>570</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B36" s="74" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="77" customFormat="1">
-      <c r="A36" s="80" t="s">
+    <row r="37" spans="1:2" s="71" customFormat="1">
+      <c r="A37" s="74" t="s">
         <v>572</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B37" s="74" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="77" customFormat="1">
-      <c r="A37" s="80" t="s">
+    <row r="38" spans="1:2" s="71" customFormat="1">
+      <c r="A38" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B38" s="74" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="77" customFormat="1">
-      <c r="A38" s="80" t="s">
-        <v>576</v>
-      </c>
-      <c r="B38" s="80" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="29">
       <c r="A40" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="29">
       <c r="A46" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>593</v>
+        <v>590</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="27" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="43.5">
       <c r="A48" s="27" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24939,10 +25187,10 @@
     </row>
     <row r="50" spans="1:2" ht="29">
       <c r="A50" s="27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24951,50 +25199,50 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="27" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="87">
       <c r="A53" s="27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="43.5">
       <c r="A54" s="27" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="29">
       <c r="A55" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29">
+      <c r="A57" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="B57" s="27" t="s">
         <v>606</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="29">
-      <c r="A57" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -25002,57 +25250,57 @@
       <c r="B59" s="27"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="73" t="s">
-        <v>611</v>
-      </c>
-      <c r="B60" s="73" t="s">
-        <v>612</v>
+      <c r="A60" s="67" t="s">
+        <v>609</v>
+      </c>
+      <c r="B60" s="67" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="58">
       <c r="A61" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="B61" s="27"/>
+    </row>
+    <row r="62" spans="1:2" ht="43.5">
+      <c r="A62" s="76" t="s">
+        <v>612</v>
+      </c>
+      <c r="B62" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="B61" s="27"/>
-    </row>
-    <row r="62" spans="1:2" ht="43.5">
-      <c r="A62" s="82" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="87">
+      <c r="A63" s="76" t="s">
         <v>614</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B63" s="27" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="87">
-      <c r="A63" s="82" t="s">
+    <row r="64" spans="1:2" ht="70">
+      <c r="A64" s="77" t="s">
         <v>616</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B64" s="27" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="70">
-      <c r="A64" s="83" t="s">
-        <v>618</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="159.5">
       <c r="A65" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="203">
+      <c r="A66" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B66" s="27" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="203">
-      <c r="A66" s="82" t="s">
-        <v>622</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -25060,27 +25308,27 @@
       <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="73" t="s">
-        <v>624</v>
-      </c>
-      <c r="B68" s="73" t="s">
-        <v>625</v>
+      <c r="A68" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="B68" s="67" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="87">
       <c r="A69" s="27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="87">
       <c r="A70" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -25092,49 +25340,49 @@
       <c r="B72" s="27"/>
     </row>
     <row r="73" spans="1:2" ht="29">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="43.5">
+      <c r="A74" s="68" t="s">
         <v>630</v>
-      </c>
-      <c r="B73" s="73" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="43.5">
-      <c r="A74" s="74" t="s">
-        <v>632</v>
       </c>
       <c r="B74" s="27"/>
     </row>
     <row r="75" spans="1:2" ht="29">
       <c r="A75" s="27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="72.5">
       <c r="A76" s="27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="72.5">
       <c r="A77" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="43.5">
+      <c r="A78" s="78" t="s">
         <v>637</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B78" s="78" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="43.5">
-      <c r="A78" s="84" t="s">
-        <v>639</v>
-      </c>
-      <c r="B78" s="84" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -25146,27 +25394,27 @@
       <c r="B80" s="27"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="73" t="s">
-        <v>641</v>
-      </c>
-      <c r="B81" s="73" t="s">
-        <v>642</v>
+      <c r="A81" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="B81" s="67" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="116">
       <c r="A82" s="27" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="43.5">
       <c r="A83" s="27" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -25174,35 +25422,35 @@
       <c r="B84" s="27"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="B85" s="67" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="43.5">
+      <c r="A86" s="68" t="s">
         <v>647</v>
       </c>
-      <c r="B85" s="73" t="s">
+      <c r="B86" s="27" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="43.5">
-      <c r="A86" s="74" t="s">
-        <v>649</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="72.5">
       <c r="A87" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="43.5">
       <c r="A88" s="27" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -25214,36 +25462,36 @@
       <c r="B90" s="27"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="73" t="s">
-        <v>655</v>
-      </c>
-      <c r="B91" s="73" t="s">
-        <v>656</v>
+      <c r="A91" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="B91" s="67" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="87">
       <c r="A92" s="27" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B92" s="27"/>
     </row>
     <row r="93" spans="1:2" ht="46.4" customHeight="1">
       <c r="A93" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="B93" s="118" t="s">
-        <v>659</v>
+        <v>656</v>
+      </c>
+      <c r="B93" s="128" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="49.75" customHeight="1">
       <c r="A94" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="B94" s="118"/>
+        <v>658</v>
+      </c>
+      <c r="B94" s="128"/>
     </row>
     <row r="95" spans="1:2" ht="43.5">
       <c r="A95" s="27" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B95" s="27"/>
     </row>
@@ -25256,39 +25504,39 @@
       <c r="B97" s="27"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="73" t="s">
-        <v>662</v>
-      </c>
-      <c r="B98" s="73" t="s">
-        <v>663</v>
+      <c r="A98" s="67" t="s">
+        <v>660</v>
+      </c>
+      <c r="B98" s="67" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="87">
       <c r="A99" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="1:2" ht="101.5">
+      <c r="A100" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="B100" s="27" t="s">
         <v>664</v>
-      </c>
-      <c r="B99" s="27"/>
-    </row>
-    <row r="100" spans="1:2" ht="101.5">
-      <c r="A100" s="74" t="s">
-        <v>665</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="72.5">
       <c r="A101" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B101" s="27"/>
     </row>
     <row r="102" spans="1:2" ht="29">
       <c r="A102" s="27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25308,57 +25556,57 @@
       <c r="B106" s="27"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="73" t="s">
+      <c r="A107" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="B107" s="67" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="68" t="s">
         <v>670</v>
       </c>
-      <c r="B107" s="73" t="s">
+      <c r="B108" s="27"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="54" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="74" t="s">
+      <c r="B109" s="27" t="s">
         <v>672</v>
-      </c>
-      <c r="B108" s="27"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="60" t="s">
-        <v>673</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="58">
       <c r="A110" s="27" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="29">
       <c r="A111" s="27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="58">
       <c r="A113" s="27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25366,33 +25614,33 @@
       <c r="B114" s="27"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="73" t="s">
+      <c r="A115" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="B115" s="67" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="188.5">
+      <c r="A116" s="68" t="s">
         <v>683</v>
-      </c>
-      <c r="B115" s="73" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="188.5">
-      <c r="A116" s="74" t="s">
-        <v>685</v>
       </c>
       <c r="B116" s="27"/>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="232">
+      <c r="A118" s="68" t="s">
         <v>686</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B118" s="30" t="s">
         <v>687</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="232">
-      <c r="A118" s="74" t="s">
-        <v>688</v>
-      </c>
-      <c r="B118" s="30" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25400,51 +25648,51 @@
       <c r="B119" s="27"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="73" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="73" t="s">
-        <v>691</v>
+      <c r="A120" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="B120" s="67" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="261">
       <c r="A121" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="29">
+      <c r="A122" s="67" t="s">
         <v>692</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B122" s="67" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="29">
-      <c r="A122" s="73" t="s">
+    <row r="123" spans="1:2" ht="304.5">
+      <c r="A123" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B123" s="27" t="s">
         <v>695</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="304.5">
-      <c r="A123" s="74" t="s">
-        <v>696</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="87">
       <c r="A124" s="27" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="116">
       <c r="A125" s="27" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25455,17 +25703,29 @@
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
+    <row r="128" spans="1:2" ht="29">
+      <c r="A128" s="110" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B128" s="110" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
+      <c r="A129" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
+      <c r="A130" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="27"/>
@@ -25548,7 +25808,7 @@
     <mergeCell ref="B93:B94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25571,34 +25831,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="288" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="348">
       <c r="A3" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="232">
+      <c r="A4" s="80" t="s">
         <v>704</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B4" s="4" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="232">
-      <c r="A4" s="86" t="s">
-        <v>706</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -25765,82 +26025,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5">
       <c r="A2" s="24" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -25939,42 +26199,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
       <c r="A3" s="24" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -26020,185 +26280,185 @@
     <col min="2" max="2" width="78.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="88" customFormat="1" ht="18.5">
-      <c r="A1" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>184</v>
+    <row r="1" spans="1:2" s="82" customFormat="1" ht="18.5">
+      <c r="A1" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.5">
+      <c r="A8" s="47" t="s">
         <v>744</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B8" s="27" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.5">
-      <c r="A8" s="53" t="s">
+    <row r="9" spans="1:2" ht="29">
+      <c r="A9" s="47" t="s">
         <v>746</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B9" s="27" t="s">
         <v>747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="53" t="s">
-        <v>748</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="24" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>955</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>956</v>
+        <v>953</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="27" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
       <c r="A13" s="27" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5">
       <c r="A14" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="27" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>761</v>
+        <v>758</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58">
       <c r="A17" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" customHeight="1">
       <c r="A18" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="83" t="s">
         <v>764</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B19" s="128"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="83" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="89" t="s">
+      <c r="B20" s="128"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="83" t="s">
         <v>766</v>
       </c>
-      <c r="B19" s="118"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="89" t="s">
+      <c r="B21" s="128"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="83" t="s">
         <v>767</v>
       </c>
-      <c r="B20" s="118"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="89" t="s">
+      <c r="B22" s="128"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="83" t="s">
         <v>768</v>
       </c>
-      <c r="B21" s="118"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="89" t="s">
+      <c r="B23" s="128"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="83" t="s">
         <v>769</v>
       </c>
-      <c r="B22" s="118"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="89" t="s">
-        <v>770</v>
-      </c>
-      <c r="B23" s="118"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="89" t="s">
-        <v>771</v>
-      </c>
-      <c r="B24" s="118"/>
+      <c r="B24" s="128"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -26206,10 +26466,10 @@
     </row>
     <row r="26" spans="1:2" ht="29">
       <c r="A26" s="27" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -26274,10 +26534,10 @@
   <sheetPr>
     <tabColor rgb="FFEF6C00"/>
   </sheetPr>
-  <dimension ref="A1:AMJ47"/>
+  <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -26301,60 +26561,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="101.5">
+    <row r="3" spans="1:2" ht="87">
       <c r="A3" s="12" t="s">
-        <v>16</v>
+        <v>996</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5">
       <c r="A5" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72.5">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="232">
       <c r="A7" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -26374,41 +26634,41 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="9"/>
+      <c r="A14" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="124"/>
     </row>
     <row r="15" spans="1:2" ht="256.5">
       <c r="A15" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135">
       <c r="A16" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="189">
       <c r="A17" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
       <c r="A18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -26416,135 +26676,163 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="108" t="s">
+        <v>983</v>
+      </c>
+      <c r="B20" s="108"/>
+    </row>
+    <row r="21" spans="1:2" ht="29">
+      <c r="A21" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.5">
+      <c r="A22" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="29">
+      <c r="A23" s="122" t="s">
+        <v>984</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72.5">
+      <c r="A24" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="58">
+      <c r="A25" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="43.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="108" t="s">
+        <v>973</v>
+      </c>
+      <c r="B28" s="108"/>
+    </row>
+    <row r="29" spans="1:2" ht="29">
+      <c r="A29" s="107" t="s">
+        <v>965</v>
+      </c>
+      <c r="B29" s="107" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" ht="29">
+      <c r="A31" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.5">
+      <c r="A32" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29">
+      <c r="A34" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" ht="189">
+      <c r="A42" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="1:2" ht="189">
-      <c r="A21" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:2" ht="43.5">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29">
-      <c r="A28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="72.5">
-      <c r="A29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="29">
-      <c r="A30" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2">
@@ -26552,12 +26840,120 @@
       <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="1:2" ht="43.5">
+      <c r="A48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29">
+      <c r="A49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="72.5">
+      <c r="A50" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29">
+      <c r="A51" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId2"/>
+    <hyperlink ref="A29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -26587,62 +26983,62 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="64"/>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B4" s="24" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="21"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="60" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="54" t="s">
         <v>776</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="60" t="s">
-        <v>778</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
       <c r="A6" s="24" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -26651,74 +27047,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="24" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -26748,10 +27144,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26760,10 +27156,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -26779,10 +27175,10 @@
       <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
-        <v>804</v>
-      </c>
-      <c r="B7" s="40"/>
+      <c r="A7" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27"/>
@@ -26798,15 +27194,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B12" s="27"/>
     </row>
@@ -26872,68 +27268,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>184</v>
+      <c r="A1" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="91" t="s">
-        <v>808</v>
-      </c>
-      <c r="B2" s="92"/>
+      <c r="A2" s="85" t="s">
+        <v>806</v>
+      </c>
+      <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="s">
-        <v>809</v>
-      </c>
-      <c r="B3" s="57"/>
+      <c r="A3" s="51" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26957,86 +27353,86 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="93" t="s">
-        <v>810</v>
-      </c>
-      <c r="B2" s="94"/>
+      <c r="A2" s="87" t="s">
+        <v>808</v>
+      </c>
+      <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="58">
       <c r="A6" s="25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="25" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="25" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="25" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="89" t="s">
         <v>824</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B11" s="27" t="s">
         <v>825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="95" t="s">
-        <v>826</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -27048,57 +27444,57 @@
       <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="96" t="s">
-        <v>828</v>
-      </c>
-      <c r="B14" s="94"/>
+      <c r="A14" s="90" t="s">
+        <v>826</v>
+      </c>
+      <c r="B14" s="88"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="27" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="27" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="27" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -27106,31 +27502,31 @@
       <c r="B21" s="27"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="40" t="s">
-        <v>841</v>
-      </c>
-      <c r="B22" s="40"/>
+      <c r="A22" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5">
       <c r="A24" s="27" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -27187,34 +27583,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="27" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="27" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27287,33 +27683,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="85" style="103" customWidth="1"/>
-    <col min="2" max="2" width="109.81640625" style="103" customWidth="1"/>
+    <col min="1" max="1" width="85" style="97" customWidth="1"/>
+    <col min="2" max="2" width="109.81640625" style="97" customWidth="1"/>
     <col min="3" max="1024" width="9.08984375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="103" t="s">
+      <c r="A1" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5">
+      <c r="A2" s="64" t="s">
+        <v>925</v>
+      </c>
+      <c r="B2" s="97" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="70" t="s">
+    <row r="3" spans="1:2" ht="116">
+      <c r="A3" s="64" t="s">
         <v>927</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B3" s="97" t="s">
         <v>928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="116">
-      <c r="A3" s="70" t="s">
-        <v>929</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -27336,34 +27732,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27371,48 +27767,48 @@
       <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="98" t="s">
+        <v>935</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5">
+      <c r="A7" s="99" t="s">
         <v>937</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B7" s="85" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.5">
-      <c r="A7" s="105" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="99" t="s">
         <v>939</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B8" s="98" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="105" t="s">
-        <v>941</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>942</v>
-      </c>
-    </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27434,26 +27830,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="100" t="s">
         <v>945</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="106" t="s">
-        <v>947</v>
-      </c>
-      <c r="B3" t="s">
-        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -27474,146 +27870,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
-        <v>949</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="45" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27631,175 +28027,175 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="43.36328125" style="107" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="107"/>
+    <col min="1" max="2" width="43.36328125" style="101" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="103" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="56.5">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102" t="s">
         <v>950</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="56.5">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108" t="s">
-        <v>952</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -27831,54 +28227,54 @@
     </row>
     <row r="2" spans="1:2" ht="18.5">
       <c r="A2" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
       <c r="A6" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -27895,26 +28291,26 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -27923,18 +28319,18 @@
     </row>
     <row r="16" spans="1:2" ht="101.5">
       <c r="A16" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="87">
       <c r="A17" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -27943,24 +28339,24 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="23"/>
     </row>
     <row r="20" spans="1:2" ht="72.5">
       <c r="A20" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
       <c r="A21" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -27981,53 +28377,53 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="23"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5">
       <c r="A32" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="24"/>
     </row>
@@ -28037,32 +28433,32 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:2" ht="43.5">
       <c r="A35" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29">
       <c r="A37" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -28083,32 +28479,32 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="58">
       <c r="A44" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -28158,56 +28554,56 @@
     </row>
     <row r="2" spans="1:2" ht="18.5">
       <c r="A2" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -28216,26 +28612,26 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -28252,78 +28648,78 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="23"/>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="24"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1">
+      <c r="A20" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="115" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="125"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -28336,24 +28732,24 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -28428,7 +28824,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -28442,85 +28838,85 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="58">
       <c r="A3" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="29">
       <c r="A5" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="119" t="s">
-        <v>984</v>
-      </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="112"/>
+      <c r="A7" s="110" t="s">
+        <v>977</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="106"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="27"/>
@@ -28533,18 +28929,18 @@
       <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="119" t="s">
-        <v>983</v>
-      </c>
-      <c r="B15" s="119"/>
+      <c r="A15" s="110" t="s">
+        <v>976</v>
+      </c>
+      <c r="B15" s="110"/>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:3" ht="70.5">
-      <c r="A16" s="108" t="s">
-        <v>981</v>
-      </c>
-      <c r="B16" s="108" t="s">
-        <v>982</v>
+    <row r="16" spans="1:3" ht="42.5">
+      <c r="A16" s="102" t="s">
+        <v>974</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>975</v>
       </c>
       <c r="C16" s="27"/>
     </row>
@@ -28554,87 +28950,87 @@
       <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="120"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="111"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="121"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="121"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="122" t="s">
-        <v>985</v>
-      </c>
-      <c r="B24" s="122"/>
+      <c r="A24" s="113" t="s">
+        <v>978</v>
+      </c>
+      <c r="B24" s="113"/>
     </row>
     <row r="25" spans="1:3" ht="87">
-      <c r="A25" s="121" t="s">
-        <v>987</v>
-      </c>
-      <c r="B25" s="121" t="s">
-        <v>986</v>
+      <c r="A25" s="112" t="s">
+        <v>980</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="112"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="112"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -28646,7 +29042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
@@ -28657,131 +29055,135 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="116"/>
+      <c r="B2" s="112"/>
+    </row>
+    <row r="3" spans="1:2" ht="304.5">
+      <c r="A3" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B3" s="112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="304.5">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:2" ht="159.5">
+      <c r="A4" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="112" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="159.5">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="112" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="116"/>
+      <c r="B6" s="112"/>
+    </row>
+    <row r="7" spans="1:2" ht="87">
+      <c r="A7" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="112" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="87">
-      <c r="A7" s="33" t="s">
+    <row r="8" spans="1:2" ht="29">
+      <c r="A8" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:2" ht="58">
+      <c r="A9" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58">
-      <c r="A9" s="34" t="s">
+    <row r="10" spans="1:2" ht="130.5">
+      <c r="A10" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="109" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="130.5">
-      <c r="A10" s="35" t="s">
+    <row r="11" spans="1:2" ht="145">
+      <c r="A11" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="109" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="145">
-      <c r="A11" s="33" t="s">
+    <row r="12" spans="1:2" ht="203">
+      <c r="A12" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="112" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="203">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="112" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+    <row r="14" spans="1:2" ht="141.5">
+      <c r="A14" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="121" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="141.5">
-      <c r="A14" s="36" t="s">
+    <row r="15" spans="1:2" ht="43.5">
+      <c r="A15" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B15" s="112" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="112" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="112"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="112"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31"/>
@@ -28904,32 +29306,32 @@
     <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="38" customFormat="1">
+    <row r="1" spans="1:2" s="32" customFormat="1">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="38" customFormat="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="32" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -28941,147 +29343,147 @@
       <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29">
+      <c r="A8" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B8" s="27" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.5">
+      <c r="A11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B11" s="27" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="43.5">
-      <c r="A11" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="72.5">
       <c r="A20" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
       <c r="A21" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.5">
       <c r="A22" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="58">
       <c r="A23" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="116">
       <c r="A24" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -29093,57 +29495,57 @@
       <c r="B27" s="27"/>
     </row>
     <row r="28" spans="1:2" ht="58">
-      <c r="A28" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>226</v>
+      <c r="A28" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="87">
       <c r="A29" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29">
       <c r="A30" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27"/>
       <c r="B34" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -29152,34 +29554,34 @@
     </row>
     <row r="36" spans="1:2" ht="87">
       <c r="A36" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="87">
       <c r="A38" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="116">
       <c r="A39" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -29195,73 +29597,73 @@
       <c r="B42" s="27"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>247</v>
+      <c r="A43" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29">
       <c r="A44" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58">
       <c r="A46" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29">
       <c r="A48" s="27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="58">
       <c r="A51" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -29277,107 +29679,107 @@
       <c r="B54" s="27"/>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>264</v>
+      <c r="A55" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
       <c r="A56" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="58">
       <c r="A57" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="29">
       <c r="A59" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B62" s="27" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29">
       <c r="A64" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="159.5">
       <c r="A66" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="72.5">
       <c r="A67" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -29459,26 +29861,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -29510,25 +29912,25 @@
       <c r="B10" s="24"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="43"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="49"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="50" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B13" s="44" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -29536,140 +29938,140 @@
       <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B16" s="44" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="50" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B17" s="44" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="50" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B18" s="44" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="50" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="50" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B21" s="44" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>309</v>
-      </c>
-    </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -29690,78 +30092,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="86.54296875" style="52" customWidth="1"/>
-    <col min="3" max="1024" width="53.36328125" style="52"/>
+    <col min="1" max="2" width="86.54296875" style="46" customWidth="1"/>
+    <col min="3" max="1024" width="53.36328125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="24" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="87">
       <c r="A4" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5">
+      <c r="A5" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.5">
-      <c r="A5" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2" ht="87">
       <c r="A7" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="130.5">
       <c r="A9" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -29769,17 +30171,17 @@
       <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -29787,35 +30189,35 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.5">
+      <c r="A16" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B16" s="51" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="43.5">
-      <c r="A16" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:2">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,38 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
     <sheet name="FlaskSQL" sheetId="2" r:id="rId2"/>
-    <sheet name="Django" sheetId="3" r:id="rId3"/>
-    <sheet name="React" sheetId="4" r:id="rId4"/>
-    <sheet name="web" sheetId="5" r:id="rId5"/>
-    <sheet name="Selenium" sheetId="6" r:id="rId6"/>
-    <sheet name="excel" sheetId="7" r:id="rId7"/>
-    <sheet name="FastTyping" sheetId="8" r:id="rId8"/>
-    <sheet name="basics" sheetId="9" r:id="rId9"/>
-    <sheet name="Побит и атомарность" sheetId="23" r:id="rId10"/>
-    <sheet name="Clev_funcs" sheetId="10" r:id="rId11"/>
-    <sheet name="int, float, decimal" sheetId="11" r:id="rId12"/>
-    <sheet name="Strings" sheetId="12" r:id="rId13"/>
-    <sheet name="reg_exp" sheetId="13" r:id="rId14"/>
-    <sheet name="List, Dict" sheetId="14" r:id="rId15"/>
-    <sheet name="ООП" sheetId="15" r:id="rId16"/>
-    <sheet name="Set(Множ-во)" sheetId="16" r:id="rId17"/>
-    <sheet name="Generator" sheetId="17" r:id="rId18"/>
-    <sheet name="os, shutil" sheetId="18" r:id="rId19"/>
-    <sheet name="datetime" sheetId="19" r:id="rId20"/>
-    <sheet name="word" sheetId="20" r:id="rId21"/>
-    <sheet name="pipes" sheetId="21" r:id="rId22"/>
-    <sheet name="pip, venv, import" sheetId="22" r:id="rId23"/>
-    <sheet name="if" sheetId="24" r:id="rId24"/>
-    <sheet name="with" sheetId="25" r:id="rId25"/>
-    <sheet name="Threads" sheetId="26" r:id="rId26"/>
-    <sheet name="Async-await" sheetId="27" r:id="rId27"/>
-    <sheet name="SAP" sheetId="28" r:id="rId28"/>
-    <sheet name="Formats" sheetId="29" r:id="rId29"/>
+    <sheet name="SQL" sheetId="30" r:id="rId3"/>
+    <sheet name="Django" sheetId="3" r:id="rId4"/>
+    <sheet name="React" sheetId="4" r:id="rId5"/>
+    <sheet name="web" sheetId="5" r:id="rId6"/>
+    <sheet name="Selenium" sheetId="6" r:id="rId7"/>
+    <sheet name="excel" sheetId="7" r:id="rId8"/>
+    <sheet name="FastTyping" sheetId="8" r:id="rId9"/>
+    <sheet name="basics" sheetId="9" r:id="rId10"/>
+    <sheet name="Побит и атомарность" sheetId="23" r:id="rId11"/>
+    <sheet name="Clev_funcs" sheetId="10" r:id="rId12"/>
+    <sheet name="int, float, decimal" sheetId="11" r:id="rId13"/>
+    <sheet name="Strings" sheetId="12" r:id="rId14"/>
+    <sheet name="reg_exp" sheetId="13" r:id="rId15"/>
+    <sheet name="List, Dict" sheetId="14" r:id="rId16"/>
+    <sheet name="ООП" sheetId="15" r:id="rId17"/>
+    <sheet name="Set(Множ-во)" sheetId="16" r:id="rId18"/>
+    <sheet name="Generator" sheetId="17" r:id="rId19"/>
+    <sheet name="os, shutil" sheetId="18" r:id="rId20"/>
+    <sheet name="datetime" sheetId="19" r:id="rId21"/>
+    <sheet name="word" sheetId="20" r:id="rId22"/>
+    <sheet name="pipes" sheetId="21" r:id="rId23"/>
+    <sheet name="pip, venv, import" sheetId="22" r:id="rId24"/>
+    <sheet name="if" sheetId="24" r:id="rId25"/>
+    <sheet name="with" sheetId="25" r:id="rId26"/>
+    <sheet name="Threads" sheetId="26" r:id="rId27"/>
+    <sheet name="Async-await" sheetId="27" r:id="rId28"/>
+    <sheet name="SAP" sheetId="28" r:id="rId29"/>
+    <sheet name="Formats" sheetId="29" r:id="rId30"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1020">
   <si>
     <r>
       <rPr>
@@ -1830,278 +1831,6 @@
   </si>
   <si>
     <t>модель SqlAlchemy «Users»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> User(UserMixin, db.Model):
-    id = db.Column(db.Integer, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>primary_key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>=True)                        # INTEGER NOT NULL PRIMARY KEY
-    username = db.Column(db.String(64),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">=True, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>unique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">=True)        # VARCHAR(64) NOT NULL
-    email = db.Column(db.String(120), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">=True, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>unique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>=True)          # VARCHAR(120)
-    password_hash = db.Column(db.String(128))                           # VARCHAR(128)
-    posts = db.relationship('Posts',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> backref</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">='author', </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>lazy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">='dynamic')
-    # relationship - не фактическое поле, а высокоуровновая ссылка для отношения между объектами ORM
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>def</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>__repr__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">):
-        return '&lt;User {}&gt;'.format(self.username)
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>def</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> set_password(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, password):
-        self.password_hash = generate_password_hash(password)
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>def</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> check_password(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, password):
-        return check_password_hash(self.password_hash, password)</t>
-    </r>
-  </si>
-  <si>
-    <t>Таблица "Users" в формате класса Алхимии</t>
   </si>
   <si>
     <r>
@@ -21404,6 +21133,351 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Запустить фласк без перезапусков из-за изменения кода (чтоб на фоне программировать)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">flask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>run</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>--no-reload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Удалить лишние импорты</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+L</t>
+  </si>
+  <si>
+    <t>Форматировать фрагмент под PEP8</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+Shift+L</t>
+  </si>
+  <si>
+    <t>Форматировать весь файл под PEP8</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + O</t>
+  </si>
+  <si>
+    <t>Редактирование миграций</t>
+  </si>
+  <si>
+    <t>В upgrade добавить:
+op.execute("create schema vostok")
+В downgrade добавить:
+op.execute("drop schema vostok")</t>
+  </si>
+  <si>
+    <t>Добавить создание схемы в миграции (само почему-то не создаётся)</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> User(UserMixin, db.Model):
+    id = db.Column(db.Integer, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>primary_key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=True)                        # INTEGER NOT NULL PRIMARY KEY
+    username = db.Column(db.String(64),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">=True, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">=True)        # VARCHAR(64) NOT NULL
+    email = db.Column(db.String(120), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">=True, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=True)          # VARCHAR(120)
+    password_hash = db.Column(db.String(128))                           # VARCHAR(128)
+    posts = db.relationship('Posts',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> backref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">='author', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>lazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">='dynamic')
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>__repr__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">):
+        return '&lt;User {}&gt;'.format(self.username)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> set_password(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, password):
+        self.password_hash = generate_password_hash(password)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> check_password(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, password):
+        return check_password_hash(self.password_hash, password)</t>
+    </r>
+  </si>
+  <si>
+    <t>Таблица "Users" в формате класса Алхимии
+# relationship - не фактическое поле, а высокоуровновая ссылка для отношения между объектами ORM</t>
   </si>
 </sst>
 </file>
@@ -22249,7 +22323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -22337,12 +22411,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -22704,6 +22791,15 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -22716,11 +22812,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23074,10 +23170,10 @@
   <sheetPr>
     <tabColor rgb="FF40C4FF"/>
   </sheetPr>
-  <dimension ref="A1:AMJ18"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -23115,88 +23211,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:2" ht="29">
+      <c r="A5" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="43.5">
+    <row r="14" spans="1:2" ht="29">
       <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="43.5">
+      <c r="A16" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="130" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="126" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B19" s="126"/>
+    </row>
+    <row r="20" spans="1:2" ht="43.5">
+      <c r="A20" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B17" s="130"/>
-    </row>
-    <row r="18" spans="1:2" ht="43.5">
-      <c r="A18" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1007</v>
+      <c r="B20" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -23210,6 +23318,209 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ32"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="86.54296875" style="46" customWidth="1"/>
+    <col min="3" max="1024" width="53.36328125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="87">
+      <c r="A4" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5">
+      <c r="A5" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:2" ht="87">
+      <c r="A7" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="130.5">
+      <c r="A9" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72.5">
+      <c r="A10" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.5">
+      <c r="A16" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
@@ -23231,39 +23542,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="91" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="E1" s="92" t="s">
         <v>845</v>
       </c>
-      <c r="C1" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="91" t="s">
+      <c r="F1" s="92" t="s">
         <v>846</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>847</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="93" t="s">
         <v>851</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="E2" s="93" t="s">
-        <v>853</v>
       </c>
       <c r="F2" s="94">
         <v>0</v>
@@ -23272,19 +23583,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="73" t="s">
+        <v>852</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>853</v>
+      </c>
+      <c r="C3" s="96" t="s">
         <v>854</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="D3" s="73" t="s">
         <v>855</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="E3" s="93" t="s">
         <v>856</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>857</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>858</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -23293,19 +23604,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="93" t="s">
         <v>860</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>862</v>
       </c>
       <c r="F4" s="94">
         <v>2</v>
@@ -23314,19 +23625,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="73" t="s">
+        <v>861</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>862</v>
+      </c>
+      <c r="C5" s="96" t="s">
         <v>863</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="D5" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="E5" s="93" t="s">
         <v>865</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>866</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>867</v>
       </c>
       <c r="F5" s="94">
         <v>3</v>
@@ -23339,7 +23650,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="93" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F6" s="94">
         <v>4</v>
@@ -23352,7 +23663,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="93" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F7" s="94">
         <v>5</v>
@@ -23365,7 +23676,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="93" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F8" s="94">
         <v>6</v>
@@ -23378,7 +23689,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="93" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F9" s="94">
         <v>7</v>
@@ -23387,19 +23698,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="93" t="s">
         <v>874</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>876</v>
       </c>
       <c r="F10" s="94">
         <v>8</v>
@@ -23408,19 +23719,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="93" t="s">
         <v>879</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>881</v>
       </c>
       <c r="F11" s="94">
         <v>9</v>
@@ -23429,19 +23740,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="93" t="s">
         <v>884</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>886</v>
       </c>
       <c r="F12" s="94">
         <v>10</v>
@@ -23450,19 +23761,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="93" t="s">
         <v>889</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>891</v>
       </c>
       <c r="F13" s="94">
         <v>11</v>
@@ -23475,7 +23786,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="93" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F14" s="94">
         <v>12</v>
@@ -23488,7 +23799,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="93" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F15" s="94">
         <v>13</v>
@@ -23497,19 +23808,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>893</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>895</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="E16" s="93" t="s">
         <v>896</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>897</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>898</v>
       </c>
       <c r="F16" s="94">
         <v>14</v>
@@ -23518,17 +23829,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F17" s="94">
         <v>15</v>
@@ -23537,19 +23848,19 @@
     </row>
     <row r="18" spans="1:7" ht="29">
       <c r="A18" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>902</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>903</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="E18" s="93" t="s">
         <v>904</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>905</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>906</v>
       </c>
       <c r="F18" s="94">
         <v>16</v>
@@ -23562,7 +23873,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="93" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F19" s="94">
         <v>17</v>
@@ -23574,7 +23885,7 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="93" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F20" s="94">
         <v>18</v>
@@ -23587,7 +23898,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="93" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F21" s="94">
         <v>19</v>
@@ -23600,7 +23911,7 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="93" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F22" s="94">
         <v>20</v>
@@ -23635,59 +23946,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="130" t="s">
+        <v>909</v>
+      </c>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A28" s="129" t="s">
+        <v>910</v>
+      </c>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A29" s="129" t="s">
         <v>911</v>
       </c>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="126" t="s">
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A30" s="129" t="s">
         <v>912</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="126" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1">
+      <c r="A31" s="129" t="s">
         <v>913</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="126" t="s">
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A32" s="129" t="s">
         <v>914</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="126" t="s">
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="129" t="s">
         <v>915</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="126" t="s">
-        <v>916</v>
-      </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="126" t="s">
-        <v>917</v>
-      </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -23705,15 +24016,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -23723,24 +24034,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1">
@@ -23749,26 +24060,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87">
       <c r="A6" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
       <c r="A7" s="55" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -23777,34 +24088,34 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="57" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
       <c r="A11" s="27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87">
       <c r="A12" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -23813,15 +24124,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="101.5">
       <c r="A15" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B15" s="54"/>
     </row>
@@ -23835,16 +24146,16 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="58">
       <c r="A19" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -23857,26 +24168,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -23889,18 +24200,18 @@
     </row>
     <row r="27" spans="1:2" ht="29">
       <c r="A27" s="23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
       <c r="A28" s="58" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -23908,7 +24219,7 @@
       <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="129"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="110"/>
     </row>
     <row r="31" spans="1:2">
@@ -23977,7 +24288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -23991,56 +24302,56 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
       <c r="A6" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24"/>
       <c r="B7" s="59" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -24069,7 +24380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF33691E"/>
@@ -24092,291 +24403,291 @@
   <sheetData>
     <row r="1" spans="1:4" s="32" customFormat="1">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="32" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="32" customFormat="1" ht="130.5">
       <c r="A3" s="21"/>
       <c r="B3" s="61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>383</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5">
       <c r="A5" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>386</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29">
       <c r="A6" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>389</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="43.5">
       <c r="A8" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>394</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
       <c r="B9" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="87">
       <c r="B10" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="29">
       <c r="B11" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="29">
       <c r="B12" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="29">
       <c r="B13" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="B14" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="29">
       <c r="B15" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="43.5">
       <c r="B16" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="43.5">
       <c r="B17" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="29">
       <c r="B18" s="27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="43.5">
       <c r="B19" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="29">
       <c r="B21" s="27" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="29">
       <c r="B22" s="27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="43.5">
       <c r="B23" s="27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="29">
       <c r="B24" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="29">
       <c r="B26" s="62" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="58">
       <c r="B27" s="62" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="29">
       <c r="B28" s="47" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="29">
       <c r="B29" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="29">
       <c r="B30" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" spans="2:4" ht="43.5">
       <c r="B31" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="29">
       <c r="B32" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -24424,7 +24735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFB2FF59"/>
@@ -24443,40 +24754,40 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -24485,42 +24796,42 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -24529,18 +24840,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="51" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -24549,178 +24860,178 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="65" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="65" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="65" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29">
       <c r="A22" s="66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="42" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="87">
       <c r="A37" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24730,39 +25041,39 @@
     <row r="39" spans="1:2">
       <c r="A39" s="67"/>
       <c r="B39" s="67" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="101.5">
       <c r="A40" s="68" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="58">
       <c r="A41" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="188.5">
       <c r="A42" s="69" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="58">
       <c r="A43" s="69" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24795,15 +25106,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AMJ149"/>
+  <dimension ref="A1:AMJ158"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -24815,184 +25126,184 @@
   <sheetData>
     <row r="1" spans="1:2" s="32" customFormat="1">
       <c r="A1" s="70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="34" t="s">
-        <v>516</v>
-      </c>
+      <c r="A2" s="132" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" s="133"/>
     </row>
     <row r="3" spans="1:2" s="71" customFormat="1">
       <c r="A3" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="71" customFormat="1">
       <c r="A4" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="71" customFormat="1">
       <c r="A5" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="71" customFormat="1">
       <c r="A6" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="71" customFormat="1">
       <c r="A7" s="72" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="71" customFormat="1">
       <c r="A8" s="72" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="71" customFormat="1" ht="72.5">
       <c r="A9" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A10" s="24" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="71" customFormat="1">
       <c r="A11" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="71" customFormat="1">
       <c r="A12" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="71" customFormat="1">
       <c r="A13" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="71" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="71" customFormat="1">
       <c r="A15" s="24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="71" customFormat="1">
       <c r="A16" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A17" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="71" customFormat="1">
       <c r="A18" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="71" customFormat="1">
       <c r="A19" s="27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="71" customFormat="1">
       <c r="A20" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A21" s="24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A22" s="24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="71" customFormat="1">
       <c r="A23" s="24" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="71" customFormat="1">
@@ -25001,26 +25312,26 @@
     </row>
     <row r="25" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A25" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A26" s="24" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="71" customFormat="1">
       <c r="A27" s="47" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="71" customFormat="1">
@@ -25029,522 +25340,506 @@
     </row>
     <row r="29" spans="1:2" s="71" customFormat="1">
       <c r="A29" s="24" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="71" customFormat="1">
       <c r="A30" s="24" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="71" customFormat="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="32" spans="1:2" s="71" customFormat="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="71" customFormat="1">
+      <c r="A33" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="71" customFormat="1">
+      <c r="A34" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="71" customFormat="1">
+      <c r="A35" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="71" customFormat="1" ht="29">
+      <c r="A36" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="71" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="71" customFormat="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="1:2" s="71" customFormat="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" spans="1:2" s="71" customFormat="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+    </row>
+    <row r="41" spans="1:2" s="71" customFormat="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+    </row>
+    <row r="42" spans="1:2" s="71" customFormat="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:2" s="71" customFormat="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:2" s="71" customFormat="1">
+      <c r="A44" s="132" t="s">
+        <v>561</v>
+      </c>
+      <c r="B44" s="133"/>
+    </row>
+    <row r="45" spans="1:2" s="71" customFormat="1" ht="58">
+      <c r="A45" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="B45" s="73" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="71" customFormat="1" ht="58">
-      <c r="A33" s="73" t="s">
+    <row r="46" spans="1:2" s="71" customFormat="1" ht="29">
+      <c r="A46" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B46" s="74" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="71" customFormat="1" ht="29">
-      <c r="A34" s="4" t="s">
+    <row r="47" spans="1:2" s="71" customFormat="1">
+      <c r="A47" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B47" s="74" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="71" customFormat="1">
-      <c r="A35" s="4" t="s">
+    <row r="48" spans="1:2" s="71" customFormat="1">
+      <c r="A48" s="74" t="s">
         <v>568</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B48" s="74" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="71" customFormat="1">
-      <c r="A36" s="74" t="s">
+    <row r="49" spans="1:2" s="71" customFormat="1">
+      <c r="A49" s="74" t="s">
         <v>570</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B49" s="74" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="71" customFormat="1">
-      <c r="A37" s="74" t="s">
+    <row r="50" spans="1:2" s="71" customFormat="1">
+      <c r="A50" s="74" t="s">
         <v>572</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B50" s="74" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="71" customFormat="1">
-      <c r="A38" s="74" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B51" s="75" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+    <row r="52" spans="1:2" ht="29">
+      <c r="A52" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B52" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29">
-      <c r="A40" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="29">
-      <c r="A46" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="27" t="s">
+    <row r="53" spans="1:2" ht="43.5">
+      <c r="A53" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B53" s="21" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="43.5">
-      <c r="A48" s="27" t="s">
-        <v>594</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="25"/>
-    </row>
-    <row r="50" spans="1:2" ht="29">
-      <c r="A50" s="27" t="s">
-        <v>596</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="87">
-      <c r="A53" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="43.5">
-      <c r="A54" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>603</v>
-      </c>
+    <row r="54" spans="1:2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="25"/>
     </row>
     <row r="55" spans="1:2" ht="29">
       <c r="A55" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="87">
+      <c r="A58" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="43.5">
+      <c r="A59" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="29">
+      <c r="A60" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29">
+      <c r="A62" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B62" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="B55" s="27" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="27" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="29">
-      <c r="A57" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="B57" s="27" t="s">
+      <c r="B63" s="27" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="27" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="127"/>
+      <c r="B64" s="127"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="127"/>
+      <c r="B65" s="127"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="127"/>
+      <c r="B66" s="127"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="127"/>
+      <c r="B67" s="127"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="67" t="s">
         <v>607</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B69" s="67" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="67" t="s">
+    <row r="70" spans="1:2" ht="58">
+      <c r="A70" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="B60" s="67" t="s">
+      <c r="B70" s="27"/>
+    </row>
+    <row r="71" spans="1:2" ht="43.5">
+      <c r="A71" s="76" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="58">
-      <c r="A61" s="27" t="s">
+      <c r="B71" s="27" t="s">
         <v>611</v>
       </c>
-      <c r="B61" s="27"/>
-    </row>
-    <row r="62" spans="1:2" ht="43.5">
-      <c r="A62" s="76" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="87">
+      <c r="A72" s="76" t="s">
         <v>612</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B72" s="27" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="87">
-      <c r="A63" s="76" t="s">
+    <row r="73" spans="1:2" ht="70">
+      <c r="A73" s="77" t="s">
         <v>614</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B73" s="27" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="70">
-      <c r="A64" s="77" t="s">
+    <row r="74" spans="1:2" ht="159.5">
+      <c r="A74" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B74" s="27" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="159.5">
-      <c r="A65" s="27" t="s">
+    <row r="75" spans="1:2" ht="203">
+      <c r="A75" s="76" t="s">
         <v>618</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B75" s="27" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="203">
-      <c r="A66" s="76" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="67" t="s">
         <v>620</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B77" s="67" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="67" t="s">
+    <row r="78" spans="1:2" ht="87">
+      <c r="A78" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="B68" s="67" t="s">
+      <c r="B78" s="27" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="87">
-      <c r="A69" s="27" t="s">
+    <row r="79" spans="1:2" ht="87">
+      <c r="A79" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B79" s="27" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="87">
-      <c r="A70" s="27" t="s">
-        <v>626</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-    </row>
-    <row r="73" spans="1:2" ht="29">
-      <c r="A73" s="67" t="s">
-        <v>628</v>
-      </c>
-      <c r="B73" s="67" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="43.5">
-      <c r="A74" s="68" t="s">
-        <v>630</v>
-      </c>
-      <c r="B74" s="27"/>
-    </row>
-    <row r="75" spans="1:2" ht="29">
-      <c r="A75" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="72.5">
-      <c r="A76" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="72.5">
-      <c r="A77" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="43.5">
-      <c r="A78" s="78" t="s">
-        <v>637</v>
-      </c>
-      <c r="B78" s="78" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="67" t="s">
-        <v>639</v>
-      </c>
-      <c r="B81" s="67" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="116">
-      <c r="A82" s="27" t="s">
-        <v>641</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>642</v>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+    </row>
+    <row r="82" spans="1:2" ht="29">
+      <c r="A82" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="B82" s="67" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="43.5">
-      <c r="A83" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="67" t="s">
-        <v>645</v>
-      </c>
-      <c r="B85" s="67" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="43.5">
-      <c r="A86" s="68" t="s">
-        <v>647</v>
+      <c r="A83" s="68" t="s">
+        <v>628</v>
+      </c>
+      <c r="B83" s="27"/>
+    </row>
+    <row r="84" spans="1:2" ht="29">
+      <c r="A84" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="72.5">
+      <c r="A85" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="72.5">
+      <c r="A86" s="27" t="s">
+        <v>633</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="72.5">
-      <c r="A87" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="43.5">
-      <c r="A88" s="27" t="s">
-        <v>651</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>652</v>
-      </c>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="43.5">
+      <c r="A87" s="78" t="s">
+        <v>635</v>
+      </c>
+      <c r="B87" s="78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="67" t="s">
+      <c r="A90" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="B90" s="67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="116">
+      <c r="A91" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="43.5">
+      <c r="A92" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="B94" s="67" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="43.5">
+      <c r="A95" s="68" t="s">
+        <v>645</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="72.5">
+      <c r="A96" s="27" t="s">
+        <v>647</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="43.5">
+      <c r="A97" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="67" t="s">
+        <v>651</v>
+      </c>
+      <c r="B100" s="67" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="87">
+      <c r="A101" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B101" s="27"/>
+    </row>
+    <row r="102" spans="1:2" ht="46.4" customHeight="1">
+      <c r="A102" s="27" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="87">
-      <c r="A92" s="27" t="s">
+      <c r="B102" s="131" t="s">
         <v>655</v>
       </c>
-      <c r="B92" s="27"/>
-    </row>
-    <row r="93" spans="1:2" ht="46.4" customHeight="1">
-      <c r="A93" s="27" t="s">
+    </row>
+    <row r="103" spans="1:2" ht="49.75" customHeight="1">
+      <c r="A103" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="B93" s="128" t="s">
+      <c r="B103" s="131"/>
+    </row>
+    <row r="104" spans="1:2" ht="43.5">
+      <c r="A104" s="27" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="49.75" customHeight="1">
-      <c r="A94" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="B94" s="128"/>
-    </row>
-    <row r="95" spans="1:2" ht="43.5">
-      <c r="A95" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="B95" s="27"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="67" t="s">
-        <v>660</v>
-      </c>
-      <c r="B98" s="67" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="87">
-      <c r="A99" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="B99" s="27"/>
-    </row>
-    <row r="100" spans="1:2" ht="101.5">
-      <c r="A100" s="68" t="s">
-        <v>663</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="72.5">
-      <c r="A101" s="27" t="s">
-        <v>665</v>
-      </c>
-      <c r="B101" s="27"/>
-    </row>
-    <row r="102" spans="1:2" ht="29">
-      <c r="A102" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="27"/>
       <c r="B104" s="27"/>
     </row>
     <row r="105" spans="1:2">
@@ -25557,191 +25852,195 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="67" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B107" s="67" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="68" t="s">
-        <v>670</v>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="87">
+      <c r="A108" s="27" t="s">
+        <v>660</v>
       </c>
       <c r="B108" s="27"/>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="54" t="s">
-        <v>671</v>
+    <row r="109" spans="1:2" ht="101.5">
+      <c r="A109" s="68" t="s">
+        <v>661</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="58">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="72.5">
       <c r="A110" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>674</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="B110" s="27"/>
     </row>
     <row r="111" spans="1:2" ht="29">
       <c r="A111" s="27" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="58">
-      <c r="A113" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>680</v>
-      </c>
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="67" t="s">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="B116" s="67" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="68" t="s">
+        <v>668</v>
+      </c>
+      <c r="B117" s="27"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="54" t="s">
+        <v>669</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="58">
+      <c r="A119" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="29">
+      <c r="A120" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="58">
+      <c r="A122" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="67" t="s">
+        <v>679</v>
+      </c>
+      <c r="B124" s="67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="188.5">
+      <c r="A125" s="68" t="s">
         <v>681</v>
       </c>
-      <c r="B115" s="67" t="s">
+      <c r="B125" s="27"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="27" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="188.5">
-      <c r="A116" s="68" t="s">
+      <c r="B126" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="B116" s="27"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="27" t="s">
+    </row>
+    <row r="127" spans="1:2" ht="232">
+      <c r="A127" s="68" t="s">
         <v>684</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B127" s="30" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="232">
-      <c r="A118" s="68" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="67" t="s">
         <v>686</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B129" s="67" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="67" t="s">
+    <row r="130" spans="1:2" ht="261">
+      <c r="A130" s="27" t="s">
         <v>688</v>
       </c>
-      <c r="B120" s="67" t="s">
+      <c r="B130" s="27" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="261">
-      <c r="A121" s="27" t="s">
+    <row r="131" spans="1:2" ht="29">
+      <c r="A131" s="67" t="s">
         <v>690</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B131" s="67" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="29">
-      <c r="A122" s="67" t="s">
+    <row r="132" spans="1:2" ht="304.5">
+      <c r="A132" s="68" t="s">
         <v>692</v>
       </c>
-      <c r="B122" s="67" t="s">
+      <c r="B132" s="27" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="304.5">
-      <c r="A123" s="68" t="s">
+    <row r="133" spans="1:2" ht="87">
+      <c r="A133" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B133" s="27" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="87">
-      <c r="A124" s="27" t="s">
+    <row r="134" spans="1:2" ht="116">
+      <c r="A134" s="27" t="s">
         <v>696</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B134" s="27" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="116">
-      <c r="A125" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-    </row>
-    <row r="128" spans="1:2" ht="29">
-      <c r="A128" s="110" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B128" s="110" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="24" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="24" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="27"/>
@@ -25751,17 +26050,29 @@
       <c r="A136" s="27"/>
       <c r="B136" s="27"/>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
+    <row r="137" spans="1:2" ht="29">
+      <c r="A137" s="110" t="s">
+        <v>998</v>
+      </c>
+      <c r="B137" s="110" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
+      <c r="A138" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
+      <c r="A139" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="27"/>
@@ -25803,16 +26114,54 @@
       <c r="A149" s="27"/>
       <c r="B149" s="27"/>
     </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="27"/>
+      <c r="B157" s="27"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="27"/>
+      <c r="B158" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B93:B94"/>
+  <mergeCells count="3">
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFD740"/>
@@ -25831,34 +26180,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="288" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="348">
       <c r="A3" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="232">
       <c r="A4" s="80" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26011,7 +26360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -26025,82 +26374,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5">
       <c r="A2" s="24" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -26189,7 +26538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -26199,42 +26548,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
       <c r="A3" s="24" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -26263,7 +26612,426 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFEF6C00"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="106.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" style="8" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="130.5">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="87">
+      <c r="A3" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="101.5">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="101.5">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72.5">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="232">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29">
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="124"/>
+    </row>
+    <row r="15" spans="1:2" ht="256.5">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="135">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="175.5">
+      <c r="A17" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="121.5">
+      <c r="A18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="108" t="s">
+        <v>981</v>
+      </c>
+      <c r="B20" s="108"/>
+    </row>
+    <row r="21" spans="1:2" ht="29">
+      <c r="A21" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.5">
+      <c r="A22" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="29">
+      <c r="A23" s="122" t="s">
+        <v>982</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72.5">
+      <c r="A24" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="58">
+      <c r="A25" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="43.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="108" t="s">
+        <v>971</v>
+      </c>
+      <c r="B28" s="108"/>
+    </row>
+    <row r="29" spans="1:2" ht="29">
+      <c r="A29" s="107" t="s">
+        <v>963</v>
+      </c>
+      <c r="B29" s="107" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" ht="29">
+      <c r="A31" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.5">
+      <c r="A32" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29">
+      <c r="A34" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" ht="189">
+      <c r="A42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="1:2" ht="58">
+      <c r="A48" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId2"/>
+    <hyperlink ref="A29" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -26282,183 +27050,183 @@
   <sheetData>
     <row r="1" spans="1:2" s="82" customFormat="1" ht="18.5">
       <c r="A1" s="81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5">
       <c r="A8" s="47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="24" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="27" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
       <c r="A13" s="27" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5">
       <c r="A14" s="27" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="27" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58">
       <c r="A17" s="27" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>762</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>763</v>
+        <v>760</v>
+      </c>
+      <c r="B18" s="131" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="83" t="s">
-        <v>764</v>
-      </c>
-      <c r="B19" s="128"/>
+        <v>762</v>
+      </c>
+      <c r="B19" s="131"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="83" t="s">
-        <v>765</v>
-      </c>
-      <c r="B20" s="128"/>
+        <v>763</v>
+      </c>
+      <c r="B20" s="131"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="83" t="s">
-        <v>766</v>
-      </c>
-      <c r="B21" s="128"/>
+        <v>764</v>
+      </c>
+      <c r="B21" s="131"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="83" t="s">
-        <v>767</v>
-      </c>
-      <c r="B22" s="128"/>
+        <v>765</v>
+      </c>
+      <c r="B22" s="131"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="83" t="s">
-        <v>768</v>
-      </c>
-      <c r="B23" s="128"/>
+        <v>766</v>
+      </c>
+      <c r="B23" s="131"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="83" t="s">
-        <v>769</v>
-      </c>
-      <c r="B24" s="128"/>
+        <v>767</v>
+      </c>
+      <c r="B24" s="131"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -26466,10 +27234,10 @@
     </row>
     <row r="26" spans="1:2" ht="29">
       <c r="A26" s="27" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -26529,442 +27297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFEF6C00"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="106.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="8" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" ht="130.5">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87">
-      <c r="A3" s="12" t="s">
-        <v>996</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="101.5">
-      <c r="A4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="101.5">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="72.5">
-      <c r="A6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="232">
-      <c r="A7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="124"/>
-    </row>
-    <row r="15" spans="1:2" ht="256.5">
-      <c r="A15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="135">
-      <c r="A16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="189">
-      <c r="A17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="121.5">
-      <c r="A18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="108" t="s">
-        <v>983</v>
-      </c>
-      <c r="B20" s="108"/>
-    </row>
-    <row r="21" spans="1:2" ht="29">
-      <c r="A21" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="43.5">
-      <c r="A22" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" ht="29">
-      <c r="A23" s="122" t="s">
-        <v>984</v>
-      </c>
-      <c r="B23" s="122" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="72.5">
-      <c r="A24" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" ht="58">
-      <c r="A25" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="43.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="108" t="s">
-        <v>973</v>
-      </c>
-      <c r="B28" s="108"/>
-    </row>
-    <row r="29" spans="1:2" ht="29">
-      <c r="A29" s="107" t="s">
-        <v>965</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" ht="29">
-      <c r="A31" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="43.5">
-      <c r="A32" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29">
-      <c r="A34" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:2" ht="189">
-      <c r="A42" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="19"/>
-    </row>
-    <row r="48" spans="1:2" ht="43.5">
-      <c r="A48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="29">
-      <c r="A49" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="72.5">
-      <c r="A50" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="29">
-      <c r="A51" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B29" r:id="rId2"/>
-    <hyperlink ref="A29" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -26983,18 +27316,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="64" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27003,42 +27336,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="54" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="54" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
       <c r="A6" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="24" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="27" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -27047,74 +27380,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="24" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -27131,7 +27464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -27144,10 +27477,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -27156,10 +27489,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -27176,7 +27509,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B7" s="34"/>
     </row>
@@ -27194,15 +27527,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B12" s="27"/>
     </row>
@@ -27256,7 +27589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -27269,21 +27602,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="85" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="51" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B3" s="51"/>
     </row>
@@ -27337,7 +27670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
@@ -27353,86 +27686,86 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="87" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="58">
       <c r="A6" s="25" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="25" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="25" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="25" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="89" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -27445,56 +27778,56 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="90" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B14" s="88"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="27" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="27" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="27" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -27503,30 +27836,30 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="34" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5">
       <c r="A24" s="27" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -27570,7 +27903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -27583,34 +27916,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="27" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27675,7 +28008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
@@ -27690,26 +28023,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="64" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="64" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -27718,7 +28051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -27732,34 +28065,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27768,26 +28101,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="98" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="99" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="99" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -27816,7 +28149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -27830,26 +28163,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="100" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -27858,7 +28191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -27871,7 +28204,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -28017,7 +28350,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68.36328125" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="43.5">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29">
+      <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.5">
+      <c r="A4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
@@ -28037,16 +28431,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="103" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="102"/>
       <c r="B3" s="102" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -28207,7 +28601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF548235"/>
@@ -28227,54 +28621,54 @@
     </row>
     <row r="2" spans="1:2" ht="18.5">
       <c r="A2" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
       <c r="A6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -28291,26 +28685,26 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -28319,18 +28713,18 @@
     </row>
     <row r="16" spans="1:2" ht="101.5">
       <c r="A16" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="87">
       <c r="A17" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -28339,24 +28733,24 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="23"/>
     </row>
     <row r="20" spans="1:2" ht="72.5">
       <c r="A20" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
       <c r="A21" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -28377,53 +28771,53 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="23"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5">
       <c r="A32" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="24"/>
     </row>
@@ -28433,32 +28827,32 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:2" ht="43.5">
       <c r="A35" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29">
       <c r="A37" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -28479,32 +28873,32 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="58">
       <c r="A44" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -28533,7 +28927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFD966"/>
@@ -28554,56 +28948,56 @@
     </row>
     <row r="2" spans="1:2" ht="18.5">
       <c r="A2" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -28612,26 +29006,26 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -28648,78 +29042,78 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="23"/>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="24"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1">
+      <c r="A20" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="125"/>
+      <c r="B20" s="128"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -28732,24 +29126,24 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -28817,7 +29211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -28838,46 +29232,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="58">
       <c r="A3" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="29">
       <c r="A5" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="27"/>
     </row>
@@ -28888,7 +29282,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="110" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="106"/>
@@ -28930,17 +29324,17 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="110" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" ht="42.5">
       <c r="A16" s="102" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C16" s="27"/>
     </row>
@@ -28976,16 +29370,16 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="113" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B24" s="113"/>
     </row>
     <row r="25" spans="1:3" ht="87">
       <c r="A25" s="112" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -29038,7 +29432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
@@ -29055,10 +29449,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -29067,26 +29461,26 @@
     </row>
     <row r="3" spans="1:2" ht="304.5">
       <c r="A3" s="109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="159.5">
       <c r="A4" s="109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="117" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -29095,82 +29489,82 @@
     </row>
     <row r="7" spans="1:2" ht="87">
       <c r="A7" s="118" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
       <c r="A9" s="76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="130.5">
       <c r="A10" s="119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="145">
       <c r="A11" s="118" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="203">
       <c r="A12" s="109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="141.5">
       <c r="A14" s="120" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" s="121" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5">
       <c r="A15" s="109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="116" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" s="112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -29290,7 +29684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -29308,10 +29702,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="32" customFormat="1">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
@@ -29320,18 +29714,18 @@
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -29344,146 +29738,146 @@
     </row>
     <row r="7" spans="1:2" ht="58">
       <c r="A7" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.5">
       <c r="A11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="72.5">
       <c r="A20" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
       <c r="A21" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.5">
       <c r="A22" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="58">
       <c r="A23" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="116">
       <c r="A24" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -29496,56 +29890,56 @@
     </row>
     <row r="28" spans="1:2" ht="58">
       <c r="A28" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="87">
       <c r="A29" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29">
       <c r="A30" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27"/>
       <c r="B34" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -29554,34 +29948,34 @@
     </row>
     <row r="36" spans="1:2" ht="87">
       <c r="A36" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="87">
       <c r="A38" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="116">
       <c r="A39" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -29598,72 +29992,72 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29">
       <c r="A44" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58">
       <c r="A46" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29">
       <c r="A48" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="58">
       <c r="A51" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -29680,106 +30074,106 @@
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
       <c r="A56" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="58">
       <c r="A57" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="29">
       <c r="A59" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29">
       <c r="A64" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="159.5">
       <c r="A66" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="72.5">
       <c r="A67" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -29848,11 +30242,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
@@ -29861,26 +30257,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -29913,24 +30309,24 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -29939,34 +30335,34 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -29975,18 +30371,18 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -29994,16 +30390,28 @@
       <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="45" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="45" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="45" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="45"/>
@@ -30072,209 +30480,6 @@
     <row r="42" spans="1:2">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ32"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="86.54296875" style="46" customWidth="1"/>
-    <col min="3" max="1024" width="53.36328125" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="87">
-      <c r="A4" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.5">
-      <c r="A5" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:2" ht="87">
-      <c r="A7" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="130.5">
-      <c r="A9" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="43.5">
-      <c r="A16" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="1022">
   <si>
     <r>
       <rPr>
@@ -21478,6 +21478,460 @@
   <si>
     <t>Таблица "Users" в формате класса Алхимии
 # relationship - не фактическое поле, а высокоуровновая ссылка для отношения между объектами ORM</t>
+  </si>
+  <si>
+    <t>Удалить старый Primary_key, создать новый, комплексный</t>
+  </si>
+  <si>
+    <r>
+      <t>def upgrade():
+    op.add_column(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'allowable_values'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, sa.Column(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'compressor_unit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, sa.Text(), autoincrement=False, nullable=False), schema='vostok')
+    op.drop_constraint(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'allowable_values_pkey'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'allowable_values'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>type_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'primary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'vostok'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+    op.create_primary_key(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"allowable_values_pkey"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"allowable_values"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"tag_name", "compressor_unit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'vostok'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+def downgrade():
+    op.create_primary_key(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"allowable_values_pkey"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "allowable_values"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"tag_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, ], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'vostok'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+    op.drop_column(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'allowable_values'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'compressor_unit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'vostok'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -25113,8 +25567,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -26619,8 +27073,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -26936,9 +27390,13 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+    <row r="49" spans="1:2" ht="145">
+      <c r="A49" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="20"/>
@@ -27023,7 +27481,7 @@
     <hyperlink ref="A29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="23" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="web" sheetId="5" r:id="rId6"/>
     <sheet name="Selenium" sheetId="6" r:id="rId7"/>
     <sheet name="excel" sheetId="7" r:id="rId8"/>
-    <sheet name="FastTyping" sheetId="8" r:id="rId9"/>
+    <sheet name="Hotkeys" sheetId="8" r:id="rId9"/>
     <sheet name="basics" sheetId="9" r:id="rId10"/>
     <sheet name="Побит и атомарность" sheetId="23" r:id="rId11"/>
     <sheet name="Clev_funcs" sheetId="10" r:id="rId12"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1035">
   <si>
     <r>
       <rPr>
@@ -7245,140 +7245,7 @@
     <t>Map</t>
   </si>
   <si>
-    <t>map применяет к каждому элементу списка (или любого iterable) переданную функцию.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>old_list = ['1', '2', '3', '4', '5', '6', '7']
-new_list = list(map(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, old_list))
-print (new_list)
-[1, 2, 3, 4, 5, 6, 7]</t>
-    </r>
-  </si>
-  <si>
     <t>Применяем функцию int ко всем элементам листа</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mile_distances = [1.0, 6.5, 17.4, 2.4, 9]
-kilometer_distances = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>lambda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> x: x * 1.6, mile_distances))
-print (kilometer_distances)
-[1.6, 10.4, 27.84, 3.84, 14.4]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Переводим все элементы листа их милей в километры, умножая на 1.6.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Применяем map и lambda</t>
-    </r>
   </si>
   <si>
     <r>
@@ -10510,19 +10377,10 @@
     <t>Находим общие пары (key, value)</t>
   </si>
   <si>
-    <t>list(mydict.keys())</t>
-  </si>
-  <si>
     <t>Получить лист ключей словаря</t>
   </si>
   <si>
-    <t>list(mydict.items())</t>
-  </si>
-  <si>
     <t>В Python 3 получить лист  ключей и значений из словаря. tuple-пар (key, value)</t>
-  </si>
-  <si>
-    <t>for k, v in our_dict.iteritems():</t>
   </si>
   <si>
     <t>Итерация по ключам и значениям словаря</t>
@@ -19381,28 +19239,6 @@
 https://virtualenvwrapper.readthedocs.io/en/latest/command_ref.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mkvirtualenv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> myenv</t>
-    </r>
-  </si>
-  <si>
     <t>создать енвайромент  с именем myenv  через virtualenvwrapper</t>
   </si>
   <si>
@@ -21932,6 +21768,616 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>map применяет к каждому элементу списка (или любого iterable) переданную функцию.
+Возвращат генератор ???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Переводим все элементы листа из милей в километры, умножая на 1.6.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Применяем map и lambda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mile_distances = [1.0, 6.5, 17.4, 2.4, 9]
+kilometer_distances =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> x: x * 1.6, mile_distances))
+print (kilometer_distances)
+[1.6, 10.4, 27.84, 3.84, 14.4]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">old_list = ['1', '2', '3', '4', '5', '6', '7']
+new_list = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, old_list))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (new_list)
+[1, 2, 3, 4, 5, 6, 7]</t>
+    </r>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>pyodbc==4.0.30
+pymssql==2.1.4</t>
+  </si>
+  <si>
+    <t>Пример настроек коннекшена</t>
+  </si>
+  <si>
+    <t>DATABASE_URI = 'mssql+pyodbc://{user}:{password}@{host}:{port}/{database}'.format(**{
+        'host': os.getenv('DATABASE_HOST', '172.22.130.68'),
+        'port': os.getenv('DATABASE_PORT', '1433'),
+        'database': os.getenv('DATABASE_NAME', 'RequestsDataSets?driver=SQL Server'),
+        'user': os.getenv('DATABASE_USER', 'sosechkin'),
+        'password': os.getenv('DATABASE_PASSWORD', '123456pass'),
+    })</t>
+  </si>
+  <si>
+    <t>Питоновские либы для работы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отправка PUT-запроса с прикреплённым файлом.
+Формат JsON, например, что ключ выглядит как </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'files[]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - узнавать в документации к API!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def csv_from_bak_light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(bak_file_path, output_name='\\output_database.zip'):
+        url = 'https://www.rebasedata.com/api/v1/convert?outputFormat=postgresql&amp;errorResponse=zip'
+        files = {'files[]': (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'file.bak'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, open(os.path.basename(bak_file_path),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 'rb'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">))}
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>('Отправляем запрос...')
+        response = requests.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(url, files=files)
+        response.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>raise_for_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>()  # регистрируем отрицательные ответы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">('Сохраняем ответ в файл...')
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(response.text)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(response.json)
+        with open(os.path.dirname(bak_file_path) + output_name, 'wb') as local_file:
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chunk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> response.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>iter_content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(chunk_size=128):
+                local_file.write(chunk)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(f'Результат конвертации записан в {output_name}')</t>
+    </r>
+  </si>
+  <si>
+    <t>Чтение ответного текста, json.
+Сохранение ответа на запрос  в файл.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(mydict.items())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(mydict.keys())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for k, v in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(dictionary.items()):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mkvirtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> myenv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mkvirtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> [-a project_path] [-i package] [-r requirements_file] [virtualenv options] ENVNAME</t>
+    </r>
+  </si>
+  <si>
+    <t>python3 -m venv env</t>
+  </si>
+  <si>
+    <t>venv</t>
+  </si>
+  <si>
+    <t>создать виртуальное окружение с именем env</t>
   </si>
 </sst>
 </file>
@@ -22883,7 +23329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23251,6 +23697,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -23627,7 +24077,7 @@
   <dimension ref="A1:AMJ20"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -23667,10 +24117,10 @@
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="2" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -23729,18 +24179,18 @@
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="2" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -23749,16 +24199,16 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="126" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B19" s="126"/>
     </row>
     <row r="20" spans="1:2" ht="43.5">
       <c r="A20" s="1" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -23996,39 +24446,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="91" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C1" s="91" t="s">
         <v>142</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E2" s="93" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F2" s="94">
         <v>0</v>
@@ -24037,19 +24487,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="73" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E3" s="93" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -24058,19 +24508,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="F4" s="94">
         <v>2</v>
@@ -24079,19 +24529,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="73" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F5" s="94">
         <v>3</v>
@@ -24104,7 +24554,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="93" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F6" s="94">
         <v>4</v>
@@ -24117,7 +24567,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="93" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F7" s="94">
         <v>5</v>
@@ -24130,7 +24580,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="93" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="F8" s="94">
         <v>6</v>
@@ -24143,7 +24593,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="93" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="F9" s="94">
         <v>7</v>
@@ -24152,19 +24602,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="F10" s="94">
         <v>8</v>
@@ -24173,19 +24623,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F11" s="94">
         <v>9</v>
@@ -24194,19 +24644,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="F12" s="94">
         <v>10</v>
@@ -24215,19 +24665,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F13" s="94">
         <v>11</v>
@@ -24240,7 +24690,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="93" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="F14" s="94">
         <v>12</v>
@@ -24253,7 +24703,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="93" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F15" s="94">
         <v>13</v>
@@ -24262,19 +24712,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="F16" s="94">
         <v>14</v>
@@ -24283,17 +24733,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F17" s="94">
         <v>15</v>
@@ -24302,19 +24752,19 @@
     </row>
     <row r="18" spans="1:7" ht="29">
       <c r="A18" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="F18" s="94">
         <v>16</v>
@@ -24327,7 +24777,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="93" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="F19" s="94">
         <v>17</v>
@@ -24339,7 +24789,7 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="93" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F20" s="94">
         <v>18</v>
@@ -24352,7 +24802,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="93" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="F21" s="94">
         <v>19</v>
@@ -24365,7 +24815,7 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="93" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="F22" s="94">
         <v>20</v>
@@ -24400,59 +24850,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="130" t="s">
-        <v>909</v>
-      </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
+      <c r="A27" s="132" t="s">
+        <v>901</v>
+      </c>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="129" t="s">
-        <v>910</v>
-      </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
+      <c r="A28" s="131" t="s">
+        <v>902</v>
+      </c>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="129" t="s">
-        <v>911</v>
-      </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="131" t="s">
+        <v>903</v>
+      </c>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="129" t="s">
-        <v>912</v>
-      </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
+      <c r="A30" s="131" t="s">
+        <v>904</v>
+      </c>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="129" t="s">
-        <v>913</v>
-      </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
+      <c r="A31" s="131" t="s">
+        <v>905</v>
+      </c>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="129" t="s">
-        <v>914</v>
-      </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
+      <c r="A32" s="131" t="s">
+        <v>906</v>
+      </c>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="129" t="s">
-        <v>915</v>
-      </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
+      <c r="A33" s="131" t="s">
+        <v>907</v>
+      </c>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -24477,8 +24927,8 @@
   </sheetPr>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -24540,36 +24990,36 @@
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="29">
       <c r="A9" s="57" t="s">
         <v>341</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>342</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="54" t="s">
-        <v>343</v>
+        <v>1017</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
       <c r="A11" s="27" t="s">
-        <v>345</v>
+        <v>1016</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>346</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87">
       <c r="A12" s="24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -24578,15 +25028,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="101.5">
       <c r="A15" s="27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B15" s="54"/>
     </row>
@@ -24600,16 +25050,16 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="58">
       <c r="A19" s="27" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24622,26 +25072,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24654,18 +25104,18 @@
     </row>
     <row r="27" spans="1:2" ht="29">
       <c r="A27" s="23" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
       <c r="A28" s="58" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24738,7 +25188,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24764,48 +25214,48 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="24" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
       <c r="A6" s="24" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24"/>
       <c r="B7" s="59" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -24841,8 +25291,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -24860,7 +25310,7 @@
         <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>180</v>
@@ -24869,318 +25319,323 @@
     <row r="2" spans="1:4" s="32" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="27" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="32" customFormat="1" ht="130.5">
       <c r="A3" s="21"/>
       <c r="B3" s="61" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5">
       <c r="A5" s="27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29">
       <c r="A6" s="27" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="43.5">
       <c r="A8" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
       <c r="B9" s="27" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="87">
       <c r="B10" s="27" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="29">
       <c r="B11" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="29">
       <c r="B12" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="29">
       <c r="B13" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="B14" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="29">
       <c r="B15" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="43.5">
       <c r="B16" s="27" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="43.5">
       <c r="B17" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="29">
       <c r="B18" s="27" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="43.5">
       <c r="B19" s="27" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="29">
       <c r="B21" s="27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="29">
       <c r="B22" s="27" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="43.5">
       <c r="B23" s="27" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="29">
       <c r="B24" s="27" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="27" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="29">
       <c r="B26" s="62" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="58">
       <c r="B27" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="29">
       <c r="B28" s="47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="29">
       <c r="B29" s="24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="29">
       <c r="B30" s="27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" spans="2:4" ht="43.5">
       <c r="B31" s="27" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="29">
       <c r="B32" s="64" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="3:3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="29">
+      <c r="B33" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="2:3">
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="2:3">
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="2:3">
       <c r="C37" s="27"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="2:3">
       <c r="C38" s="27"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="2:3">
       <c r="C39" s="27"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="2:3">
       <c r="C40" s="27"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="2:3">
       <c r="C41" s="27"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:3">
       <c r="C42" s="27"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="2:3">
       <c r="C43" s="27"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="2:3">
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="2:3">
       <c r="C45" s="27"/>
     </row>
   </sheetData>
@@ -25216,32 +25671,32 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="24" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -25250,42 +25705,42 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -25294,18 +25749,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="51" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -25314,178 +25769,178 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="65" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="65" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="65" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="27" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="27" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29">
       <c r="A22" s="66" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="62" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="27" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="42" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="27" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="27" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="27" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="87">
       <c r="A37" s="27" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -25495,39 +25950,39 @@
     <row r="39" spans="1:2">
       <c r="A39" s="67"/>
       <c r="B39" s="67" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="101.5">
       <c r="A40" s="68" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="58">
       <c r="A41" s="27" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="188.5">
       <c r="A42" s="69" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="58">
       <c r="A43" s="69" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -25567,8 +26022,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ158"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -25587,177 +26042,177 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
-      <c r="A2" s="132" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2" s="133"/>
+      <c r="A2" s="134" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="135"/>
     </row>
     <row r="3" spans="1:2" s="71" customFormat="1">
       <c r="A3" s="24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="71" customFormat="1">
       <c r="A4" s="24" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="71" customFormat="1">
       <c r="A5" s="24" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="71" customFormat="1">
       <c r="A6" s="24" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="71" customFormat="1">
       <c r="A7" s="72" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="71" customFormat="1">
       <c r="A8" s="72" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="71" customFormat="1" ht="72.5">
       <c r="A9" s="24" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A10" s="24" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="71" customFormat="1">
       <c r="A11" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="71" customFormat="1">
       <c r="A12" s="24" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="71" customFormat="1">
       <c r="A13" s="24" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="71" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="71" customFormat="1">
       <c r="A15" s="24" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="71" customFormat="1">
       <c r="A16" s="24" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A17" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="71" customFormat="1">
       <c r="A18" s="27" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="71" customFormat="1">
       <c r="A19" s="27" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="71" customFormat="1">
       <c r="A20" s="24" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A21" s="24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A22" s="24" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="71" customFormat="1">
       <c r="A23" s="24" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="71" customFormat="1">
@@ -25766,26 +26221,26 @@
     </row>
     <row r="25" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A25" s="24" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A26" s="24" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="71" customFormat="1">
       <c r="A27" s="47" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="71" customFormat="1">
@@ -25794,74 +26249,74 @@
     </row>
     <row r="29" spans="1:2" s="71" customFormat="1">
       <c r="A29" s="24" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="71" customFormat="1">
       <c r="A30" s="24" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="71" customFormat="1">
       <c r="A31" s="27" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="71" customFormat="1">
       <c r="A32" s="27" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="71" customFormat="1">
       <c r="A33" s="27" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="71" customFormat="1">
       <c r="A34" s="27" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="71" customFormat="1">
       <c r="A35" s="27" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A36" s="27" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="71" customFormat="1">
       <c r="A37" s="27" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="71" customFormat="1">
@@ -25889,81 +26344,81 @@
       <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1">
-      <c r="A44" s="132" t="s">
-        <v>561</v>
-      </c>
-      <c r="B44" s="133"/>
+      <c r="A44" s="134" t="s">
+        <v>557</v>
+      </c>
+      <c r="B44" s="135"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A45" s="73" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B45" s="73" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A46" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="71" customFormat="1">
       <c r="A47" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="71" customFormat="1">
       <c r="A48" s="74" t="s">
-        <v>568</v>
+        <v>1028</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="71" customFormat="1">
       <c r="A49" s="74" t="s">
-        <v>570</v>
+        <v>1027</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1">
       <c r="A50" s="74" t="s">
-        <v>572</v>
+        <v>1029</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="29">
       <c r="A52" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.5">
       <c r="A53" s="27" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -25972,10 +26427,10 @@
     </row>
     <row r="55" spans="1:2" ht="29">
       <c r="A55" s="27" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -25984,50 +26439,50 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="27" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="87">
       <c r="A58" s="27" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="43.5">
       <c r="A59" s="27" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="29">
       <c r="A60" s="27" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="29">
       <c r="A62" s="58" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="27" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -26052,56 +26507,56 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="67" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="58">
       <c r="A70" s="27" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B70" s="27"/>
     </row>
     <row r="71" spans="1:2" ht="43.5">
       <c r="A71" s="76" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="87">
       <c r="A72" s="76" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="70">
       <c r="A73" s="77" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="159.5">
       <c r="A74" s="27" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="203">
       <c r="A75" s="76" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -26110,26 +26565,26 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="67" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="87">
       <c r="A78" s="27" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="87">
       <c r="A79" s="27" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -26142,48 +26597,48 @@
     </row>
     <row r="82" spans="1:2" ht="29">
       <c r="A82" s="67" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="43.5">
       <c r="A83" s="68" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B83" s="27"/>
     </row>
     <row r="84" spans="1:2" ht="29">
       <c r="A84" s="27" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="72.5">
       <c r="A85" s="27" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72.5">
       <c r="A86" s="27" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.5">
       <c r="A87" s="78" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B87" s="78" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -26196,26 +26651,26 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="67" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B90" s="67" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="116">
       <c r="A91" s="27" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="43.5">
       <c r="A92" s="27" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -26224,34 +26679,34 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="67" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B94" s="67" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="43.5">
       <c r="A95" s="68" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="72.5">
       <c r="A96" s="27" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="43.5">
       <c r="A97" s="27" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -26264,35 +26719,35 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="67" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B100" s="67" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="87">
       <c r="A101" s="27" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B101" s="27"/>
     </row>
     <row r="102" spans="1:2" ht="46.4" customHeight="1">
       <c r="A102" s="27" t="s">
-        <v>654</v>
-      </c>
-      <c r="B102" s="131" t="s">
-        <v>655</v>
+        <v>647</v>
+      </c>
+      <c r="B102" s="133" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="49.75" customHeight="1">
       <c r="A103" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="B103" s="131"/>
+        <v>649</v>
+      </c>
+      <c r="B103" s="133"/>
     </row>
     <row r="104" spans="1:2" ht="43.5">
       <c r="A104" s="27" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B104" s="27"/>
     </row>
@@ -26306,38 +26761,38 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="67" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B107" s="67" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="87">
       <c r="A108" s="27" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B108" s="27"/>
     </row>
     <row r="109" spans="1:2" ht="101.5">
       <c r="A109" s="68" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="72.5">
       <c r="A110" s="27" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B110" s="27"/>
     </row>
     <row r="111" spans="1:2" ht="29">
       <c r="A111" s="27" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -26358,56 +26813,56 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="67" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B116" s="67" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="68" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B117" s="27"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="54" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="58">
       <c r="A119" s="27" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="29">
       <c r="A120" s="27" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="27" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="58">
       <c r="A122" s="27" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -26416,32 +26871,32 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="67" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B124" s="67" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="188.5">
       <c r="A125" s="68" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B125" s="27"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="27" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="232">
       <c r="A127" s="68" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -26450,50 +26905,50 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="67" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B129" s="67" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="261">
       <c r="A130" s="27" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="29">
       <c r="A131" s="67" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B131" s="67" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="304.5">
       <c r="A132" s="68" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="87">
       <c r="A133" s="27" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="116">
       <c r="A134" s="27" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -26506,26 +26961,26 @@
     </row>
     <row r="137" spans="1:2" ht="29">
       <c r="A137" s="110" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B137" s="110" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="24" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="24" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -26642,26 +27097,26 @@
     </row>
     <row r="2" spans="1:2" ht="288" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="348">
       <c r="A3" s="4" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="232">
       <c r="A4" s="80" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26836,74 +27291,74 @@
     </row>
     <row r="2" spans="1:2" ht="130.5">
       <c r="A2" s="24" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="27" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="27" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -27010,34 +27465,34 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
       <c r="A3" s="24" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -27073,8 +27528,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -27100,10 +27555,10 @@
     </row>
     <row r="3" spans="1:2" ht="87">
       <c r="A3" s="12" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
@@ -27194,10 +27649,10 @@
     </row>
     <row r="17" spans="1:2" ht="175.5">
       <c r="A17" s="15" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
@@ -27214,50 +27669,50 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="108" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B20" s="108"/>
     </row>
     <row r="21" spans="1:2" ht="29">
       <c r="A21" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.5">
       <c r="A22" s="1" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="29">
       <c r="A23" s="122" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B23" s="122" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="72.5">
       <c r="A24" s="1" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="58">
       <c r="A25" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -27266,16 +27721,16 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="108" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="B28" s="108"/>
     </row>
     <row r="29" spans="1:2" ht="29">
       <c r="A29" s="107" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -27284,53 +27739,53 @@
     </row>
     <row r="31" spans="1:2" ht="29">
       <c r="A31" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.5">
       <c r="A32" s="2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="29">
       <c r="A34" s="2" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B37" s="2"/>
     </row>
@@ -27378,24 +27833,24 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="B47" s="19"/>
     </row>
     <row r="48" spans="1:2" ht="58">
       <c r="A48" s="11" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="145">
       <c r="A49" s="11" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -27516,175 +27971,175 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="27" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5">
       <c r="A8" s="47" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="47" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="24" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="27" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
       <c r="A13" s="27" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5">
       <c r="A14" s="27" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="27" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="27" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58">
       <c r="A17" s="27" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="B18" s="131" t="s">
-        <v>761</v>
+        <v>753</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="83" t="s">
-        <v>762</v>
-      </c>
-      <c r="B19" s="131"/>
+        <v>755</v>
+      </c>
+      <c r="B19" s="133"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="83" t="s">
-        <v>763</v>
-      </c>
-      <c r="B20" s="131"/>
+        <v>756</v>
+      </c>
+      <c r="B20" s="133"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="83" t="s">
-        <v>764</v>
-      </c>
-      <c r="B21" s="131"/>
+        <v>757</v>
+      </c>
+      <c r="B21" s="133"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="83" t="s">
-        <v>765</v>
-      </c>
-      <c r="B22" s="131"/>
+        <v>758</v>
+      </c>
+      <c r="B22" s="133"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="83" t="s">
-        <v>766</v>
-      </c>
-      <c r="B23" s="131"/>
+        <v>759</v>
+      </c>
+      <c r="B23" s="133"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="83" t="s">
-        <v>767</v>
-      </c>
-      <c r="B24" s="131"/>
+        <v>760</v>
+      </c>
+      <c r="B24" s="133"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -27692,10 +28147,10 @@
     </row>
     <row r="26" spans="1:2" ht="29">
       <c r="A26" s="27" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -27782,10 +28237,10 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="64" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27794,42 +28249,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="54" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="54" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
       <c r="A6" s="24" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="24" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="27" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -27838,74 +28293,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="24" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="24" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="27" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -27947,10 +28402,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -27967,7 +28422,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B7" s="34"/>
     </row>
@@ -27985,15 +28440,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="27" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="27" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B12" s="27"/>
     </row>
@@ -28068,13 +28523,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="85" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="51" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B3" s="51"/>
     </row>
@@ -28130,10 +28585,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ33"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -28152,212 +28610,252 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B2" s="88"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="87" t="s">
+        <v>799</v>
+      </c>
+      <c r="B9" s="88"/>
+    </row>
+    <row r="10" spans="1:2" ht="43.5">
+      <c r="A10" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B12" s="129"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:2" ht="58">
+      <c r="A14" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="25" t="s">
         <v>806</v>
       </c>
-      <c r="B2" s="88"/>
-    </row>
-    <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="27" t="s">
+      <c r="B15" s="27" t="s">
         <v>807</v>
       </c>
-      <c r="B3" s="27" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="25" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="B4" s="27" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>811</v>
       </c>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:2" ht="58">
-      <c r="A6" s="25" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="89" t="s">
         <v>814</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B19" s="27" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="90" t="s">
         <v>816</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="89" t="s">
-        <v>822</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="90" t="s">
-        <v>824</v>
-      </c>
-      <c r="B14" s="88"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="27" t="s">
-        <v>825</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="27" t="s">
-        <v>831</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="27" t="s">
-        <v>833</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29">
-      <c r="A20" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="34" t="s">
-        <v>837</v>
-      </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="88"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.5">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="27"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.5">
+      <c r="A25" s="27" t="s">
+        <v>821</v>
+      </c>
       <c r="B25" s="27" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29">
+      <c r="A26" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29">
+      <c r="A27" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29">
+      <c r="A28" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="B30" s="34"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A31" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.5">
+      <c r="A32" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="27" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28382,26 +28880,26 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="27" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="27" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -28484,23 +28982,23 @@
         <v>179</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="64" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="64" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -28531,26 +29029,26 @@
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -28559,26 +29057,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="98" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="99" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="99" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -28621,26 +29119,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="B1" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B2" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="100" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B3" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -28662,7 +29160,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -28810,10 +29308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68.36328125" defaultRowHeight="14.5"/>
@@ -28862,6 +29360,28 @@
       </c>
       <c r="B6" s="11" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="128" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B9" s="128"/>
+    </row>
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="95" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="130.5">
+      <c r="A11" s="95" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -28874,7 +29394,7 @@
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -28889,16 +29409,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="103" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="102"/>
       <c r="B3" s="102" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -29392,7 +29912,9 @@
   </sheetPr>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
@@ -29527,10 +30049,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="130"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">
@@ -29676,13 +30198,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="59.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="92.1796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" style="1" customWidth="1"/>
     <col min="4" max="1024" width="9.08984375" style="1"/>
@@ -29740,19 +30262,27 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="110" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="106"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
+    <row r="8" spans="1:3" ht="87">
+      <c r="A8" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>1023</v>
+      </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
+    <row r="9" spans="1:3" ht="101.5">
+      <c r="A9" s="106" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>1026</v>
+      </c>
       <c r="C9" s="106"/>
     </row>
     <row r="10" spans="1:3">
@@ -29782,17 +30312,17 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="110" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" ht="42.5">
       <c r="A16" s="102" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C16" s="27"/>
     </row>
@@ -29828,16 +30358,16 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="113" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B24" s="113"/>
     </row>
     <row r="25" spans="1:3" ht="87">
       <c r="A25" s="112" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -29886,7 +30416,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30704,8 +31234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -30849,26 +31379,26 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="45" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="45" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="45" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:2">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="23" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1047">
   <si>
     <r>
       <rPr>
@@ -3242,436 +3242,6 @@
     <t>что делает</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">def driver_init(self):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF558B2F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    """ Инициализация браузера """
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>try</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:
-        browser_path = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A1B9A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.config['</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>browser_path'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>]
-        logging.info(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'Запуск браузера'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
-        options = webdriver.ChromeOptions()
-        prefs = {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"profile.default_content_setting_values.notifications"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: 1}
-        options.add_experimental_option(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"prefs"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, prefs)        # Отключаем уведомления браузера
-        options.binary_location = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A1B9A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.config[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'browser_path'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">]  # Путь к exe браузера Chrome
-        chrome_driver_binary = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A1B9A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.config[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'driver_path'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>]      # Путь к драйверу Chromium
-        options.add_argument(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"--disable-infobars"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Try</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:
-            # driver = webdriver.Chrome()
-            driver = webdriver.Chrome(chrome_driver_binary, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>chrome_options</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=options)        # отправляет POST запрос!
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>except</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Exception </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>as</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> err:
-            logging.info(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A1B9A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>str</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(err))
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> driver
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>except</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Exception </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>as</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> error:
-        logging.error('Ошибка инициализации браузера ' + str(error))</t>
-    </r>
-  </si>
-  <si>
     <t>Инициализация драйвера</t>
   </si>
   <si>
@@ -4302,132 +3872,21 @@
 Ввод текста в элемент</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE65100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> selenium.webdriver.common.keys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE65100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Keys
-driver.find_element_by_name(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>).send_keys(Keys.RETURN)
-OR,
-driver.find_element_by_name(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>).send_keys(Keys.ENTER)
-OR,
-element = driver.find_element_by_id(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
-element.send_keys(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"keysToSend"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
-element.</t>
+    <t>отправление ткста и Enter в web-элемент</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки через вызов Javascript</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>driver</t>
     </r>
     <r>
       <rPr>
@@ -4437,277 +3896,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <t>отправление ткста и Enter в web-элемент</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> selenium </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> webdriver
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> selenium.webdriver.common.by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> By
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> selenium.webdriver.support.ui </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> WebDriverWait
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> selenium.webdriver.support </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBF360C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> expected_conditions as EC
-browser = webdriver.Chrome()
-browser.get('https://www.nike.com/nl/nl/checkout/tunnel')
-element = WebDriverWait(browser, 20).until(EC.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>presence_of_element_located</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">((By.XPATH, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"//div/button[@id='qa-guest-checkout-mobile']"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)))
-browser.execute_script(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"arguments[0].click();"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, element)</t>
-    </r>
-  </si>
-  <si>
-    <t>Нажатие кнопки через вызов Javascript</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>sixth_item = driver.find_element_by_id("coption5")
-To locate this element only by using coption you can use can use either of the following Locator Strategies:
-Using XPATH and starts-with():
-sixth_item = driver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.find_element_by_xpath</t>
+      <t>.find_elements_by_xpath</t>
     </r>
     <r>
       <rPr>
@@ -4727,133 +3916,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>"//*[starts-with(@id, 'coption')]"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
-Using XPATH and contains():
-sixth_item = driver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.find_element_by_xpath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF558B2F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"//*[contains(@id, 'coption')]"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
-Using CSS_SELECTOR and ^ (wildcard of starts-with):
-sixth_item = driver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.find_element_by_css_selector</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF558B2F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"[id^='coption']"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
-Using CSS_SELECTOR and * (wildcard of contains):
-sixth_item = driver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.find_element_by_css_selector</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF558B2F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"[id*='coption']"</t>
+      <t>"//*[contains(text(), 'My Desired text')]"</t>
     </r>
     <r>
       <rPr>
@@ -4867,150 +3930,7 @@
     </r>
   </si>
   <si>
-    <t>Найти элемент по ЧАСТИ id-шника. 
-В данном случае по «coption» без «5»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>driver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.find_elements_by_xpath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF558B2F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"//*[contains(text(), 'My Desired text')]"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Найти элемент по тексту.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="inherit"/>
-        <charset val="1"/>
-      </rPr>
-      <t>from selenium.webdriver.support import expected_conditions as EC
-from selenium.webdriver.support.ui import WebDriverWait
-WebDriverWait(driver, 10).until(EC.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="inherit"/>
-        <charset val="1"/>
-      </rPr>
-      <t>frame_to_be_available_and_switch_to_it</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="inherit"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="inherit"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"iframe_name_or_id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="inherit"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">))
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF757575"/>
-        <rFont val="inherit"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"># ИЛИ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="inherit"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WebDriverWait(driver, 10). until(EC.frame_to_be_available_and_switch_to_it(driver.find_element_by_xpath("//iframe[@class='iframe_class']")))
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-To switch back from iframe:
-driver.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>switch_to.default_content()</t>
-    </r>
   </si>
   <si>
     <t>Если элемент во фрейме, нужно переключаться на него и обратно на общий контент, давая элементу время прогрузиться: https://stackoverflow.com/questions/7534622/select-iframe-using-python-selenium</t>
@@ -5111,38 +4031,6 @@
   </si>
   <si>
     <t>Получить значение аттрибута веб-объекта</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>state = driver.find_element_by_xpath(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF558B2F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'//td[@class=" state_name"]/div/span'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>).text</t>
-    </r>
   </si>
   <si>
     <t>Получение текста элемента</t>
@@ -22379,12 +21267,1333 @@
   <si>
     <t>создать виртуальное окружение с именем env</t>
   </si>
+  <si>
+    <r>
+      <t>from selenium.webdriver.support import expected_conditions as EC
+from selenium.webdriver.support.ui import WebDriverWait
+WebDriverWait(driver, 10).until(EC.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="inherit"/>
+        <charset val="1"/>
+      </rPr>
+      <t>frame_to_be_available_and_switch_to_it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="inherit"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="inherit"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"iframe_name_or_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="inherit"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF757575"/>
+        <rFont val="inherit"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># ИЛИ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="inherit"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WebDriverWait(driver, 10). until(EC.frame_to_be_available_and_switch_to_it(driver.find_element_by_xpath("//iframe[@class='iframe_class']")))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>driver.switch_to.default_content()</t>
+  </si>
+  <si>
+    <t>Переключиться со фрейма на основной уровень</t>
+  </si>
+  <si>
+    <r>
+      <t>def driver_init(self):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF558B2F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+        browser_path = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A1B9A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.config['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>browser_path'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>]
+        logging.info(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'Запуск браузера'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+        options = webdriver.ChromeOptions()
+        prefs = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"profile.default_content_setting_values.notifications"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: 1}
+        options.add_experimental_option(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"prefs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, prefs)        # Отключаем уведомления браузера
+        options.binary_location = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A1B9A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.config[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'browser_path'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]  # Путь к exe браузера Chrome
+        chrome_driver_binary = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A1B9A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.config[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'driver_path'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>]      # Путь к драйверу Chromium
+        options.add_argument(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"--disable-infobars"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+            # driver = webdriver.Chrome()
+            driver = webdriver.Chrome(chrome_driver_binary, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chrome_options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=options)        # отправляет POST запрос!
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Exception </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> err:
+            logging.info(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A1B9A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(err))
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> driver
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Exception </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBF360C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> error:
+        logging.error('Ошибка инициализации браузера ' + str(error))</t>
+    </r>
+  </si>
+  <si>
+    <t>Нажать кнопку</t>
+  </si>
+  <si>
+    <t>Дождаться появления кнопки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WebDriverWait(self.driver, 10).until(EC.presence_of_element_located((By.XPATH, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'/html/body/section[1]/div[4]/div[1]/div[2]/button[1]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)))
+            </t>
+    </r>
+  </si>
+  <si>
+    <t>импорты</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> selenium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> webdriver
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> selenium.webdriver.common.by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> By
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> selenium.webdriver.support.ui </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> WebDriverWait
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> selenium.webdriver.support </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> expected_conditions as EC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> selenium.webdriver.common.keys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Keys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>browser = webdriver.Chrome()
+browser.get('https://www.nike.com/nl/nl/checkout/tunnel')
+element = WebDriverWait(browser, 20).until(EC.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>presence_of_element_located</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">((By.XPATH, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"//div/button[@id='qa-guest-checkout-mobile']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)))
+browser.execute_script(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"arguments[0].click();"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, element)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>driver.find_element_by_name(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>).send_keys(Keys.RETURN)
+OR,
+driver.find_element_by_name(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>).send_keys(Keys.ENTER)
+OR,
+element = driver.find_element_by_id(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+element.send_keys(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"keysToSend"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+element.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>state = driver.find_element_by_xpath(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF558B2F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'//td[@class=" state_name"]/div/span'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>button_ok_cookies = self.driver.find_element_by_xpath(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'/html/body/section[1]/div[4]/div[1]/div[2]/button[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>')
+button_ok_cookies.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>click()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Using CSS_SELECTOR and ^ (wildcard of starts-with):
+sixth_item = driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.find_element_by_css_selector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF558B2F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"[id^='coption']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+Using CSS_SELECTOR and * (wildcard of contains):
+sixth_item = driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.find_element_by_css_selector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF558B2F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"[id*='coption']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sixth_item = driver.find_element_by_id("coption5")
+To locate this element only by using coption you can use can use either of the following Locator Strategies:
+Using XPATH and starts-with():
+sixth_item = driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.find_element_by_xpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF558B2F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"//*[starts-with(@id, 'coption')]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+Using XPATH and contains():
+sixth_item = driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.find_element_by_xpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF558B2F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"//*[contains(@id, 'coption')]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Найти элемент по части id, но через css_selector</t>
+  </si>
+  <si>
+    <t>Найти элемент по id через XPATH
+Найти элемент по ЧАСТИ id-шника. 
+В данном случае по «coption» без «5»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WebDriverWait(self.driver, 10).until(EC.presence_of_element_located((By.XPATH, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"//*[@class='file megaListItem ui-draggable ui-draggable-handle ui-selectee']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)))
+table = self.driver.find_element_by_xpath(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'//*[@id="fmholder"]/div[4]/div[1]/div[5]/div[23]/div[2]/div[1]/table'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+table_elems = table.find_elements_by_xpath(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"//*[@class='file megaListItem ui-draggable ui-draggable-handle ui-selectee']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(table_elems)))</t>
+    </r>
+  </si>
+  <si>
+    <t>Найти таблицу и посчитать количество рядов, зная класс рядов.
+Сначала надо дождаться её загрузки!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="110">
+  <fonts count="109">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -22712,13 +22921,6 @@
       <sz val="11"/>
       <color rgb="FF757575"/>
       <name val="inherit"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -23327,7 +23529,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -23433,16 +23635,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23451,29 +23653,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23486,28 +23688,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23519,7 +23721,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23528,7 +23730,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23540,7 +23742,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23549,13 +23751,13 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23564,14 +23766,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23589,7 +23791,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23610,7 +23812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23618,14 +23820,14 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23637,7 +23839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23679,10 +23881,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23704,10 +23903,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -24117,10 +24319,10 @@
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="2" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -24179,18 +24381,18 @@
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="2" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="2" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24198,17 +24400,17 @@
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="126" t="s">
-        <v>996</v>
-      </c>
-      <c r="B19" s="126"/>
+      <c r="A19" s="125" t="s">
+        <v>989</v>
+      </c>
+      <c r="B19" s="125"/>
     </row>
     <row r="20" spans="1:2" ht="43.5">
       <c r="A20" s="1" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -24240,72 +24442,72 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="47" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="87">
       <c r="A4" s="24" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
       <c r="A5" s="47" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2" ht="87">
       <c r="A7" s="24" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="130.5">
       <c r="A9" s="27" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -24315,15 +24517,15 @@
     <row r="12" spans="1:2">
       <c r="A12" s="48"/>
       <c r="B12" s="48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
       <c r="A13" s="49" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -24332,34 +24534,34 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="48" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="50" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="27" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24446,39 +24648,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="91" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C1" s="91" t="s">
         <v>142</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="E2" s="93" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F2" s="94">
         <v>0</v>
@@ -24487,19 +24689,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="73" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E3" s="93" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -24508,19 +24710,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="F4" s="94">
         <v>2</v>
@@ -24529,19 +24731,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="73" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F5" s="94">
         <v>3</v>
@@ -24554,7 +24756,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="93" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="F6" s="94">
         <v>4</v>
@@ -24567,7 +24769,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="93" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F7" s="94">
         <v>5</v>
@@ -24580,7 +24782,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="93" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F8" s="94">
         <v>6</v>
@@ -24593,7 +24795,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="93" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F9" s="94">
         <v>7</v>
@@ -24602,19 +24804,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="F10" s="94">
         <v>8</v>
@@ -24623,19 +24825,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F11" s="94">
         <v>9</v>
@@ -24644,19 +24846,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="F12" s="94">
         <v>10</v>
@@ -24665,19 +24867,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F13" s="94">
         <v>11</v>
@@ -24690,7 +24892,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="93" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="F14" s="94">
         <v>12</v>
@@ -24703,7 +24905,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="93" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F15" s="94">
         <v>13</v>
@@ -24712,19 +24914,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="F16" s="94">
         <v>14</v>
@@ -24733,17 +24935,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="F17" s="94">
         <v>15</v>
@@ -24752,19 +24954,19 @@
     </row>
     <row r="18" spans="1:7" ht="29">
       <c r="A18" s="27" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="F18" s="94">
         <v>16</v>
@@ -24777,7 +24979,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="93" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F19" s="94">
         <v>17</v>
@@ -24789,7 +24991,7 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="93" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="F20" s="94">
         <v>18</v>
@@ -24802,7 +25004,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="93" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F21" s="94">
         <v>19</v>
@@ -24815,7 +25017,7 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="93" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="F22" s="94">
         <v>20</v>
@@ -24851,7 +25053,7 @@
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="132" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B27" s="132"/>
       <c r="C27" s="132"/>
@@ -24859,7 +25061,7 @@
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
       <c r="A28" s="131" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
@@ -24867,7 +25069,7 @@
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
       <c r="A29" s="131" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B29" s="131"/>
       <c r="C29" s="131"/>
@@ -24875,7 +25077,7 @@
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
       <c r="A30" s="131" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B30" s="131"/>
       <c r="C30" s="131"/>
@@ -24883,7 +25085,7 @@
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
       <c r="A31" s="131" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B31" s="131"/>
       <c r="C31" s="131"/>
@@ -24891,7 +25093,7 @@
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
       <c r="A32" s="131" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B32" s="131"/>
       <c r="C32" s="131"/>
@@ -24899,7 +25101,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
       <c r="A33" s="131" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B33" s="131"/>
       <c r="C33" s="131"/>
@@ -24938,24 +25140,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="24" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1">
@@ -24964,26 +25166,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="52" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87">
       <c r="A6" s="54" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
       <c r="A7" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -24992,34 +25194,34 @@
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="57" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="54" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
       <c r="A11" s="27" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87">
       <c r="A12" s="24" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -25028,15 +25230,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="101.5">
       <c r="A15" s="27" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B15" s="54"/>
     </row>
@@ -25050,16 +25252,16 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="58">
       <c r="A19" s="27" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -25072,26 +25274,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -25104,18 +25306,18 @@
     </row>
     <row r="27" spans="1:2" ht="29">
       <c r="A27" s="23" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
       <c r="A28" s="58" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -25123,7 +25325,7 @@
       <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="125"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="110"/>
     </row>
     <row r="31" spans="1:2">
@@ -25135,56 +25337,56 @@
       <c r="B32" s="27"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="123"/>
-      <c r="B33" s="123"/>
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="24"/>
-      <c r="B34" s="123"/>
+      <c r="B34" s="122"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="123"/>
-      <c r="B35" s="123"/>
+      <c r="A35" s="122"/>
+      <c r="B35" s="122"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="24"/>
-      <c r="B36" s="123"/>
+      <c r="B36" s="122"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="123"/>
-      <c r="B37" s="123"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="122"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="24"/>
-      <c r="B38" s="123"/>
+      <c r="B38" s="122"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="123"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="24"/>
-      <c r="B40" s="123"/>
+      <c r="B40" s="122"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="123"/>
-      <c r="B41" s="123"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="122"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="24"/>
-      <c r="B42" s="123"/>
+      <c r="B42" s="122"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="123"/>
-      <c r="B43" s="123"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="122"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="24"/>
-      <c r="B44" s="123"/>
+      <c r="B44" s="122"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="123"/>
-      <c r="B45" s="123"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25206,56 +25408,56 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="24" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29">
       <c r="A6" s="24" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24"/>
       <c r="B7" s="59" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -25307,299 +25509,299 @@
   <sheetData>
     <row r="1" spans="1:4" s="32" customFormat="1">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="32" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="27" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="32" customFormat="1" ht="130.5">
       <c r="A3" s="21"/>
       <c r="B3" s="61" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5">
       <c r="A5" s="27" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29">
       <c r="A6" s="27" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="27" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="43.5">
       <c r="A8" s="27" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
       <c r="B9" s="27" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="87">
       <c r="B10" s="27" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="29">
       <c r="B11" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="29">
       <c r="B12" s="27" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="29">
       <c r="B13" s="27" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="B14" s="27" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="29">
       <c r="B15" s="27" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="43.5">
       <c r="B16" s="27" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="43.5">
       <c r="B17" s="27" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="29">
       <c r="B18" s="27" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="43.5">
       <c r="B19" s="27" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="29">
       <c r="B21" s="27" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="29">
       <c r="B22" s="27" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="43.5">
       <c r="B23" s="27" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="29">
       <c r="B24" s="27" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="27" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="29">
       <c r="B26" s="62" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="58">
       <c r="B27" s="62" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="29">
       <c r="B28" s="47" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="29">
       <c r="B29" s="24" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="29">
       <c r="B30" s="27" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" spans="2:4" ht="43.5">
       <c r="B31" s="27" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="29">
       <c r="B32" s="64" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="29">
       <c r="B33" s="24" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -25663,40 +25865,40 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="24" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="24" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="24" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -25705,42 +25907,42 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="24" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -25749,18 +25951,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="51" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -25769,178 +25971,178 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="65" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="65" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="27" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="27" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29">
       <c r="A22" s="66" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="62" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="27" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="42" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="27" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="27" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="27" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="27" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="87">
       <c r="A37" s="27" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -25950,39 +26152,39 @@
     <row r="39" spans="1:2">
       <c r="A39" s="67"/>
       <c r="B39" s="67" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="101.5">
       <c r="A40" s="68" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="58">
       <c r="A41" s="27" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="188.5">
       <c r="A42" s="69" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="58">
       <c r="A43" s="69" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -26035,184 +26237,184 @@
   <sheetData>
     <row r="1" spans="1:2" s="32" customFormat="1">
       <c r="A1" s="70" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
       <c r="A2" s="134" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B2" s="135"/>
     </row>
     <row r="3" spans="1:2" s="71" customFormat="1">
       <c r="A3" s="24" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="71" customFormat="1">
       <c r="A4" s="24" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="71" customFormat="1">
       <c r="A5" s="24" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="71" customFormat="1">
       <c r="A6" s="24" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="71" customFormat="1">
       <c r="A7" s="72" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="71" customFormat="1">
       <c r="A8" s="72" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="71" customFormat="1" ht="72.5">
       <c r="A9" s="24" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A10" s="24" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="71" customFormat="1">
       <c r="A11" s="24" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="71" customFormat="1">
       <c r="A12" s="24" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="71" customFormat="1">
       <c r="A13" s="24" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="71" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="71" customFormat="1">
       <c r="A15" s="24" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="71" customFormat="1">
       <c r="A16" s="24" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A17" s="24" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="71" customFormat="1">
       <c r="A18" s="27" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="71" customFormat="1">
       <c r="A19" s="27" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="71" customFormat="1">
       <c r="A20" s="24" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A21" s="24" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A22" s="24" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="71" customFormat="1">
       <c r="A23" s="24" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="71" customFormat="1">
@@ -26221,26 +26423,26 @@
     </row>
     <row r="25" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A25" s="24" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A26" s="24" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="71" customFormat="1">
       <c r="A27" s="47" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="71" customFormat="1">
@@ -26249,74 +26451,74 @@
     </row>
     <row r="29" spans="1:2" s="71" customFormat="1">
       <c r="A29" s="24" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="71" customFormat="1">
       <c r="A30" s="24" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="71" customFormat="1">
       <c r="A31" s="27" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="71" customFormat="1">
       <c r="A32" s="27" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="71" customFormat="1">
       <c r="A33" s="27" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="71" customFormat="1">
       <c r="A34" s="27" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="71" customFormat="1">
       <c r="A35" s="27" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A36" s="27" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="71" customFormat="1">
       <c r="A37" s="27" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="71" customFormat="1">
@@ -26345,80 +26547,80 @@
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1">
       <c r="A44" s="134" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B44" s="135"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A45" s="73" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B45" s="73" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A46" s="4" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="71" customFormat="1">
       <c r="A47" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="71" customFormat="1">
       <c r="A48" s="74" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="71" customFormat="1">
       <c r="A49" s="74" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1">
       <c r="A50" s="74" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="29">
       <c r="A52" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.5">
       <c r="A53" s="27" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -26427,10 +26629,10 @@
     </row>
     <row r="55" spans="1:2" ht="29">
       <c r="A55" s="27" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -26439,67 +26641,67 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="27" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="87">
       <c r="A58" s="27" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="43.5">
       <c r="A59" s="27" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="29">
       <c r="A60" s="27" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="29">
       <c r="A62" s="58" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="27" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="127"/>
-      <c r="B64" s="127"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="126"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="127"/>
-      <c r="B65" s="127"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="126"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="127"/>
-      <c r="B66" s="127"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="126"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="127"/>
-      <c r="B67" s="127"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="126"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="27"/>
@@ -26507,56 +26709,56 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="67" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="58">
       <c r="A70" s="27" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B70" s="27"/>
     </row>
     <row r="71" spans="1:2" ht="43.5">
       <c r="A71" s="76" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="87">
       <c r="A72" s="76" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="70">
       <c r="A73" s="77" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="159.5">
       <c r="A74" s="27" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="203">
       <c r="A75" s="76" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -26565,26 +26767,26 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="67" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="87">
       <c r="A78" s="27" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="87">
       <c r="A79" s="27" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -26597,48 +26799,48 @@
     </row>
     <row r="82" spans="1:2" ht="29">
       <c r="A82" s="67" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="43.5">
       <c r="A83" s="68" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B83" s="27"/>
     </row>
     <row r="84" spans="1:2" ht="29">
       <c r="A84" s="27" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="72.5">
       <c r="A85" s="27" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72.5">
       <c r="A86" s="27" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.5">
       <c r="A87" s="78" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B87" s="78" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -26651,26 +26853,26 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="67" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B90" s="67" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="116">
       <c r="A91" s="27" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="43.5">
       <c r="A92" s="27" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -26679,34 +26881,34 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="67" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B94" s="67" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="43.5">
       <c r="A95" s="68" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="72.5">
       <c r="A96" s="27" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="43.5">
       <c r="A97" s="27" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -26719,35 +26921,35 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="67" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B100" s="67" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="87">
       <c r="A101" s="27" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B101" s="27"/>
     </row>
     <row r="102" spans="1:2" ht="46.4" customHeight="1">
       <c r="A102" s="27" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B102" s="133" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="49.75" customHeight="1">
       <c r="A103" s="27" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B103" s="133"/>
     </row>
     <row r="104" spans="1:2" ht="43.5">
       <c r="A104" s="27" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B104" s="27"/>
     </row>
@@ -26761,38 +26963,38 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="67" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B107" s="67" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="87">
       <c r="A108" s="27" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B108" s="27"/>
     </row>
     <row r="109" spans="1:2" ht="101.5">
       <c r="A109" s="68" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="72.5">
       <c r="A110" s="27" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B110" s="27"/>
     </row>
     <row r="111" spans="1:2" ht="29">
       <c r="A111" s="27" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -26813,56 +27015,56 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="67" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B116" s="67" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="68" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B117" s="27"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="54" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="58">
       <c r="A119" s="27" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="29">
       <c r="A120" s="27" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="27" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="58">
       <c r="A122" s="27" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -26871,32 +27073,32 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="67" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B124" s="67" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="188.5">
       <c r="A125" s="68" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B125" s="27"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="27" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="232">
       <c r="A127" s="68" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -26905,50 +27107,50 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="67" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B129" s="67" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="261">
       <c r="A130" s="27" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="29">
       <c r="A131" s="67" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B131" s="67" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="304.5">
       <c r="A132" s="68" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="87">
       <c r="A133" s="27" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="116">
       <c r="A134" s="27" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -26961,26 +27163,26 @@
     </row>
     <row r="137" spans="1:2" ht="29">
       <c r="A137" s="110" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B137" s="110" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="24" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="24" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -27089,34 +27291,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="288" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="348">
       <c r="A3" s="4" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="232">
       <c r="A4" s="80" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27283,82 +27485,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5">
       <c r="A2" s="24" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="27" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="27" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -27457,42 +27659,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
       <c r="A3" s="24" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -27555,10 +27757,10 @@
     </row>
     <row r="3" spans="1:2" ht="87">
       <c r="A3" s="12" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
@@ -27626,10 +27828,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="124"/>
+      <c r="B14" s="123"/>
     </row>
     <row r="15" spans="1:2" ht="256.5">
       <c r="A15" s="14" t="s">
@@ -27649,10 +27851,10 @@
     </row>
     <row r="17" spans="1:2" ht="175.5">
       <c r="A17" s="15" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
@@ -27669,50 +27871,50 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="108" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B20" s="108"/>
     </row>
     <row r="21" spans="1:2" ht="29">
       <c r="A21" s="2" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.5">
       <c r="A22" s="1" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="29">
-      <c r="A23" s="122" t="s">
-        <v>974</v>
-      </c>
-      <c r="B23" s="122" t="s">
-        <v>976</v>
+      <c r="A23" s="121" t="s">
+        <v>967</v>
+      </c>
+      <c r="B23" s="121" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="72.5">
       <c r="A24" s="1" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="58">
       <c r="A25" s="1" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -27721,16 +27923,16 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="108" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B28" s="108"/>
     </row>
     <row r="29" spans="1:2" ht="29">
       <c r="A29" s="107" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -27739,53 +27941,53 @@
     </row>
     <row r="31" spans="1:2" ht="29">
       <c r="A31" s="2" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.5">
       <c r="A32" s="2" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="29">
       <c r="A34" s="2" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B37" s="2"/>
     </row>
@@ -27833,24 +28035,24 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="B47" s="19"/>
     </row>
     <row r="48" spans="1:2" ht="58">
       <c r="A48" s="11" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="145">
       <c r="A49" s="11" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -27963,181 +28165,181 @@
   <sheetData>
     <row r="1" spans="1:2" s="82" customFormat="1" ht="18.5">
       <c r="A1" s="81" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="27" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5">
       <c r="A8" s="47" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="47" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="24" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="27" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
       <c r="A13" s="27" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5">
       <c r="A14" s="27" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="27" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="27" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58">
       <c r="A17" s="27" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="83" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B19" s="133"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="83" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B20" s="133"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="83" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B21" s="133"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="83" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B22" s="133"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="83" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B23" s="133"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="83" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B24" s="133"/>
     </row>
@@ -28147,10 +28349,10 @@
     </row>
     <row r="26" spans="1:2" ht="29">
       <c r="A26" s="27" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -28229,18 +28431,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="64" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -28249,42 +28451,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="54" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="54" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="101.5">
       <c r="A6" s="24" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="24" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="27" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -28293,74 +28495,74 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="24" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.5">
       <c r="A13" s="24" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="89.25" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="27" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
       <c r="A18" s="27" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -28390,10 +28592,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -28402,10 +28604,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -28422,7 +28624,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B7" s="34"/>
     </row>
@@ -28440,15 +28642,15 @@
     </row>
     <row r="11" spans="1:2" ht="58">
       <c r="A11" s="27" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5">
       <c r="A12" s="27" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B12" s="27"/>
     </row>
@@ -28515,21 +28717,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="84" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="85" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="51" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B3" s="51"/>
     </row>
@@ -28590,7 +28792,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -28602,24 +28804,24 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="87" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -28644,84 +28846,84 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="87" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B9" s="88"/>
     </row>
     <row r="10" spans="1:2" ht="43.5">
       <c r="A10" s="27" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="25" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B12" s="129"/>
+        <v>1024</v>
+      </c>
+      <c r="B12" s="128"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="25" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2" ht="58">
       <c r="A14" s="25" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="25" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="25" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="25" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="89" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -28734,56 +28936,56 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="90" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B22" s="88"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.5">
       <c r="A25" s="27" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="29">
       <c r="A26" s="27" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29">
       <c r="A27" s="27" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
       <c r="A28" s="27" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -28792,30 +28994,30 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="34" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B30" s="34"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.5">
       <c r="A32" s="27" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -28872,34 +29074,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="27" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="27" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -28979,26 +29181,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="97" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="64" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="64" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -29021,34 +29223,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -29057,26 +29259,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="98" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="99" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="99" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -29119,26 +29321,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="100" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B3" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -29160,7 +29362,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -29363,25 +29565,25 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="128" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B9" s="128"/>
+      <c r="A9" s="127" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B9" s="127"/>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="95" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B10" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="130.5">
       <c r="A11" s="95" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B11" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -29409,16 +29611,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="103" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="102"/>
       <c r="B3" s="102" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -30262,26 +30464,26 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="110" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="106"/>
     </row>
     <row r="8" spans="1:3" ht="87">
       <c r="A8" s="24" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C8" s="106"/>
     </row>
     <row r="9" spans="1:3" ht="101.5">
       <c r="A9" s="106" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C9" s="106"/>
     </row>
@@ -30312,17 +30514,17 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="110" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" ht="42.5">
       <c r="A16" s="102" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="C16" s="27"/>
     </row>
@@ -30358,16 +30560,16 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="113" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B24" s="113"/>
     </row>
     <row r="25" spans="1:3" ht="87">
       <c r="A25" s="112" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -30422,10 +30624,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ42"/>
+  <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -30443,32 +30645,36 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="116"/>
-      <c r="B2" s="112"/>
-    </row>
-    <row r="3" spans="1:2" ht="304.5">
+    <row r="2" spans="1:2" ht="87">
+      <c r="A2" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="272.5" customHeight="1">
       <c r="A3" s="109" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" s="112" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="159.5">
       <c r="A4" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="112" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="112" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -30477,143 +30683,163 @@
     </row>
     <row r="7" spans="1:2" ht="87">
       <c r="A7" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="112" t="s">
         <v>159</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="112" t="s">
         <v>161</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
       <c r="A9" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="112" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="101.5">
+      <c r="A10" s="119" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B10" s="109" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="130.5">
-      <c r="A10" s="119" t="s">
+    <row r="11" spans="1:2" ht="72.5">
+      <c r="A11" s="118" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="109" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="116">
+      <c r="A12" s="109" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72.5">
+      <c r="A13" s="129" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="116" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="145">
-      <c r="A11" s="118" t="s">
+      <c r="B14" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="109" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="112">
+      <c r="A15" s="120" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B15" s="112" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="203">
-      <c r="A12" s="109" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="120" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B16" s="112" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B17" s="112" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="116" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="116" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B18" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="141.5">
-      <c r="A14" s="120" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="121" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="43.5">
-      <c r="A15" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="112" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="112"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="112"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="43.5">
+      <c r="A19" s="112" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B19" s="112" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29">
+      <c r="A20" s="112" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B20" s="112" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="87">
+      <c r="A21" s="112" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B21" s="112" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="112"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="112"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="112"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="112"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="112"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="112"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="112"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="112"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="112"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31"/>
@@ -30659,12 +30885,17 @@
       <c r="A42" s="31"/>
       <c r="B42" s="2"/>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="31"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="2"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -30690,10 +30921,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="32" customFormat="1">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
@@ -30702,18 +30933,18 @@
     </row>
     <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="27" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -30726,146 +30957,146 @@
     </row>
     <row r="7" spans="1:2" ht="58">
       <c r="A7" s="33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="35" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.5">
       <c r="A11" s="36" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="27" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="27" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29">
       <c r="A19" s="27" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="72.5">
       <c r="A20" s="27" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58">
       <c r="A21" s="27" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.5">
       <c r="A22" s="27" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="58">
       <c r="A23" s="27" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="116">
       <c r="A24" s="27" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -30878,56 +31109,56 @@
     </row>
     <row r="28" spans="1:2" ht="58">
       <c r="A28" s="34" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="87">
       <c r="A29" s="27" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29">
       <c r="A30" s="27" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27"/>
       <c r="B34" s="27" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -30936,34 +31167,34 @@
     </row>
     <row r="36" spans="1:2" ht="87">
       <c r="A36" s="27" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="27" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="87">
       <c r="A38" s="27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="116">
       <c r="A39" s="27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -30980,72 +31211,72 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="39" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29">
       <c r="A44" s="27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58">
       <c r="A46" s="27" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="27" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29">
       <c r="A48" s="27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="27" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="27" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="58">
       <c r="A51" s="27" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -31062,106 +31293,106 @@
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="40" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29">
       <c r="A56" s="27" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="58">
       <c r="A57" s="27" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="27" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="29">
       <c r="A59" s="27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="27" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="42" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="27" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29">
       <c r="A64" s="27" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="27" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="159.5">
       <c r="A66" s="27" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="72.5">
       <c r="A67" s="27" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -31245,26 +31476,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -31297,24 +31528,24 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="43" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="44" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="44" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -31323,34 +31554,34 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="44" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="44" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="44" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="44" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -31359,18 +31590,18 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="44" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="44" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31379,26 +31610,26 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="45" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="45" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="45" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="26" spans="1:2">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,39 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
     <sheet name="FlaskSQL" sheetId="2" r:id="rId2"/>
-    <sheet name="SQL" sheetId="30" r:id="rId3"/>
-    <sheet name="Django" sheetId="3" r:id="rId4"/>
-    <sheet name="React" sheetId="4" r:id="rId5"/>
-    <sheet name="web" sheetId="5" r:id="rId6"/>
-    <sheet name="Selenium" sheetId="6" r:id="rId7"/>
-    <sheet name="excel" sheetId="7" r:id="rId8"/>
-    <sheet name="Hotkeys" sheetId="8" r:id="rId9"/>
-    <sheet name="basics" sheetId="9" r:id="rId10"/>
-    <sheet name="Побит и атомарность" sheetId="23" r:id="rId11"/>
-    <sheet name="Clev_funcs" sheetId="10" r:id="rId12"/>
-    <sheet name="int, float, decimal" sheetId="11" r:id="rId13"/>
-    <sheet name="Strings" sheetId="12" r:id="rId14"/>
-    <sheet name="reg_exp" sheetId="13" r:id="rId15"/>
-    <sheet name="List, Dict" sheetId="14" r:id="rId16"/>
-    <sheet name="ООП" sheetId="15" r:id="rId17"/>
-    <sheet name="Set(Множ-во)" sheetId="16" r:id="rId18"/>
-    <sheet name="Generator" sheetId="17" r:id="rId19"/>
-    <sheet name="os, shutil" sheetId="18" r:id="rId20"/>
-    <sheet name="datetime" sheetId="19" r:id="rId21"/>
-    <sheet name="word" sheetId="20" r:id="rId22"/>
-    <sheet name="pipes" sheetId="21" r:id="rId23"/>
-    <sheet name="pip, venv, import" sheetId="22" r:id="rId24"/>
-    <sheet name="if" sheetId="24" r:id="rId25"/>
-    <sheet name="with" sheetId="25" r:id="rId26"/>
-    <sheet name="Threads" sheetId="26" r:id="rId27"/>
-    <sheet name="Async-await" sheetId="27" r:id="rId28"/>
-    <sheet name="SAP" sheetId="28" r:id="rId29"/>
-    <sheet name="Formats" sheetId="29" r:id="rId30"/>
+    <sheet name="basics" sheetId="9" r:id="rId3"/>
+    <sheet name="Clean_code" sheetId="31" r:id="rId4"/>
+    <sheet name="SQL" sheetId="30" r:id="rId5"/>
+    <sheet name="Django" sheetId="3" r:id="rId6"/>
+    <sheet name="React" sheetId="4" r:id="rId7"/>
+    <sheet name="web" sheetId="5" r:id="rId8"/>
+    <sheet name="Selenium" sheetId="6" r:id="rId9"/>
+    <sheet name="excel" sheetId="7" r:id="rId10"/>
+    <sheet name="Hotkeys" sheetId="8" r:id="rId11"/>
+    <sheet name="Побит и атомарность" sheetId="23" r:id="rId12"/>
+    <sheet name="Clev_funcs" sheetId="10" r:id="rId13"/>
+    <sheet name="int, float, decimal" sheetId="11" r:id="rId14"/>
+    <sheet name="Strings" sheetId="12" r:id="rId15"/>
+    <sheet name="reg_exp" sheetId="13" r:id="rId16"/>
+    <sheet name="List, Dict" sheetId="14" r:id="rId17"/>
+    <sheet name="ООП" sheetId="15" r:id="rId18"/>
+    <sheet name="Set(Множ-во)" sheetId="16" r:id="rId19"/>
+    <sheet name="Generator" sheetId="17" r:id="rId20"/>
+    <sheet name="os, shutil" sheetId="18" r:id="rId21"/>
+    <sheet name="datetime" sheetId="19" r:id="rId22"/>
+    <sheet name="word" sheetId="20" r:id="rId23"/>
+    <sheet name="pipes" sheetId="21" r:id="rId24"/>
+    <sheet name="pip, venv, import" sheetId="22" r:id="rId25"/>
+    <sheet name="if" sheetId="24" r:id="rId26"/>
+    <sheet name="with" sheetId="25" r:id="rId27"/>
+    <sheet name="Threads" sheetId="26" r:id="rId28"/>
+    <sheet name="Async-await" sheetId="27" r:id="rId29"/>
+    <sheet name="SAP" sheetId="28" r:id="rId30"/>
+    <sheet name="Formats" sheetId="29" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="1061">
   <si>
     <r>
       <rPr>
@@ -18152,29 +18153,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>lsvirtualenv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [-b] [-l] [-h]
-lsvirtualenv -b</t>
-    </r>
-  </si>
-  <si>
     <t>посмотреть имеющиеся энвайроменты
 -b Brief mode, disables verbose output.
 -l Long mode, enables verbose output. Default.
@@ -22588,12 +22566,306 @@
     <t>Найти таблицу и посчитать количество рядов, зная класс рядов.
 Сначала надо дождаться её загрузки!</t>
   </si>
+  <si>
+    <r>
+      <t>lsvirtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [-b] [-l] [-h]
+lsvirtualenv -b</t>
+    </r>
+  </si>
+  <si>
+    <t>Функции и их аргументы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def foo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(listik=[]):
+    listik.append(1)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> listik
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(foo())
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(foo())
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(foo())</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример, почему НЕЛЬЗЯ передавать в функцию mutable объект.  Внутри функции он правится и сохраняется!  Каждый раз результат будет обновлённый!
+Поэтому передаём не листы, а туплы.   А если передаётся df, то его нельзя править, либо делать 
+[1]
+[1, 1]
+[1, 1, 1]</t>
+  </si>
+  <si>
+    <t>Функции</t>
+  </si>
+  <si>
+    <t>Блоки if-else должны содержать 1 строку, вызывающую функцию.
+Имя функции должно быть удачно подобрано, чтобы сразу понимать, что делается</t>
+  </si>
+  <si>
+    <t>Имена</t>
+  </si>
+  <si>
+    <t>Длина функции - ДО 20 строк.  Идеально - 2 строки.</t>
+  </si>
+  <si>
+    <t>Функция должна выполнять 1 задачу.  Никаких многозадачных функций.
+Все подзадачи выносим в другие мини-функции</t>
+  </si>
+  <si>
+    <t>Конструкции</t>
+  </si>
+  <si>
+    <t>СОДЕРЖАТЕЛЬНЫЕ ИМЕНА, никаких I, j, k, тем более l или o, похожих на 1 и ноль.</t>
+  </si>
+  <si>
+    <t>тип переменной в имя вкладывать только если точно тип будет сохранён</t>
+  </si>
+  <si>
+    <t>accounts_list.   Или лучше просто accounts.</t>
+  </si>
+  <si>
+    <t>buildings, elephants, new_client, items_to_delete</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">unit.is_working():
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>predictions_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.append(unit.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>make_prediction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(model))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>predictions_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.append(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>np.nan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="109">
+  <fonts count="110">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -23338,6 +23610,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -23531,7 +23811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23924,6 +24204,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -24319,10 +24618,10 @@
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -24381,18 +24680,18 @@
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24401,16 +24700,16 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="125" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B19" s="125"/>
     </row>
     <row r="20" spans="1:2" ht="43.5">
       <c r="A20" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -24426,21 +24725,20 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:AMJ82"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="86.54296875" style="46" customWidth="1"/>
-    <col min="3" max="1024" width="53.36328125" style="46"/>
+    <col min="1" max="1" width="92.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="101.26953125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" s="32" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>172</v>
       </c>
@@ -24448,177 +24746,533 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="87">
-      <c r="A4" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.5">
-      <c r="A5" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>306</v>
-      </c>
+    <row r="2" spans="1:2" s="32" customFormat="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2" ht="43.5">
+      <c r="A3" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:2" ht="87">
-      <c r="A7" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="130.5">
-      <c r="A9" s="27" t="s">
-        <v>310</v>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" ht="58">
+      <c r="A7" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29">
+      <c r="A8" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.5">
+      <c r="A11" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>316</v>
+      <c r="A12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="43.5">
-      <c r="A16" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5">
+      <c r="A15" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="27" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="27" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29">
+      <c r="A19" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="72.5">
+      <c r="A20" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="58">
+      <c r="A21" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72.5">
+      <c r="A22" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="58">
+      <c r="A23" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="116">
+      <c r="A24" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:2" ht="58">
+      <c r="A28" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="87">
+      <c r="A29" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29">
+      <c r="A30" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+    </row>
+    <row r="36" spans="1:2" ht="87">
+      <c r="A36" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="87">
+      <c r="A38" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="116">
+      <c r="A39" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29">
+      <c r="A44" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="27"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="58">
+      <c r="A46" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29">
+      <c r="A48" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="58">
+      <c r="A51" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="29">
+      <c r="A56" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="58">
+      <c r="A57" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="29">
+      <c r="A59" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29">
+      <c r="A64" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="159.5">
+      <c r="A66" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="72.5">
+      <c r="A67" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -24627,6 +25281,251 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="76.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="43"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="45" t="s">
+        <v>998</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="45" t="s">
+        <v>996</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
@@ -24648,39 +25547,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="91" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>827</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>828</v>
       </c>
       <c r="C1" s="91" t="s">
         <v>142</v>
       </c>
       <c r="D1" s="91" t="s">
+        <v>828</v>
+      </c>
+      <c r="E1" s="92" t="s">
         <v>829</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="92" t="s">
         <v>830</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="93" t="s">
         <v>835</v>
-      </c>
-      <c r="E2" s="93" t="s">
-        <v>836</v>
       </c>
       <c r="F2" s="94">
         <v>0</v>
@@ -24689,19 +25588,19 @@
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="73" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3" s="96" t="s">
         <v>837</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="C3" s="96" t="s">
         <v>838</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="D3" s="73" t="s">
         <v>839</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="E3" s="93" t="s">
         <v>840</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>841</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -24710,19 +25609,19 @@
     </row>
     <row r="4" spans="1:7" ht="58">
       <c r="A4" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="93" t="s">
         <v>844</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>845</v>
       </c>
       <c r="F4" s="94">
         <v>2</v>
@@ -24731,19 +25630,19 @@
     </row>
     <row r="5" spans="1:7" ht="58">
       <c r="A5" s="73" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" s="96" t="s">
         <v>846</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="C5" s="96" t="s">
         <v>847</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="D5" s="73" t="s">
         <v>848</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="E5" s="93" t="s">
         <v>849</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>850</v>
       </c>
       <c r="F5" s="94">
         <v>3</v>
@@ -24756,7 +25655,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="93" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F6" s="94">
         <v>4</v>
@@ -24769,7 +25668,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="93" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F7" s="94">
         <v>5</v>
@@ -24782,7 +25681,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="93" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F8" s="94">
         <v>6</v>
@@ -24795,7 +25694,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="93" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F9" s="94">
         <v>7</v>
@@ -24804,19 +25703,19 @@
     </row>
     <row r="10" spans="1:7" ht="29">
       <c r="A10" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="93" t="s">
         <v>858</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>859</v>
       </c>
       <c r="F10" s="94">
         <v>8</v>
@@ -24825,19 +25724,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="93" t="s">
         <v>863</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>864</v>
       </c>
       <c r="F11" s="94">
         <v>9</v>
@@ -24846,19 +25745,19 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="93" t="s">
         <v>868</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>869</v>
       </c>
       <c r="F12" s="94">
         <v>10</v>
@@ -24867,19 +25766,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5">
       <c r="A13" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="93" t="s">
         <v>873</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>874</v>
       </c>
       <c r="F13" s="94">
         <v>11</v>
@@ -24892,7 +25791,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="93" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F14" s="94">
         <v>12</v>
@@ -24905,7 +25804,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="93" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F15" s="94">
         <v>13</v>
@@ -24914,19 +25813,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
+        <v>876</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>877</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>879</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="93" t="s">
         <v>880</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>881</v>
       </c>
       <c r="F16" s="94">
         <v>14</v>
@@ -24935,17 +25834,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>882</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>883</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E17" s="93" t="s">
         <v>884</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>885</v>
       </c>
       <c r="F17" s="94">
         <v>15</v>
@@ -24957,16 +25856,16 @@
         <v>381</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>885</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>887</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="93" t="s">
         <v>888</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>889</v>
       </c>
       <c r="F18" s="94">
         <v>16</v>
@@ -24979,7 +25878,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="93" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F19" s="94">
         <v>17</v>
@@ -24991,7 +25890,7 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="93" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F20" s="94">
         <v>18</v>
@@ -25004,7 +25903,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="93" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F21" s="94">
         <v>19</v>
@@ -25017,7 +25916,7 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="93" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F22" s="94">
         <v>20</v>
@@ -25053,7 +25952,7 @@
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="132" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B27" s="132"/>
       <c r="C27" s="132"/>
@@ -25061,7 +25960,7 @@
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
       <c r="A28" s="131" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
@@ -25069,7 +25968,7 @@
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
       <c r="A29" s="131" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B29" s="131"/>
       <c r="C29" s="131"/>
@@ -25077,7 +25976,7 @@
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
       <c r="A30" s="131" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B30" s="131"/>
       <c r="C30" s="131"/>
@@ -25085,7 +25984,7 @@
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
       <c r="A31" s="131" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B31" s="131"/>
       <c r="C31" s="131"/>
@@ -25093,7 +25992,7 @@
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
       <c r="A32" s="131" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B32" s="131"/>
       <c r="C32" s="131"/>
@@ -25101,7 +26000,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
       <c r="A33" s="131" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B33" s="131"/>
       <c r="C33" s="131"/>
@@ -25122,7 +26021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -25197,12 +26096,12 @@
         <v>334</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5">
       <c r="A10" s="54" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>335</v>
@@ -25210,10 +26109,10 @@
     </row>
     <row r="11" spans="1:2" ht="87">
       <c r="A11" s="27" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87">
@@ -25394,7 +26293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -25486,7 +26385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF33691E"/>
@@ -25494,7 +26393,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -25798,10 +26697,10 @@
     </row>
     <row r="33" spans="2:3" ht="29">
       <c r="B33" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>981</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -25846,7 +26745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFB2FF59"/>
@@ -26217,7 +27116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -26225,7 +27124,7 @@
   <dimension ref="A1:AMJ158"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -26307,10 +27206,10 @@
     </row>
     <row r="10" spans="1:2" s="71" customFormat="1" ht="29">
       <c r="A10" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>938</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="71" customFormat="1">
@@ -26451,18 +27350,18 @@
     </row>
     <row r="29" spans="1:2" s="71" customFormat="1">
       <c r="A29" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>940</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="71" customFormat="1">
       <c r="A30" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>981</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="71" customFormat="1">
@@ -26577,7 +27476,7 @@
     </row>
     <row r="48" spans="1:2" s="71" customFormat="1">
       <c r="A48" s="74" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B48" s="74" t="s">
         <v>557</v>
@@ -26585,7 +27484,7 @@
     </row>
     <row r="49" spans="1:2" s="71" customFormat="1">
       <c r="A49" s="74" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B49" s="74" t="s">
         <v>558</v>
@@ -26593,7 +27492,7 @@
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1">
       <c r="A50" s="74" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B50" s="74" t="s">
         <v>559</v>
@@ -27163,26 +28062,26 @@
     </row>
     <row r="137" spans="1:2" ht="29">
       <c r="A137" s="110" t="s">
+        <v>982</v>
+      </c>
+      <c r="B137" s="110" t="s">
         <v>983</v>
-      </c>
-      <c r="B137" s="110" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="B139" s="27" t="s">
         <v>987</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -27272,7 +28171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFD740"/>
@@ -27471,7 +28370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -27642,80 +28541,6 @@
     <row r="30" spans="1:2">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="57.7265625" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29">
-      <c r="A3" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27757,10 +28582,10 @@
     </row>
     <row r="3" spans="1:2" ht="87">
       <c r="A3" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>979</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
@@ -27851,10 +28676,10 @@
     </row>
     <row r="17" spans="1:2" ht="175.5">
       <c r="A17" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>1003</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
@@ -27871,50 +28696,50 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="108" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B20" s="108"/>
     </row>
     <row r="21" spans="1:2" ht="29">
       <c r="A21" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.5">
       <c r="A22" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="29">
       <c r="A23" s="121" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B23" s="121" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="72.5">
       <c r="A24" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="58">
       <c r="A25" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -27923,16 +28748,16 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="108" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B28" s="108"/>
     </row>
     <row r="29" spans="1:2" ht="29">
       <c r="A29" s="107" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -27941,53 +28766,53 @@
     </row>
     <row r="31" spans="1:2" ht="29">
       <c r="A31" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.5">
       <c r="A32" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="29">
       <c r="A34" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B37" s="2"/>
     </row>
@@ -28035,24 +28860,24 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B47" s="19"/>
     </row>
     <row r="48" spans="1:2" ht="58">
       <c r="A48" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>1001</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="145">
       <c r="A49" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -28147,6 +28972,80 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="57.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5">
+      <c r="A2" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29">
+      <c r="A3" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -28245,10 +29144,10 @@
     </row>
     <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="B11" s="105" t="s">
         <v>936</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
@@ -28412,7 +29311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -28483,7 +29382,7 @@
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>766</v>
@@ -28495,7 +29394,7 @@
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>767</v>
@@ -28579,7 +29478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -28704,7 +29603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -28785,15 +29684,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -28812,16 +29711,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="87" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -28860,7 +29759,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>795</v>
@@ -28868,7 +29767,7 @@
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="25" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B12" s="128"/>
     </row>
@@ -28880,50 +29779,50 @@
     </row>
     <row r="14" spans="1:2" ht="58">
       <c r="A14" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>797</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>799</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>801</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>803</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>805</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="89" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>807</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -28936,56 +29835,56 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="90" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B22" s="88"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>810</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>812</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.5">
       <c r="A25" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>814</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="29">
       <c r="A26" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>816</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29">
       <c r="A27" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>818</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29">
       <c r="A28" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>820</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -28994,30 +29893,30 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B30" s="34"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>823</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.5">
       <c r="A32" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>825</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -29061,7 +29960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -29082,26 +29981,26 @@
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>901</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
       <c r="A3" s="27" t="s">
+        <v>902</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>903</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5">
       <c r="A4" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>905</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -29166,7 +30065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
@@ -29184,23 +30083,23 @@
         <v>172</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5">
       <c r="A2" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="97" t="s">
         <v>908</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="116">
       <c r="A3" s="64" t="s">
+        <v>909</v>
+      </c>
+      <c r="B3" s="97" t="s">
         <v>910</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -29209,7 +30108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -29231,26 +30130,26 @@
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>912</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>914</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
       <c r="A4" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>916</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -29259,26 +30158,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="98" t="s">
+        <v>917</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>918</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="99" t="s">
+        <v>919</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>920</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="99" t="s">
+        <v>921</v>
+      </c>
+      <c r="B8" s="98" t="s">
         <v>922</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -29307,7 +30206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -29321,26 +30220,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1" t="s">
         <v>924</v>
-      </c>
-      <c r="B1" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B2" t="s">
         <v>926</v>
-      </c>
-      <c r="B2" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="100" t="s">
+        <v>927</v>
+      </c>
+      <c r="B3" t="s">
         <v>928</v>
-      </c>
-      <c r="B3" t="s">
-        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -29349,7 +30248,216 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="86.54296875" style="46" customWidth="1"/>
+    <col min="3" max="1024" width="53.36328125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="87">
+      <c r="A4" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5">
+      <c r="A5" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:2" ht="87">
+      <c r="A7" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="130.5">
+      <c r="A9" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72.5">
+      <c r="A10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.5">
+      <c r="A16" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="136" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B20" s="136"/>
+    </row>
+    <row r="21" spans="1:2" ht="116">
+      <c r="A21" s="137" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -29362,7 +30470,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -29508,90 +30616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="68.36328125" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="43.5">
-      <c r="A2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29">
-      <c r="A3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="72.5">
-      <c r="A4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29">
-      <c r="A5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29">
-      <c r="A6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="127" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B9" s="127"/>
-    </row>
-    <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="95" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="130.5">
-      <c r="A11" s="95" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
@@ -29611,16 +30636,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="103" t="s">
+        <v>930</v>
+      </c>
+      <c r="B2" s="104" t="s">
         <v>931</v>
-      </c>
-      <c r="B2" s="104" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.5">
       <c r="A3" s="102"/>
       <c r="B3" s="102" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -29782,6 +30807,213 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="65.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="138" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1" s="138"/>
+    </row>
+    <row r="2" spans="1:2" ht="29">
+      <c r="A2" s="139" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29">
+      <c r="A3" s="139" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B3" s="139" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="139"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="138" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B10" s="138"/>
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="45"/>
+      <c r="B12" s="140" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="141" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B15" s="141"/>
+    </row>
+    <row r="16" spans="1:2" ht="58">
+      <c r="A16" s="142" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B16" s="139" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68.36328125" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="43.5">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29">
+      <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.5">
+      <c r="A4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="127" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B9" s="127"/>
+    </row>
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="95" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="130.5">
+      <c r="A11" s="95" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF548235"/>
@@ -30107,7 +31339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFD966"/>
@@ -30393,7 +31625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -30464,26 +31696,26 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="110" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="106"/>
     </row>
     <row r="8" spans="1:3" ht="87">
       <c r="A8" s="24" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="106"/>
     </row>
     <row r="9" spans="1:3" ht="101.5">
       <c r="A9" s="106" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B9" s="106" t="s">
         <v>1018</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>1019</v>
       </c>
       <c r="C9" s="106"/>
     </row>
@@ -30514,17 +31746,17 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="110" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" ht="42.5">
       <c r="A16" s="102" t="s">
+        <v>956</v>
+      </c>
+      <c r="B16" s="102" t="s">
         <v>957</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>958</v>
       </c>
       <c r="C16" s="27"/>
     </row>
@@ -30560,16 +31792,16 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="113" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B24" s="113"/>
     </row>
     <row r="25" spans="1:3" ht="87">
       <c r="A25" s="112" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -30622,12 +31854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -30647,15 +31879,15 @@
     </row>
     <row r="2" spans="1:2" ht="87">
       <c r="A2" s="24" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="272.5" customHeight="1">
       <c r="A3" s="109" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B3" s="112" t="s">
         <v>153</v>
@@ -30707,7 +31939,7 @@
     </row>
     <row r="10" spans="1:2" ht="101.5">
       <c r="A10" s="119" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B10" s="109" t="s">
         <v>164</v>
@@ -30715,7 +31947,7 @@
     </row>
     <row r="11" spans="1:2" ht="72.5">
       <c r="A11" s="118" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B11" s="109" t="s">
         <v>165</v>
@@ -30723,18 +31955,18 @@
     </row>
     <row r="12" spans="1:2" ht="116">
       <c r="A12" s="109" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72.5">
       <c r="A13" s="129" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -30747,7 +31979,7 @@
     </row>
     <row r="15" spans="1:2" ht="112">
       <c r="A15" s="120" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B15" s="112" t="s">
         <v>168</v>
@@ -30755,10 +31987,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="120" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B16" s="112" t="s">
         <v>1029</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
@@ -30771,7 +32003,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="116" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B18" s="112" t="s">
         <v>171</v>
@@ -30779,26 +32011,26 @@
     </row>
     <row r="19" spans="1:2" ht="43.5">
       <c r="A19" s="112" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="112" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="87">
       <c r="A21" s="112" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B21" s="112" t="s">
         <v>1045</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -30901,807 +32133,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ82"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="92.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="101.26953125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="9.08984375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="32" customFormat="1">
-      <c r="A1" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="32" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-    </row>
-    <row r="3" spans="1:2" ht="43.5">
-      <c r="A3" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="43.5">
-      <c r="A11" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="72.5">
-      <c r="A20" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="58">
-      <c r="A21" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="72.5">
-      <c r="A22" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="58">
-      <c r="A23" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="116">
-      <c r="A24" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="1:2" ht="58">
-      <c r="A28" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="87">
-      <c r="A29" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="29">
-      <c r="A30" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-    </row>
-    <row r="36" spans="1:2" ht="87">
-      <c r="A36" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="87">
-      <c r="A38" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="116">
-      <c r="A39" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="29">
-      <c r="A44" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B44" s="27"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="58">
-      <c r="A46" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="29">
-      <c r="A48" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="58">
-      <c r="A51" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-    </row>
-    <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="29">
-      <c r="A56" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="58">
-      <c r="A57" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="29">
-      <c r="A59" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="29">
-      <c r="A64" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="159.5">
-      <c r="A66" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="72.5">
-      <c r="A67" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="76.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="43"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="45" t="s">
-        <v>999</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="45" t="s">
-        <v>995</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="45" t="s">
-        <v>997</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1061">
   <si>
     <r>
       <rPr>
@@ -23811,7 +23811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24186,23 +24186,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -24222,6 +24207,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25951,59 +25954,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="140" t="s">
         <v>893</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="139" t="s">
         <v>894</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="139" t="s">
         <v>895</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="139" t="s">
         <v>896</v>
       </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="139" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="131" t="s">
+      <c r="A32" s="139" t="s">
         <v>898</v>
       </c>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="131" t="s">
+      <c r="A33" s="139" t="s">
         <v>899</v>
       </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -26026,10 +26029,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -26088,204 +26091,228 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
     </row>
     <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="110" t="s">
+        <v>982</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B12" s="57" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72.5">
-      <c r="A10" s="54" t="s">
+    <row r="13" spans="1:2" ht="72.5">
+      <c r="A13" s="54" t="s">
         <v>1009</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B13" s="54" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="87">
-      <c r="A11" s="27" t="s">
+    <row r="14" spans="1:2" ht="87">
+      <c r="A14" s="27" t="s">
         <v>1008</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B14" s="54" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="87">
-      <c r="A12" s="24" t="s">
+    <row r="15" spans="1:2" ht="87">
+      <c r="A15" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B15" s="54" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="54"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="23" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="54"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B17" s="57" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="101.5">
-      <c r="A15" s="27" t="s">
+    <row r="18" spans="1:2" ht="101.5">
+      <c r="A18" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="54"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="23" t="s">
+      <c r="B18" s="54"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="B18" s="34"/>
-    </row>
-    <row r="19" spans="1:2" ht="58">
-      <c r="A19" s="27" t="s">
+      <c r="B21" s="34"/>
+    </row>
+    <row r="22" spans="1:2" ht="58">
+      <c r="A22" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B25" s="34" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="27" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B26" s="27" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="27" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B27" s="27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="27"/>
-    </row>
-    <row r="27" spans="1:2" ht="29">
-      <c r="A27" s="23" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="27"/>
+    </row>
+    <row r="30" spans="1:2" ht="29">
+      <c r="A30" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B30" s="34" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29">
-      <c r="A28" s="58" t="s">
+    <row r="31" spans="1:2" ht="29">
+      <c r="A31" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B31" s="27" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="110"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-    </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="27"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="110"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="122"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="27"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="24"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="122"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="122"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="122"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="122"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="122"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="24"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="122"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="122"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="122"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="24"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="122"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="122"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="122"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="122"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="122"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="122"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="122"/>
+      <c r="B46" s="122"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="122"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27123,8 +27150,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ158"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A133" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B139" sqref="A137:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -27143,10 +27170,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="142" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="135"/>
+      <c r="B2" s="143"/>
     </row>
     <row r="3" spans="1:2" s="71" customFormat="1">
       <c r="A3" s="24" t="s">
@@ -27445,10 +27472,10 @@
       <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="142" t="s">
         <v>550</v>
       </c>
-      <c r="B44" s="135"/>
+      <c r="B44" s="143"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A45" s="73" t="s">
@@ -27836,7 +27863,7 @@
       <c r="A102" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="B102" s="133" t="s">
+      <c r="B102" s="141" t="s">
         <v>641</v>
       </c>
     </row>
@@ -27844,7 +27871,7 @@
       <c r="A103" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="B103" s="133"/>
+      <c r="B103" s="141"/>
     </row>
     <row r="104" spans="1:2" ht="43.5">
       <c r="A104" s="27" t="s">
@@ -29202,7 +29229,7 @@
       <c r="A18" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="141" t="s">
         <v>747</v>
       </c>
     </row>
@@ -29210,37 +29237,37 @@
       <c r="A19" s="83" t="s">
         <v>748</v>
       </c>
-      <c r="B19" s="133"/>
+      <c r="B19" s="141"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="83" t="s">
         <v>749</v>
       </c>
-      <c r="B20" s="133"/>
+      <c r="B20" s="141"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="B21" s="133"/>
+      <c r="B21" s="141"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="83" t="s">
         <v>751</v>
       </c>
-      <c r="B22" s="133"/>
+      <c r="B22" s="141"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="B23" s="133"/>
+      <c r="B23" s="141"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="83" t="s">
         <v>753</v>
       </c>
-      <c r="B24" s="133"/>
+      <c r="B24" s="141"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -30394,13 +30421,13 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="131" t="s">
         <v>1047</v>
       </c>
-      <c r="B20" s="136"/>
+      <c r="B20" s="131"/>
     </row>
     <row r="21" spans="1:2" ht="116">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="132" t="s">
         <v>1048</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -30813,7 +30840,7 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -30823,34 +30850,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="133" t="s">
         <v>1052</v>
       </c>
-      <c r="B1" s="138"/>
+      <c r="B1" s="133"/>
     </row>
     <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="134" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="134" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="134" t="s">
         <v>1058</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="134" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="55"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="134"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="45"/>
@@ -30869,14 +30896,14 @@
       <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="133" t="s">
         <v>1050</v>
       </c>
-      <c r="B10" s="138"/>
+      <c r="B10" s="133"/>
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="45"/>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="135" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -30891,16 +30918,16 @@
       <c r="B14" s="45"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="136" t="s">
         <v>1055</v>
       </c>
-      <c r="B15" s="141"/>
+      <c r="B15" s="136"/>
     </row>
     <row r="16" spans="1:2" ht="58">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="137" t="s">
         <v>1060</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="134" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -31483,10 +31510,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="130"/>
+      <c r="B20" s="138"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="879" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1072">
   <si>
     <r>
       <rPr>
@@ -22858,6 +22858,352 @@
         <charset val="1"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>1 аргумент! Ну 2. Но не больше! Много аргументов - трудно тестировать, много задач на 1 функции… (спорно)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>merge_all_elems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(list_b):
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> reduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(lambda left, right: a.merge(left, right, on=['DateTime']))</t>
+    </r>
+  </si>
+  <si>
+    <t>ВЫБИРАЙТЕ СОДЕРЖАТЕЛЬНЫЕ ИМЕНА
+ДЛЯ КОМПАКТНЫХ ФУНКЦИЙ
+ВЫПОЛНЯЮЩИХ 1 ОПЕРАЦИЮ НА 1 УРОВНЕ АБСТРАКЦИИ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def run</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(isTest)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> - плохо.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def runTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>- OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def runProduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>- OK</t>
+    </r>
+  </si>
+  <si>
+    <t>Для  функций и методов - глаголы с обстоятельствами.  
+Для классов и переменых - существительные с определениями</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>def makeCake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(strawberry)
+strawberry_cake</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 булевный аргумент - отказать! Делем отдельные функции на True/False ситуации, не передаём в виде аргумента.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            </t>
+  </si>
+  <si>
+    <t>Все блоки try - except, switch, большие деревья if-else выносятся в один уровень, а смысловые описания - в другой.
+В случае try-except он обычно уровнем выше.
+Ситуация, как с ErrorHandler'ом - 1 раз сделали, всё тело в него обернули и уже не паримся об ошибках.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сверху ###############</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+def deletePage(page):
+        try:
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>deletePageReferenceAndKey(page)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+        except:
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>logging.error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'Ошибка ...'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ниже (внутри) ###############</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+def deletePageReferenceAndKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(page):
+    deletePage(page)
+    registry.deleteReference(page.name)
+    configKeys.deleteKey(page.name.makeKey())
+</t>
     </r>
   </si>
 </sst>
@@ -23705,7 +24051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -23806,12 +24152,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24195,19 +24552,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -24225,6 +24569,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25954,59 +26325,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="135" t="s">
         <v>893</v>
       </c>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="134" t="s">
         <v>894</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="134" t="s">
         <v>895</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="134" t="s">
         <v>896</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="139" t="s">
+      <c r="A31" s="134" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="139" t="s">
+      <c r="A32" s="134" t="s">
         <v>898</v>
       </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="139" t="s">
+      <c r="A33" s="134" t="s">
         <v>899</v>
       </c>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -26031,7 +26402,7 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -27170,10 +27541,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="137" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="143"/>
+      <c r="B2" s="138"/>
     </row>
     <row r="3" spans="1:2" s="71" customFormat="1">
       <c r="A3" s="24" t="s">
@@ -27472,10 +27843,10 @@
       <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="137" t="s">
         <v>550</v>
       </c>
-      <c r="B44" s="143"/>
+      <c r="B44" s="138"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A45" s="73" t="s">
@@ -27863,7 +28234,7 @@
       <c r="A102" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="B102" s="141" t="s">
+      <c r="B102" s="136" t="s">
         <v>641</v>
       </c>
     </row>
@@ -27871,7 +28242,7 @@
       <c r="A103" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="B103" s="141"/>
+      <c r="B103" s="136"/>
     </row>
     <row r="104" spans="1:2" ht="43.5">
       <c r="A104" s="27" t="s">
@@ -29229,7 +29600,7 @@
       <c r="A18" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="136" t="s">
         <v>747</v>
       </c>
     </row>
@@ -29237,37 +29608,37 @@
       <c r="A19" s="83" t="s">
         <v>748</v>
       </c>
-      <c r="B19" s="141"/>
+      <c r="B19" s="136"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="83" t="s">
         <v>749</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="136"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="B21" s="141"/>
+      <c r="B21" s="136"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="83" t="s">
         <v>751</v>
       </c>
-      <c r="B22" s="141"/>
+      <c r="B22" s="136"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="B23" s="141"/>
+      <c r="B23" s="136"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="83" t="s">
         <v>753</v>
       </c>
-      <c r="B24" s="141"/>
+      <c r="B24" s="136"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -30282,8 +30653,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.36328125" defaultRowHeight="14.5"/>
@@ -30836,120 +31207,254 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="65.26953125" customWidth="1"/>
+    <col min="1" max="1" width="65.26953125" style="139" customWidth="1"/>
+    <col min="2" max="2" width="79.26953125" style="139" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="139"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="145" t="s">
         <v>1052</v>
       </c>
-      <c r="B1" s="133"/>
-    </row>
-    <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="134" t="s">
+      <c r="B1" s="145"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="146" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="146" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29">
-      <c r="A3" s="134" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="146" t="s">
         <v>1058</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="146" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="134"/>
+    <row r="4" spans="1:2" ht="43.5">
+      <c r="A4" s="147"/>
+      <c r="B4" s="146" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="146"/>
+    </row>
+    <row r="6" spans="1:2" ht="29">
+      <c r="A6" s="140" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B6" s="141" t="s">
+        <v>1065</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="145" t="s">
         <v>1050</v>
       </c>
-      <c r="B10" s="133"/>
-    </row>
-    <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="45"/>
-      <c r="B12" s="135" t="s">
+      <c r="B10" s="145"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="141"/>
+    </row>
+    <row r="12" spans="1:2" ht="29" customHeight="1">
+      <c r="A12" s="141"/>
+      <c r="B12" s="142" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45" t="s">
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="140" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B13" s="142" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="136" t="s">
+      <c r="A14" s="141"/>
+      <c r="B14" s="141"/>
+    </row>
+    <row r="15" spans="1:2" ht="29">
+      <c r="A15" s="141"/>
+      <c r="B15" s="143" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="58">
+      <c r="A16" s="140" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="139" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29">
+      <c r="A18" s="141" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B18" s="141"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="141"/>
+      <c r="B19" s="141"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="141"/>
+      <c r="B20" s="141"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="144" t="s">
         <v>1055</v>
       </c>
-      <c r="B15" s="136"/>
-    </row>
-    <row r="16" spans="1:2" ht="58">
-      <c r="A16" s="137" t="s">
+      <c r="B21" s="144"/>
+    </row>
+    <row r="22" spans="1:3" ht="58">
+      <c r="A22" s="140" t="s">
         <v>1060</v>
       </c>
-      <c r="B16" s="134" t="s">
+      <c r="B22" s="146" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+    <row r="23" spans="1:3">
+      <c r="A23" s="141"/>
+      <c r="B23" s="141"/>
+    </row>
+    <row r="24" spans="1:3" ht="217.5">
+      <c r="A24" s="140" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B24" s="112" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="141"/>
+      <c r="B26" s="141"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="141"/>
+      <c r="B27" s="141"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="141"/>
+      <c r="B28" s="141"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="141"/>
+      <c r="B29" s="141"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="141"/>
+      <c r="B30" s="141"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="141"/>
+      <c r="B32" s="141"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="141"/>
+      <c r="B33" s="141"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="141"/>
+      <c r="B34" s="141"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="141"/>
+      <c r="B35" s="141"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="141"/>
+      <c r="B36" s="141"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="141"/>
+      <c r="B37" s="141"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="141"/>
+      <c r="B38" s="141"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="141"/>
+      <c r="B39" s="141"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="141"/>
+      <c r="B41" s="141"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="141"/>
+      <c r="B42" s="141"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="141"/>
+      <c r="B44" s="141"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="141"/>
+      <c r="B45" s="141"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="141"/>
+      <c r="B46" s="141"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="141"/>
+      <c r="B47" s="141"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="141"/>
+      <c r="B48" s="141"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31510,10 +32015,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="138"/>
+      <c r="B20" s="133"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1078">
   <si>
     <r>
       <rPr>
@@ -19600,65 +19600,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>cursor.execute</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF33691E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"""INSERT INTO albums
-                  VALUES ('Glow', 'Andy Hunter', '7/24/2012',
-                  'Xplore Records', 'MP3')"""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  )
-conn.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D47A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>commit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">()
-</t>
-    </r>
-  </si>
-  <si>
     <t>Вставляем данные в таблицу
 Сохраняем изменения</t>
   </si>
@@ -23079,10 +23020,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">
-            </t>
-  </si>
-  <si>
     <t>Все блоки try - except, switch, большие деревья if-else выносятся в один уровень, а смысловые описания - в другой.
 В случае try-except он обычно уровнем выше.
 Ситуация, как с ErrorHandler'ом - 1 раз сделали, всё тело в него обернули и уже не паримся об ошибках.</t>
@@ -23204,6 +23141,140 @@
     registry.deleteReference(page.name)
     configKeys.deleteKey(page.name.makeKey())
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cursor.execute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF33691E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"""INSERT INTO albums
+                  VALUES ('Glow', 'Andy Hunter', '7/24/2012',
+                  'Xplore Records', 'MP3')"""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  )
+conn.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D47A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>flask run --host=0.0.0.0 --port=80</t>
+  </si>
+  <si>
+    <t>Запустить фласк на указанных хосте и порте</t>
+  </si>
+  <si>
+    <t>1 ОПЕРАЦИЯ НА 1 УРОВНЕ АБСТРАКЦИИ</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t># Проверяем, положена ли премия сотруднику
+if (emploee.flags and HOURLY_FLAG)  and emploee.age &gt; 65:  ...
+If emploee.is_eligible_for_full_benefits():  …</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Комментарии устаревают.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Поэтому лучше избегать.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Убираем комментарии, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>вводим функцию с именем, повторяющим комментарий.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Пример замены коммента на функцию</t>
     </r>
   </si>
 </sst>
@@ -24168,7 +24239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24552,24 +24623,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -24595,6 +24648,27 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -24952,7 +25026,7 @@
   <dimension ref="A1:AMJ20"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -24992,15 +25066,19 @@
     </row>
     <row r="5" spans="1:2" ht="29">
       <c r="A5" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
@@ -25074,16 +25152,16 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="125" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B19" s="125"/>
     </row>
     <row r="20" spans="1:2" ht="43.5">
       <c r="A20" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -25803,26 +25881,26 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="45" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="45" t="s">
+        <v>993</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>994</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="45" t="s">
+        <v>995</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>996</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -26325,59 +26403,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="144" t="s">
         <v>893</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="143" t="s">
         <v>894</v>
       </c>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="143" t="s">
         <v>895</v>
       </c>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="143" t="s">
         <v>896</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="143" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="143" t="s">
         <v>898</v>
       </c>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="143" t="s">
         <v>899</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -26467,26 +26545,26 @@
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="110" t="s">
+        <v>981</v>
+      </c>
+      <c r="B9" s="110" t="s">
         <v>982</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="B11" s="130" t="s">
         <v>986</v>
-      </c>
-      <c r="B11" s="130" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
@@ -26494,12 +26572,12 @@
         <v>334</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72.5">
       <c r="A13" s="54" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>335</v>
@@ -26507,10 +26585,10 @@
     </row>
     <row r="14" spans="1:2" ht="87">
       <c r="A14" s="27" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="87">
@@ -27095,10 +27173,10 @@
     </row>
     <row r="33" spans="2:3" ht="29">
       <c r="B33" s="24" t="s">
+        <v>979</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>980</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -27541,10 +27619,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="146" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="138"/>
+      <c r="B2" s="147"/>
     </row>
     <row r="3" spans="1:2" s="71" customFormat="1">
       <c r="A3" s="24" t="s">
@@ -27756,10 +27834,10 @@
     </row>
     <row r="30" spans="1:2" s="71" customFormat="1">
       <c r="A30" s="24" t="s">
+        <v>979</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>980</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="71" customFormat="1">
@@ -27843,10 +27921,10 @@
       <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1">
-      <c r="A44" s="137" t="s">
+      <c r="A44" s="146" t="s">
         <v>550</v>
       </c>
-      <c r="B44" s="138"/>
+      <c r="B44" s="147"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A45" s="73" t="s">
@@ -27874,7 +27952,7 @@
     </row>
     <row r="48" spans="1:2" s="71" customFormat="1">
       <c r="A48" s="74" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B48" s="74" t="s">
         <v>557</v>
@@ -27882,7 +27960,7 @@
     </row>
     <row r="49" spans="1:2" s="71" customFormat="1">
       <c r="A49" s="74" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B49" s="74" t="s">
         <v>558</v>
@@ -27890,7 +27968,7 @@
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1">
       <c r="A50" s="74" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B50" s="74" t="s">
         <v>559</v>
@@ -28234,7 +28312,7 @@
       <c r="A102" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="B102" s="136" t="s">
+      <c r="B102" s="145" t="s">
         <v>641</v>
       </c>
     </row>
@@ -28242,7 +28320,7 @@
       <c r="A103" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="B103" s="136"/>
+      <c r="B103" s="145"/>
     </row>
     <row r="104" spans="1:2" ht="43.5">
       <c r="A104" s="27" t="s">
@@ -28460,26 +28538,26 @@
     </row>
     <row r="137" spans="1:2" ht="29">
       <c r="A137" s="110" t="s">
+        <v>981</v>
+      </c>
+      <c r="B137" s="110" t="s">
         <v>982</v>
-      </c>
-      <c r="B137" s="110" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="B139" s="27" t="s">
         <v>986</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -28953,8 +29031,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -28978,12 +29056,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="87">
+    <row r="3" spans="1:2" ht="72.5">
       <c r="A3" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>978</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
@@ -29074,10 +29152,10 @@
     </row>
     <row r="17" spans="1:2" ht="175.5">
       <c r="A17" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>1002</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="121.5">
@@ -29258,24 +29336,24 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B47" s="19"/>
     </row>
     <row r="48" spans="1:2" ht="58">
       <c r="A48" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>1000</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="145">
       <c r="A49" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -29600,7 +29678,7 @@
       <c r="A18" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="145" t="s">
         <v>747</v>
       </c>
     </row>
@@ -29608,37 +29686,37 @@
       <c r="A19" s="83" t="s">
         <v>748</v>
       </c>
-      <c r="B19" s="136"/>
+      <c r="B19" s="145"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="83" t="s">
         <v>749</v>
       </c>
-      <c r="B20" s="136"/>
+      <c r="B20" s="145"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="B21" s="136"/>
+      <c r="B21" s="145"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="83" t="s">
         <v>751</v>
       </c>
-      <c r="B22" s="136"/>
+      <c r="B22" s="145"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="B23" s="136"/>
+      <c r="B23" s="145"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="83" t="s">
         <v>753</v>
       </c>
-      <c r="B24" s="136"/>
+      <c r="B24" s="145"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -30109,16 +30187,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="87" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -30157,7 +30235,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>795</v>
@@ -30165,7 +30243,7 @@
     </row>
     <row r="12" spans="1:2" ht="29">
       <c r="A12" s="25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B12" s="128"/>
     </row>
@@ -30177,7 +30255,7 @@
     </row>
     <row r="14" spans="1:2" ht="58">
       <c r="A14" s="25" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>797</v>
@@ -30793,16 +30871,16 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="131" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B20" s="131"/>
     </row>
     <row r="21" spans="1:2" ht="116">
       <c r="A21" s="132" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>1048</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31209,252 +31287,280 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="65.26953125" style="139" customWidth="1"/>
-    <col min="2" max="2" width="79.26953125" style="139" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="139"/>
+    <col min="1" max="1" width="65.26953125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="79.26953125" style="133" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="139" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" s="139"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="140" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="140" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5">
+      <c r="A4" s="141"/>
+      <c r="B4" s="140" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+    </row>
+    <row r="6" spans="1:2" ht="29">
+      <c r="A6" s="134" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B6" s="135" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="139" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B10" s="139"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="135"/>
+      <c r="B11" s="133" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29" customHeight="1">
+      <c r="A12" s="135"/>
+      <c r="B12" s="136" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="134" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B13" s="136" t="s">
         <v>1052</v>
       </c>
-      <c r="B1" s="145"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="146" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
+    </row>
+    <row r="15" spans="1:2" ht="29">
+      <c r="A15" s="135"/>
+      <c r="B15" s="137" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="58">
+      <c r="A16" s="134" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="133" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B18" s="113"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="148" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="58">
+      <c r="A20" s="112" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="112"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="138" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B26" s="138"/>
+    </row>
+    <row r="27" spans="1:3" ht="58">
+      <c r="A27" s="134" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="146" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="146" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B3" s="146" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.5">
-      <c r="A4" s="147"/>
-      <c r="B4" s="146" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
-    </row>
-    <row r="6" spans="1:2" ht="29">
-      <c r="A6" s="140" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B6" s="141" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="145" t="s">
+      <c r="B27" s="140" t="s">
         <v>1050</v>
       </c>
-      <c r="B10" s="145"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="141"/>
-    </row>
-    <row r="12" spans="1:2" ht="29" customHeight="1">
-      <c r="A12" s="141"/>
-      <c r="B12" s="142" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="140" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B13" s="142" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="141"/>
-      <c r="B14" s="141"/>
-    </row>
-    <row r="15" spans="1:2" ht="29">
-      <c r="A15" s="141"/>
-      <c r="B15" s="143" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="58">
-      <c r="A16" s="140" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="139" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
+    </row>
+    <row r="29" spans="1:3" ht="217.5">
+      <c r="A29" s="134" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B29" s="112" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29">
-      <c r="A18" s="141" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B18" s="141"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="141"/>
-      <c r="B19" s="141"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="141"/>
-      <c r="B20" s="141"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="144" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B21" s="144"/>
-    </row>
-    <row r="22" spans="1:3" ht="58">
-      <c r="A22" s="140" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B22" s="146" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="141"/>
-      <c r="B23" s="141"/>
-    </row>
-    <row r="24" spans="1:3" ht="217.5">
-      <c r="A24" s="140" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="141"/>
-      <c r="B25" s="141"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="141"/>
-      <c r="B26" s="141"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="141"/>
-      <c r="B27" s="141"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="141"/>
-      <c r="B28" s="141"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="141"/>
-      <c r="B29" s="141"/>
-    </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="141"/>
-      <c r="B30" s="141"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="141"/>
-      <c r="B31" s="141"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="141"/>
-      <c r="B32" s="141"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="141"/>
-      <c r="B33" s="141"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="141"/>
-      <c r="B34" s="141"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="141"/>
-      <c r="B35" s="141"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="141"/>
-      <c r="B36" s="141"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="141"/>
-      <c r="B37" s="141"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="141"/>
-      <c r="B38" s="141"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="141"/>
-      <c r="B39" s="141"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="141"/>
-      <c r="B40" s="141"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="141"/>
-      <c r="B41" s="141"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="141"/>
-      <c r="B42" s="141"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="135"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="141"/>
-      <c r="B43" s="141"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="135"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="141"/>
-      <c r="B44" s="141"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="135"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="141"/>
-      <c r="B45" s="141"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="141"/>
-      <c r="B46" s="141"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="141"/>
-      <c r="B47" s="141"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="135"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="141"/>
-      <c r="B48" s="141"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="135"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="135"/>
+      <c r="B49" s="135"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="135"/>
+      <c r="B50" s="135"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="135"/>
+      <c r="B51" s="135"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="135"/>
+      <c r="B52" s="135"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="135"/>
+      <c r="B53" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31520,24 +31626,24 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="127" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B9" s="127"/>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="95" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="130.5">
       <c r="A11" s="95" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -32015,10 +32121,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="133"/>
+      <c r="B20" s="142"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">
@@ -32235,19 +32341,19 @@
     </row>
     <row r="8" spans="1:3" ht="87">
       <c r="A8" s="24" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C8" s="106"/>
     </row>
     <row r="9" spans="1:3" ht="101.5">
       <c r="A9" s="106" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B9" s="106" t="s">
         <v>1017</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>1018</v>
       </c>
       <c r="C9" s="106"/>
     </row>
@@ -32411,15 +32517,15 @@
     </row>
     <row r="2" spans="1:2" ht="87">
       <c r="A2" s="24" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="272.5" customHeight="1">
       <c r="A3" s="109" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B3" s="112" t="s">
         <v>153</v>
@@ -32471,7 +32577,7 @@
     </row>
     <row r="10" spans="1:2" ht="101.5">
       <c r="A10" s="119" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B10" s="109" t="s">
         <v>164</v>
@@ -32479,7 +32585,7 @@
     </row>
     <row r="11" spans="1:2" ht="72.5">
       <c r="A11" s="118" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B11" s="109" t="s">
         <v>165</v>
@@ -32487,18 +32593,18 @@
     </row>
     <row r="12" spans="1:2" ht="116">
       <c r="A12" s="109" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72.5">
       <c r="A13" s="129" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -32511,7 +32617,7 @@
     </row>
     <row r="15" spans="1:2" ht="112">
       <c r="A15" s="120" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B15" s="112" t="s">
         <v>168</v>
@@ -32519,10 +32625,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="120" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B16" s="112" t="s">
         <v>1028</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
@@ -32535,7 +32641,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="116" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B18" s="112" t="s">
         <v>171</v>
@@ -32543,26 +32649,26 @@
     </row>
     <row r="19" spans="1:2" ht="43.5">
       <c r="A19" s="112" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29">
       <c r="A20" s="112" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="87">
       <c r="A21" s="112" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B21" s="112" t="s">
         <v>1044</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1079">
   <si>
     <r>
       <rPr>
@@ -23208,9 +23208,6 @@
     <t>Запустить фласк на указанных хосте и порте</t>
   </si>
   <si>
-    <t>1 ОПЕРАЦИЯ НА 1 УРОВНЕ АБСТРАКЦИИ</t>
-  </si>
-  <si>
     <t>Комментарии</t>
   </si>
   <si>
@@ -23276,6 +23273,33 @@
       </rPr>
       <t>Пример замены коммента на функцию</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сверху идут функции ВЫСОКОГО уровня. Внизу - низкого.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Если 1-я функция вызывает 2-ю, то 1-я сверху, а сразу ПОД ней - 2-я.</t>
+    </r>
+  </si>
+  <si>
+    <t>В 1 ФУНКЦИИ - 1 ОПЕРАЦИЯ НА 1 УРОВНЕ АБСТРАКЦИИ</t>
   </si>
 </sst>
 </file>
@@ -24239,7 +24263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24650,6 +24674,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -24668,7 +24695,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -26403,59 +26433,59 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="145" t="s">
         <v>893</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
     </row>
     <row r="28" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="144" t="s">
         <v>894</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="144" t="s">
         <v>895</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="144" t="s">
         <v>896</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="144" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="144" t="s">
         <v>898</v>
       </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="144" t="s">
         <v>899</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="27"/>
     </row>
   </sheetData>
@@ -27619,10 +27649,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="32" customFormat="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="147" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="147"/>
+      <c r="B2" s="148"/>
     </row>
     <row r="3" spans="1:2" s="71" customFormat="1">
       <c r="A3" s="24" t="s">
@@ -27921,10 +27951,10 @@
       <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="147" t="s">
         <v>550</v>
       </c>
-      <c r="B44" s="147"/>
+      <c r="B44" s="148"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="58">
       <c r="A45" s="73" t="s">
@@ -28312,7 +28342,7 @@
       <c r="A102" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="B102" s="145" t="s">
+      <c r="B102" s="146" t="s">
         <v>641</v>
       </c>
     </row>
@@ -28320,7 +28350,7 @@
       <c r="A103" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="B103" s="145"/>
+      <c r="B103" s="146"/>
     </row>
     <row r="104" spans="1:2" ht="43.5">
       <c r="A104" s="27" t="s">
@@ -29678,7 +29708,7 @@
       <c r="A18" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="146" t="s">
         <v>747</v>
       </c>
     </row>
@@ -29686,37 +29716,37 @@
       <c r="A19" s="83" t="s">
         <v>748</v>
       </c>
-      <c r="B19" s="145"/>
+      <c r="B19" s="146"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="83" t="s">
         <v>749</v>
       </c>
-      <c r="B20" s="145"/>
+      <c r="B20" s="146"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="B21" s="145"/>
+      <c r="B21" s="146"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="83" t="s">
         <v>751</v>
       </c>
-      <c r="B22" s="145"/>
+      <c r="B22" s="146"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="B23" s="145"/>
+      <c r="B23" s="146"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="83" t="s">
         <v>753</v>
       </c>
-      <c r="B24" s="145"/>
+      <c r="B24" s="146"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="27"/>
@@ -31287,10 +31317,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -31360,8 +31390,8 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="135"/>
-      <c r="B11" s="133" t="s">
-        <v>1073</v>
+      <c r="B11" s="150" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" customHeight="1">
@@ -31370,59 +31400,61 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="134" t="s">
+    <row r="13" spans="1:2" ht="29" customHeight="1">
+      <c r="A13" s="135"/>
+      <c r="B13" s="149" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29">
+      <c r="A14" s="134" t="s">
         <v>1061</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B14" s="136" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
-    </row>
-    <row r="15" spans="1:2" ht="29">
+    <row r="15" spans="1:2">
       <c r="A15" s="135"/>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="135"/>
+    </row>
+    <row r="16" spans="1:2" ht="29">
+      <c r="A16" s="135"/>
+      <c r="B16" s="137" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="58">
-      <c r="A16" s="134" t="s">
+    <row r="17" spans="1:3" ht="58">
+      <c r="A17" s="134" t="s">
         <v>1063</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B17" s="137" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="133" t="s">
+    <row r="18" spans="1:3">
+      <c r="C18" s="133" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="113" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="113" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B19" s="113"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="142" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="58">
+      <c r="A21" s="112" t="s">
         <v>1074</v>
       </c>
-      <c r="B18" s="113"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="148" t="s">
+      <c r="B21" s="24" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="58">
-      <c r="A20" s="112" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="112"/>
@@ -31434,41 +31466,41 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="112"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="112"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="138" t="s">
         <v>1054</v>
       </c>
-      <c r="B26" s="138"/>
-    </row>
-    <row r="27" spans="1:3" ht="58">
-      <c r="A27" s="134" t="s">
+      <c r="B27" s="138"/>
+    </row>
+    <row r="28" spans="1:3" ht="58">
+      <c r="A28" s="134" t="s">
         <v>1059</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B28" s="140" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="135"/>
-      <c r="B28" s="135"/>
-    </row>
-    <row r="29" spans="1:3" ht="217.5">
-      <c r="A29" s="134" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+    </row>
+    <row r="30" spans="1:3" ht="217.5">
+      <c r="A30" s="134" t="s">
         <v>1069</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="B30" s="112" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="135"/>
@@ -31561,6 +31593,10 @@
     <row r="53" spans="1:2">
       <c r="A53" s="135"/>
       <c r="B53" s="135"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="135"/>
+      <c r="B54" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32121,10 +32157,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="142"/>
+      <c r="B20" s="143"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -6565,7 +6565,7 @@
 Если url захочет нас перенаправить (например, на загрузку файла или кратинки), можем разрешить через allowRediret=True</t>
   </si>
   <si>
-    <t xml:space="preserve">body = request.get_json()</t>
+    <t xml:space="preserve">body = response.get_json()</t>
   </si>
   <si>
     <t xml:space="preserve">Вытащить JSON из запроса</t>
@@ -11322,16 +11322,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">result = await </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">conn.</t>
+      <t xml:space="preserve">result = await conn.</t>
     </r>
     <r>
       <rPr>
@@ -11339,6 +11330,7 @@
         <color rgb="FF2A6099"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">execute</t>
     </r>
@@ -11348,6 +11340,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(tbl.select().where(tbl.c.val==</t>
     </r>
@@ -11357,6 +11350,7 @@
         <color rgb="FF127622"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'abc'</t>
     </r>
@@ -11366,6 +11360,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">))</t>
     </r>
@@ -11422,28 +11417,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Получить 1 ряд из результатов
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"># access via integer position
+    <t xml:space="preserve">Получить 1 ряд из результатов
+# access via integer position
 # access via name
 # access via Column object.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">def csv_reader(file_name):
@@ -34886,7 +34863,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="137">
+  <fonts count="134">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -35446,24 +35423,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2A6099"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF127622"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -36334,31 +36293,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="89" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="86" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="89" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="87" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="86" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="88" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="90" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="89" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="91" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="93" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36398,7 +36357,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36410,11 +36369,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36442,7 +36401,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="98" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="95" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36482,11 +36441,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="83" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="104" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36498,7 +36457,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="108" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="105" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36514,7 +36473,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="98" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="95" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36538,11 +36497,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="113" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="110" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="115" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="112" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36562,7 +36521,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="119" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="116" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36570,7 +36529,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="80" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36582,15 +36541,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="121" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="118" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="122" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="119" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="123" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="120" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36606,15 +36565,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="124" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="121" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="98" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="95" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="125" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="122" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36638,11 +36597,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="130" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="127" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="131" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="128" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36666,15 +36625,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="98" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="95" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36694,7 +36653,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="124" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="121" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -36743,14 +36702,14 @@
       <rgbColor rgb="FFEA4F01"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFC31D1D"/>
-      <rgbColor rgb="FF147225"/>
-      <rgbColor rgb="FFC55A11"/>
+      <rgbColor rgb="FF159724"/>
+      <rgbColor rgb="FFB85C00"/>
       <rgbColor rgb="FF578436"/>
       <rgbColor rgb="FF8E008D"/>
-      <rgbColor rgb="FF2B5D99"/>
+      <rgbColor rgb="FF2B5C98"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FFCA7E15"/>
       <rgbColor rgb="FF772DA3"/>
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFEEEEEE"/>
@@ -36758,13 +36717,13 @@
       <rgbColor rgb="FFEA7500"/>
       <rgbColor rgb="FF016DC0"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FFCA7E15"/>
+      <rgbColor rgb="FFC55A11"/>
       <rgbColor rgb="FFC45911"/>
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF6A1B9A"/>
       <rgbColor rgb="FFB75300"/>
-      <rgbColor rgb="FF606060"/>
+      <rgbColor rgb="FF266C21"/>
       <rgbColor rgb="FFFFF176"/>
       <rgbColor rgb="FF05B6F7"/>
       <rgbColor rgb="FFDDDDDD"/>
@@ -36783,12 +36742,12 @@
       <rgbColor rgb="FF7F6A7D"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF064BA0"/>
-      <rgbColor rgb="FF159724"/>
-      <rgbColor rgb="FFB85C00"/>
-      <rgbColor rgb="FF346B20"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF606060"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF87320D"/>
       <rgbColor rgb="FFBB430C"/>
-      <rgbColor rgb="FF463093"/>
+      <rgbColor rgb="FF36309E"/>
       <rgbColor rgb="FF2C3D1E"/>
     </indexedColors>
   </colors>
@@ -37231,7 +37190,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="68.59375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="68.609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
@@ -42827,7 +42786,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.859375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="95" width="62.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="95" width="68.09"/>
@@ -44601,8 +44560,8 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44693,7 +44652,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>160</v>
       </c>
@@ -44702,7 +44661,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>162</v>
       </c>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1934">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -16482,46 +16482,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Эта обратная связь находит персон, 
-id которых числятся как дети (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"child") в </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">записи Linkparent,
-которая в person имеет нашего </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">profile.person</t>
-    </r>
+    <t xml:space="preserve">Эта обратная связь находит персон, 
+id которых числятся как дети ("child") в записи Linkparent,
+которая в person имеет нашего profile.person</t>
   </si>
   <si>
     <t xml:space="preserve">Методы оптимизации</t>
@@ -56674,6 +56637,256 @@
     <t xml:space="preserve">Строка из Timestamp</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBE480A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBE480A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> datetime
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBE480A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> itertools </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBE480A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBE480A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB47804"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">is_overlapped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(ranges):
+    sorted_ranges = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF55308D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">sorted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(ranges, key=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBE480A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> begin_end: begin_end[0])
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBE480A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF55308D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(chain(*sorted_ranges)) != </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF55308D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">sorted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(chain(*sorted_ranges))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Проверка на пересечение двух периодов в 2 строки.
+Если начало 1 между </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">началом и концом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> второго
+ИЛИ конец 1 между началом и концом второго
+ИЛИ наоборот - периоды пересекаются.
+более буквальное, но длинное решение - тут: https://stackoverflow.com/questions/35644301/checking-two-time-intervals-are-overlapping-or-not</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">https://python-docx.readthedocs.io/en/latest/user/text.html</t>
   </si>
   <si>
@@ -57404,7 +57617,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="197">
+  <fonts count="201">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -58093,12 +58306,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -58797,6 +59004,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFBE480A"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB47804"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55308D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF843C0B"/>
       <name val="Calibri"/>
@@ -59011,11 +59251,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="135" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="134" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -59336,7 +59576,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="96" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59360,11 +59600,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="103" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="102" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="105" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="104" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59400,7 +59640,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="100" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59412,7 +59652,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="116" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59428,7 +59668,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="118" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="117" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="124" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="117" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59436,15 +59684,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="118" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="126" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="132" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="131" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59456,7 +59696,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="135" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="134" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59472,11 +59712,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="143" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="142" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="143" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="142" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59496,7 +59736,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="145" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="144" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59512,15 +59752,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="116" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="148" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="147" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="100" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59540,11 +59780,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="156" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="155" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="155" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59552,19 +59796,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="155" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="157" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="156" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="158" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="160" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="159" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59612,7 +59852,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59672,7 +59912,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="169" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="168" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59720,7 +59960,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="176" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="175" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59740,7 +59980,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="180" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="179" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59760,15 +60000,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="181" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="180" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="182" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="181" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="183" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="182" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59784,7 +60024,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="96" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59792,20 +60032,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="184" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="183" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="187" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="187" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="186" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -59816,11 +60048,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="188" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="185" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="191" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="185" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="187" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="190" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59828,7 +60068,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="192" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="191" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59848,12 +60088,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="194" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -59872,7 +60116,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="96" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59884,15 +60128,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="143" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="142" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="143" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="142" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -59915,7 +60159,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FFB77E02"/>
+      <rgbColor rgb="FFB67D02"/>
       <rgbColor rgb="FFC55A11"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFEA4F01"/>
@@ -59981,7 +60225,7 @@
   </sheetPr>
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -60814,7 +61058,7 @@
   </sheetPr>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -61259,7 +61503,7 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -61578,7 +61822,7 @@
   </sheetPr>
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
     </sheetView>
   </sheetViews>
@@ -62506,7 +62750,7 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -62766,7 +63010,7 @@
   </sheetPr>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -63201,7 +63445,7 @@
   </sheetPr>
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -64104,7 +64348,7 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -64453,11 +64697,11 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="68.96484375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="68.98046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="113" t="s">
@@ -64546,7 +64790,7 @@
   </sheetPr>
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -65682,7 +65926,7 @@
   </sheetPr>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -65973,7 +66217,7 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -66203,7 +66447,7 @@
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -66489,7 +66733,7 @@
   </sheetPr>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -67054,7 +67298,7 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -67307,7 +67551,7 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -67812,7 +68056,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -67941,7 +68185,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -68044,7 +68288,7 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -68410,7 +68654,7 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -68783,7 +69027,7 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -69055,11 +69299,11 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.1953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="52.20703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="62.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="68.09"/>
@@ -69209,11 +69453,18 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    <row r="20" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="210" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1857</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" display="https://stackoverflow.com/questions/35644301/checking-two-time-intervals-are-overlapping-or-not"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -69232,7 +69483,7 @@
   </sheetPr>
   <dimension ref="A2:I69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -69702,7 +69953,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -69725,10 +69976,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69745,7 +69996,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="180" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B7" s="61"/>
     </row>
@@ -69763,15 +70014,15 @@
     </row>
     <row r="11" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -69837,7 +70088,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -69847,22 +70098,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="211" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B2" s="211"/>
+        <v>1864</v>
+      </c>
+      <c r="B2" s="212"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B3" s="11"/>
     </row>
@@ -69929,7 +70180,7 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -69948,17 +70199,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="212" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B2" s="213"/>
+      <c r="A2" s="213" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B2" s="214"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69967,10 +70218,10 @@
     </row>
     <row r="5" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="53" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69986,93 +70237,93 @@
       <c r="B8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="212" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B9" s="213"/>
+      <c r="A9" s="213" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B9" s="214"/>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="56" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="56" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="56" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="56" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="56" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="56" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="56" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="214" t="s">
-        <v>1886</v>
+      <c r="A19" s="215" t="s">
+        <v>1888</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="214"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="214"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70084,73 +70335,73 @@
       <c r="B23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="212" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B24" s="213"/>
+      <c r="A24" s="213" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B24" s="214"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70167,30 +70418,30 @@
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="61" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="B36" s="61"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70243,39 +70494,39 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="215" width="85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="215" width="109.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="216" width="85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="216" width="109.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="171" width="9.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215" t="s">
-        <v>1911</v>
+      <c r="B1" s="216" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B2" s="215" t="s">
-        <v>1913</v>
+        <v>1914</v>
+      </c>
+      <c r="B2" s="216" t="s">
+        <v>1915</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B3" s="215" t="s">
-        <v>1915</v>
+        <v>1916</v>
+      </c>
+      <c r="B3" s="216" t="s">
+        <v>1917</v>
       </c>
     </row>
   </sheetData>
@@ -70296,7 +70547,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -70316,26 +70567,26 @@
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70343,48 +70594,48 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="216" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B6" s="216" t="s">
-        <v>1923</v>
+      <c r="A6" s="217" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B6" s="217" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="216" t="s">
-        <v>1924</v>
+      <c r="A7" s="217" t="s">
+        <v>1926</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="216" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B8" s="216" t="s">
-        <v>1927</v>
+      <c r="A8" s="217" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B8" s="217" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="216"/>
-      <c r="B9" s="216"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="217"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="216"/>
-      <c r="B10" s="216"/>
+      <c r="A10" s="217"/>
+      <c r="B10" s="217"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="216"/>
-      <c r="B11" s="216"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="217"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="216"/>
-      <c r="B12" s="216"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="217"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="216"/>
-      <c r="B13" s="216"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="217"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -70404,7 +70655,7 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -70415,7 +70666,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="189" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B1" s="189"/>
     </row>
@@ -70573,181 +70824,181 @@
   </sheetPr>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="217" width="43.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="217" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="218" width="43.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="218" width="9.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="218"/>
-      <c r="B1" s="218"/>
+      <c r="A1" s="219"/>
+      <c r="B1" s="219"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="219" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B2" s="220" t="s">
-        <v>1930</v>
+      <c r="A2" s="220" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B2" s="221" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="56.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="218"/>
-      <c r="B3" s="218" t="s">
-        <v>1931</v>
+      <c r="A3" s="219"/>
+      <c r="B3" s="219" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="218"/>
-      <c r="B4" s="218"/>
+      <c r="A4" s="219"/>
+      <c r="B4" s="219"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="218"/>
-      <c r="B5" s="218"/>
+      <c r="A5" s="219"/>
+      <c r="B5" s="219"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="218"/>
-      <c r="B6" s="218"/>
+      <c r="A6" s="219"/>
+      <c r="B6" s="219"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="218"/>
-      <c r="B8" s="218"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="219"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="218"/>
-      <c r="B9" s="218"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="219"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="218"/>
-      <c r="B10" s="218"/>
+      <c r="A10" s="219"/>
+      <c r="B10" s="219"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="218"/>
-      <c r="B11" s="218"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="219"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="218"/>
-      <c r="B12" s="218"/>
+      <c r="A12" s="219"/>
+      <c r="B12" s="219"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="218"/>
-      <c r="B13" s="218"/>
+      <c r="A13" s="219"/>
+      <c r="B13" s="219"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="218"/>
-      <c r="B14" s="218"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="219"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="218"/>
-      <c r="B15" s="218"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="219"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="218"/>
-      <c r="B16" s="218"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="219"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="218"/>
-      <c r="B17" s="218"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="219"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="218"/>
-      <c r="B18" s="218"/>
+      <c r="A18" s="219"/>
+      <c r="B18" s="219"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="218"/>
-      <c r="B19" s="218"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="219"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="218"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="219"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="218"/>
-      <c r="B21" s="218"/>
+      <c r="A21" s="219"/>
+      <c r="B21" s="219"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="218"/>
-      <c r="B22" s="218"/>
+      <c r="A22" s="219"/>
+      <c r="B22" s="219"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="218"/>
-      <c r="B23" s="218"/>
+      <c r="A23" s="219"/>
+      <c r="B23" s="219"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="218"/>
-      <c r="B24" s="218"/>
+      <c r="A24" s="219"/>
+      <c r="B24" s="219"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="218"/>
-      <c r="B25" s="218"/>
+      <c r="A25" s="219"/>
+      <c r="B25" s="219"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="218"/>
-      <c r="B26" s="218"/>
+      <c r="A26" s="219"/>
+      <c r="B26" s="219"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="218"/>
-      <c r="B27" s="218"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="219"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="218"/>
-      <c r="B28" s="218"/>
+      <c r="A28" s="219"/>
+      <c r="B28" s="219"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="218"/>
-      <c r="B29" s="218"/>
+      <c r="A29" s="219"/>
+      <c r="B29" s="219"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="218"/>
-      <c r="B30" s="218"/>
+      <c r="A30" s="219"/>
+      <c r="B30" s="219"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="218"/>
-      <c r="B31" s="218"/>
+      <c r="A31" s="219"/>
+      <c r="B31" s="219"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="218"/>
-      <c r="B32" s="218"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="219"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="218"/>
-      <c r="B33" s="218"/>
+      <c r="A33" s="219"/>
+      <c r="B33" s="219"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="218"/>
-      <c r="B34" s="218"/>
+      <c r="A34" s="219"/>
+      <c r="B34" s="219"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="218"/>
-      <c r="B35" s="218"/>
+      <c r="A35" s="219"/>
+      <c r="B35" s="219"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="218"/>
-      <c r="B36" s="218"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="219"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="218"/>
-      <c r="B37" s="218"/>
+      <c r="A37" s="219"/>
+      <c r="B37" s="219"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="218"/>
-      <c r="B38" s="218"/>
+      <c r="A38" s="219"/>
+      <c r="B38" s="219"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="218"/>
-      <c r="B39" s="218"/>
+      <c r="A39" s="219"/>
+      <c r="B39" s="219"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="218"/>
-      <c r="B40" s="218"/>
+      <c r="A40" s="219"/>
+      <c r="B40" s="219"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="218"/>
-      <c r="B41" s="218"/>
+      <c r="A41" s="219"/>
+      <c r="B41" s="219"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -70768,7 +71019,7 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -71074,7 +71325,7 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -71417,7 +71668,7 @@
   </sheetPr>
   <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B166" activeCellId="0" sqref="B166"/>
     </sheetView>
   </sheetViews>
@@ -73214,7 +73465,7 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -73441,7 +73692,7 @@
   </sheetPr>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -73725,7 +73976,7 @@
   </sheetPr>
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>

--- a/Elegant_Python.xlsx
+++ b/Elegant_Python.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="1" state="visible" r:id="rId2"/>
@@ -41294,7 +41294,36 @@
     <t xml:space="preserve">Сделать лист/строку/кортеж обратной последовательности, то же, что .reverse()</t>
   </si>
   <si>
-    <t xml:space="preserve">list.sort()</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">list.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">()</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">быстрая сортировка листа по возрастанию / алфавиту</t>
@@ -56852,39 +56881,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Проверка на пересечение двух периодов в 2 строки.
-Если начало 1 между </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">началом и концом</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> второго
+    <t xml:space="preserve">Проверка на пересечение двух периодов в 2 строки.
+Если начало 1 между началом и концом второго
 ИЛИ конец 1 между началом и концом второго
 ИЛИ наоборот - периоды пересекаются.
 более буквальное, но длинное решение - тут: https://stackoverflow.com/questions/35644301/checking-two-time-intervals-are-overlapping-or-not</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">https://python-docx.readthedocs.io/en/latest/user/text.html</t>
@@ -57617,7 +57618,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="201">
+  <fonts count="200">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -59032,12 +59033,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF843C0B"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -60225,7 +60220,7 @@
   </sheetPr>
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -64701,7 +64696,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="68.98046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="68.99609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="113" t="s">
@@ -64790,8 +64785,8 @@
   </sheetPr>
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -64823,7 +64818,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="4" s="64" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="64" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>1136</v>
       </c>
@@ -69299,11 +69294,11 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.20703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="52.22265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="tr